--- a/results_analysis/spark_wallFollow_01_hold_02.xlsx
+++ b/results_analysis/spark_wallFollow_01_hold_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F200100-9EA9-4842-B8CC-0BD43500C900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4FC28B-155E-49A5-A917-68A4F199D6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -26,17 +26,28 @@
     <sheet name="MCC" sheetId="14" r:id="rId11"/>
     <sheet name="F1S" sheetId="15" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="37">
   <si>
     <t>Sparsiciation Method</t>
   </si>
@@ -136,6 +147,18 @@
   <si>
     <t>XX DataSet 0x - hold 0x - Accuracy (best)</t>
   </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Comparison: Sparsification Method</t>
+  </si>
+  <si>
+    <t>Comparison: Design Method</t>
+  </si>
+  <si>
+    <t>Comparison: NN x KNN</t>
+  </si>
 </sst>
 </file>
 
@@ -164,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -519,11 +542,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -718,6 +823,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1000,27 +1123,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K53"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="T34" sqref="T34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
+    <col min="4" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" customWidth="1"/>
+    <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>22</v>
       </c>
@@ -1035,8 +1160,36 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="66" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
+      <c r="I3" s="67"/>
+      <c r="J3" s="67"/>
+      <c r="K3" s="68"/>
+      <c r="M3" s="66" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="67"/>
+      <c r="O3" s="67"/>
+      <c r="P3" s="67"/>
+      <c r="Q3" s="67"/>
+      <c r="R3" s="67"/>
+      <c r="S3" s="67"/>
+      <c r="T3" s="67"/>
+      <c r="U3" s="67"/>
+      <c r="V3" s="67"/>
+      <c r="W3" s="68"/>
+    </row>
+    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1070,8 +1223,41 @@
       <c r="K4" s="9" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1105,8 +1291,49 @@
       <c r="K5" s="53">
         <v>0.90883259911894299</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="57">
+        <f t="shared" ref="P5:W8" si="0">D5-MAX(D5,D9,D13,D17)</f>
+        <v>-0.49286343612334799</v>
+      </c>
+      <c r="Q5" s="57">
+        <f t="shared" si="0"/>
+        <v>-5.5660792951541915E-2</v>
+      </c>
+      <c r="R5" s="57">
+        <f t="shared" si="0"/>
+        <v>-0.16812775330396501</v>
+      </c>
+      <c r="S5" s="57">
+        <f t="shared" si="0"/>
+        <v>-5.8061674008810016E-2</v>
+      </c>
+      <c r="T5" s="57">
+        <f t="shared" si="0"/>
+        <v>-4.1762114537444939E-2</v>
+      </c>
+      <c r="U5" s="57">
+        <f t="shared" si="0"/>
+        <v>-2.7753303964758058E-2</v>
+      </c>
+      <c r="V5" s="57">
+        <f t="shared" si="0"/>
+        <v>-0.32233480176211404</v>
+      </c>
+      <c r="W5" s="69">
+        <f t="shared" si="0"/>
+        <v>-4.0903083700440046E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -1135,8 +1362,45 @@
       <c r="K6" s="15">
         <v>0.91081497797356803</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M6" s="4"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="54">
+        <f t="shared" si="0"/>
+        <v>-0.44817180616740004</v>
+      </c>
+      <c r="Q6" s="54">
+        <f t="shared" si="0"/>
+        <v>-3.1431718061673997E-2</v>
+      </c>
+      <c r="R6" s="54">
+        <f t="shared" si="0"/>
+        <v>-0.19270925110132198</v>
+      </c>
+      <c r="S6" s="54">
+        <f t="shared" si="0"/>
+        <v>-4.1299559471364988E-2</v>
+      </c>
+      <c r="T6" s="54">
+        <f t="shared" si="0"/>
+        <v>-4.0528634361233995E-2</v>
+      </c>
+      <c r="U6" s="54">
+        <f t="shared" si="0"/>
+        <v>-5.8259911894273042E-2</v>
+      </c>
+      <c r="V6" s="54">
+        <f t="shared" si="0"/>
+        <v>-0.42898678414096902</v>
+      </c>
+      <c r="W6" s="70">
+        <f t="shared" si="0"/>
+        <v>-4.4449339207048966E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -1168,8 +1432,47 @@
       <c r="K7" s="15">
         <v>0.90321585903083701</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M7" s="4"/>
+      <c r="N7" s="1">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="54">
+        <f t="shared" si="0"/>
+        <v>-0.12196035242290704</v>
+      </c>
+      <c r="Q7" s="54">
+        <f t="shared" si="0"/>
+        <v>-1.519823788546304E-2</v>
+      </c>
+      <c r="R7" s="54">
+        <f t="shared" si="0"/>
+        <v>-2.1497797356829107E-2</v>
+      </c>
+      <c r="S7" s="54">
+        <f t="shared" si="0"/>
+        <v>-1.715859030836997E-2</v>
+      </c>
+      <c r="T7" s="54">
+        <f t="shared" si="0"/>
+        <v>-2.9735682819382991E-2</v>
+      </c>
+      <c r="U7" s="54">
+        <f t="shared" si="0"/>
+        <v>-0.17541850220264299</v>
+      </c>
+      <c r="V7" s="54">
+        <f t="shared" si="0"/>
+        <v>-0.125859030837004</v>
+      </c>
+      <c r="W7" s="70">
+        <f t="shared" si="0"/>
+        <v>-6.0572687224670352E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -1199,8 +1502,45 @@
       <c r="K8" s="56">
         <v>0.90292951541850197</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="55">
+        <f t="shared" si="0"/>
+        <v>-0.103502202643172</v>
+      </c>
+      <c r="Q8" s="55">
+        <f t="shared" si="0"/>
+        <v>-2.3788546255509857E-3</v>
+      </c>
+      <c r="R8" s="55">
+        <f t="shared" si="0"/>
+        <v>-4.2665198237884949E-2</v>
+      </c>
+      <c r="S8" s="55">
+        <f t="shared" si="0"/>
+        <v>-2.1387665198237982E-2</v>
+      </c>
+      <c r="T8" s="55">
+        <f t="shared" si="0"/>
+        <v>-3.5440528634360979E-2</v>
+      </c>
+      <c r="U8" s="55">
+        <f t="shared" si="0"/>
+        <v>-0.13332599118942701</v>
+      </c>
+      <c r="V8" s="55">
+        <f t="shared" si="0"/>
+        <v>-0.14066079295154199</v>
+      </c>
+      <c r="W8" s="71">
+        <f t="shared" si="0"/>
+        <v>-3.9030837004405017E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1234,8 +1574,49 @@
       <c r="K9" s="59">
         <v>0.91277533039647596</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="57">
+        <f t="shared" ref="P9:W12" si="1">D9-MAX(D5,D9,D13,D17)</f>
+        <v>-3.1497797356828006E-2</v>
+      </c>
+      <c r="Q9" s="57">
+        <f t="shared" si="1"/>
+        <v>-5.6585903083699929E-2</v>
+      </c>
+      <c r="R9" s="57">
+        <f t="shared" si="1"/>
+        <v>-4.3303964757708924E-2</v>
+      </c>
+      <c r="S9" s="57">
+        <f t="shared" si="1"/>
+        <v>-4.1255506607928982E-2</v>
+      </c>
+      <c r="T9" s="57">
+        <f t="shared" si="1"/>
+        <v>-2.9691629955947985E-2</v>
+      </c>
+      <c r="U9" s="57">
+        <f t="shared" si="1"/>
+        <v>-0.76165198237885401</v>
+      </c>
+      <c r="V9" s="57">
+        <f t="shared" si="1"/>
+        <v>-8.8766519823789691E-3</v>
+      </c>
+      <c r="W9" s="69">
+        <f t="shared" si="1"/>
+        <v>-3.6960352422907072E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -1264,8 +1645,45 @@
       <c r="K10" s="15">
         <v>0.92581497797356804</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M10" s="4"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="54">
+        <f t="shared" si="1"/>
+        <v>-4.0352422907489083E-2</v>
+      </c>
+      <c r="Q10" s="54">
+        <f t="shared" si="1"/>
+        <v>-3.5132158590308937E-2</v>
+      </c>
+      <c r="R10" s="54">
+        <f t="shared" si="1"/>
+        <v>-5.4229074889868056E-2</v>
+      </c>
+      <c r="S10" s="54">
+        <f t="shared" si="1"/>
+        <v>-3.0110132158590042E-2</v>
+      </c>
+      <c r="T10" s="54">
+        <f t="shared" si="1"/>
+        <v>-4.4977973568281926E-2</v>
+      </c>
+      <c r="U10" s="54">
+        <f t="shared" si="1"/>
+        <v>-0.78665198237885503</v>
+      </c>
+      <c r="V10" s="54">
+        <f t="shared" si="1"/>
+        <v>-8.6189427312775013E-2</v>
+      </c>
+      <c r="W10" s="70">
+        <f t="shared" si="1"/>
+        <v>-2.9449339207048952E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -1297,8 +1715,47 @@
       <c r="K11" s="15">
         <v>0.90927312775330404</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="4"/>
+      <c r="N11" s="1">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="54">
+        <f t="shared" si="1"/>
+        <v>-4.9118942731269932E-3</v>
+      </c>
+      <c r="U11" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V11" s="54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W11" s="70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -1328,8 +1785,45 @@
       <c r="K12" s="56">
         <v>0.938766519823788</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="55">
+        <f t="shared" si="1"/>
+        <v>-8.2599118942729977E-3</v>
+      </c>
+      <c r="R12" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S12" s="55">
+        <f t="shared" si="1"/>
+        <v>-9.1409691629950052E-3</v>
+      </c>
+      <c r="T12" s="55">
+        <f t="shared" si="1"/>
+        <v>-2.0110132158590033E-2</v>
+      </c>
+      <c r="U12" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="V12" s="55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="W12" s="71">
+        <f t="shared" si="1"/>
+        <v>-3.1938325991189842E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1363,8 +1857,49 @@
       <c r="K13" s="59">
         <v>0.94973568281938303</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="57">
+        <f t="shared" ref="P13:W16" si="2">D13-MAX(D5,D9,D13,D17)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="57">
+        <f t="shared" si="2"/>
+        <v>-2.3854625550660979E-2</v>
+      </c>
+      <c r="R13" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S13" s="57">
+        <f t="shared" si="2"/>
+        <v>-1.0814977973568007E-2</v>
+      </c>
+      <c r="T13" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="U13" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V13" s="57">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W13" s="69">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -1393,8 +1928,45 @@
       <c r="K14" s="15">
         <v>0.95081497797356795</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M14" s="4"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="R14" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="54">
+        <f t="shared" si="2"/>
+        <v>-1.4867841409690996E-2</v>
+      </c>
+      <c r="T14" s="54">
+        <f t="shared" si="2"/>
+        <v>-7.7753303964759324E-3</v>
+      </c>
+      <c r="U14" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="V14" s="54">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="W14" s="70">
+        <f t="shared" si="2"/>
+        <v>-4.4493392070490412E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -1426,8 +1998,47 @@
       <c r="K15" s="15">
         <v>0.57658590308369995</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M15" s="4"/>
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="54">
+        <f t="shared" si="2"/>
+        <v>-0.28343612334801693</v>
+      </c>
+      <c r="Q15" s="54">
+        <f t="shared" si="2"/>
+        <v>-0.37486784140969209</v>
+      </c>
+      <c r="R15" s="54">
+        <f t="shared" si="2"/>
+        <v>-0.39319383259911911</v>
+      </c>
+      <c r="S15" s="54">
+        <f t="shared" si="2"/>
+        <v>-0.32008810572687196</v>
+      </c>
+      <c r="T15" s="54">
+        <f t="shared" si="2"/>
+        <v>-0.31162995594713605</v>
+      </c>
+      <c r="U15" s="54">
+        <f t="shared" si="2"/>
+        <v>-0.33158590308370095</v>
+      </c>
+      <c r="V15" s="54">
+        <f t="shared" si="2"/>
+        <v>-0.31931718061673997</v>
+      </c>
+      <c r="W15" s="70">
+        <f t="shared" si="2"/>
+        <v>-0.3326872246696041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -1457,8 +2068,45 @@
       <c r="K16" s="56">
         <v>0.66334801762114504</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M16" s="5"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="55">
+        <f t="shared" si="2"/>
+        <v>-0.27797356828193809</v>
+      </c>
+      <c r="Q16" s="55">
+        <f t="shared" si="2"/>
+        <v>-0.34995594713656408</v>
+      </c>
+      <c r="R16" s="55">
+        <f t="shared" si="2"/>
+        <v>-0.33215859030836992</v>
+      </c>
+      <c r="S16" s="55">
+        <f t="shared" si="2"/>
+        <v>-0.28651982378854601</v>
+      </c>
+      <c r="T16" s="55">
+        <f t="shared" si="2"/>
+        <v>-0.35588105726872199</v>
+      </c>
+      <c r="U16" s="55">
+        <f t="shared" si="2"/>
+        <v>-0.30204845814977899</v>
+      </c>
+      <c r="V16" s="55">
+        <f t="shared" si="2"/>
+        <v>-0.35207048458149803</v>
+      </c>
+      <c r="W16" s="71">
+        <f t="shared" si="2"/>
+        <v>-0.27861233480176195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -1492,8 +2140,49 @@
       <c r="K17" s="59">
         <v>0.90107929515418494</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="57">
+        <f t="shared" ref="P17:W20" si="3">D17-MAX(D5,D9,D13,D17)</f>
+        <v>-3.2907488986783973E-2</v>
+      </c>
+      <c r="Q17" s="57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R17" s="57">
+        <f t="shared" si="3"/>
+        <v>-5.9140969162994939E-2</v>
+      </c>
+      <c r="S17" s="57">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T17" s="57">
+        <f t="shared" si="3"/>
+        <v>-8.850220264317199E-2</v>
+      </c>
+      <c r="U17" s="57">
+        <f t="shared" si="3"/>
+        <v>-4.9713656387665006E-2</v>
+      </c>
+      <c r="V17" s="57">
+        <f t="shared" si="3"/>
+        <v>-0.34555066079295205</v>
+      </c>
+      <c r="W17" s="69">
+        <f t="shared" si="3"/>
+        <v>-4.8656387665198086E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -1522,8 +2211,45 @@
       <c r="K18" s="15">
         <v>0.955264317180617</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M18" s="4"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="54">
+        <f t="shared" si="3"/>
+        <v>-0.35211453744493304</v>
+      </c>
+      <c r="Q18" s="54">
+        <f t="shared" si="3"/>
+        <v>-2.5022026431718025E-2</v>
+      </c>
+      <c r="R18" s="54">
+        <f t="shared" si="3"/>
+        <v>-8.0330396475771004E-2</v>
+      </c>
+      <c r="S18" s="54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T18" s="54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U18" s="54">
+        <f t="shared" si="3"/>
+        <v>-2.9889867841409012E-2</v>
+      </c>
+      <c r="V18" s="54">
+        <f t="shared" si="3"/>
+        <v>-0.23482378854625607</v>
+      </c>
+      <c r="W18" s="70">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -1555,8 +2281,47 @@
       <c r="K19" s="15">
         <v>0.90251101321585903</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M19" s="4"/>
+      <c r="N19" s="1">
+        <v>2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="54">
+        <f t="shared" si="3"/>
+        <v>-8.0418502202643016E-2</v>
+      </c>
+      <c r="Q19" s="54">
+        <f t="shared" si="3"/>
+        <v>-6.8061674008810247E-3</v>
+      </c>
+      <c r="R19" s="54">
+        <f t="shared" si="3"/>
+        <v>-4.6035242290749068E-2</v>
+      </c>
+      <c r="S19" s="54">
+        <f t="shared" si="3"/>
+        <v>-7.2687224669599759E-3</v>
+      </c>
+      <c r="T19" s="54">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U19" s="54">
+        <f t="shared" si="3"/>
+        <v>-8.3127753303965046E-2</v>
+      </c>
+      <c r="V19" s="54">
+        <f t="shared" si="3"/>
+        <v>-6.1762114537444956E-2</v>
+      </c>
+      <c r="W19" s="70">
+        <f t="shared" si="3"/>
+        <v>-6.7621145374450187E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -1586,8 +2351,45 @@
       <c r="K20" s="56">
         <v>0.94196035242290699</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M20" s="5"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="55">
+        <f t="shared" si="3"/>
+        <v>-9.541850220264303E-2</v>
+      </c>
+      <c r="Q20" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="R20" s="55">
+        <f t="shared" si="3"/>
+        <v>-4.6453744493391902E-2</v>
+      </c>
+      <c r="S20" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="T20" s="55">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="U20" s="55">
+        <f t="shared" si="3"/>
+        <v>-2.6784140969163039E-2</v>
+      </c>
+      <c r="V20" s="55">
+        <f t="shared" si="3"/>
+        <v>-0.13233480176211498</v>
+      </c>
+      <c r="W20" s="71">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -1597,188 +2399,1363 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D31" s="16"/>
-      <c r="E31" s="16"/>
-      <c r="F31" s="16"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="16"/>
-      <c r="I31" s="16"/>
-      <c r="J31" s="16"/>
-      <c r="K31" s="16"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
-      <c r="G32" s="16"/>
-      <c r="H32" s="16"/>
-      <c r="I32" s="16"/>
-      <c r="J32" s="16"/>
-      <c r="K32" s="16"/>
-    </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="16"/>
-      <c r="K33" s="16"/>
-    </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D34" s="16"/>
-      <c r="E34" s="16"/>
-      <c r="F34" s="16"/>
-      <c r="G34" s="16"/>
-      <c r="H34" s="16"/>
-      <c r="I34" s="16"/>
-      <c r="J34" s="16"/>
-      <c r="K34" s="16"/>
-    </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D35" s="16"/>
-      <c r="E35" s="16"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="16"/>
-      <c r="K35" s="16"/>
-    </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D36" s="16"/>
-      <c r="E36" s="16"/>
-      <c r="F36" s="16"/>
-      <c r="G36" s="16"/>
-      <c r="H36" s="16"/>
-      <c r="I36" s="16"/>
-      <c r="J36" s="16"/>
-      <c r="K36" s="16"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="66" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="67"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+      <c r="I22" s="67"/>
+      <c r="J22" s="67"/>
+      <c r="K22" s="68"/>
+      <c r="M22" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" s="67"/>
+      <c r="O22" s="67"/>
+      <c r="P22" s="67"/>
+      <c r="Q22" s="67"/>
+      <c r="R22" s="67"/>
+      <c r="S22" s="67"/>
+      <c r="T22" s="67"/>
+      <c r="U22" s="67"/>
+      <c r="V22" s="67"/>
+      <c r="W22" s="68"/>
+    </row>
+    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W23" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="3">
+        <v>1</v>
+      </c>
+      <c r="C24" s="3">
+        <v>1</v>
+      </c>
+      <c r="D24" s="52">
+        <f>D5-MAX(D5,D7)</f>
+        <v>-0.35508810572687294</v>
+      </c>
+      <c r="E24" s="52">
+        <f t="shared" ref="E24:K25" si="4">E5-MAX(E5,E7)</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="52">
+        <f t="shared" si="4"/>
+        <v>-9.6784140969162991E-2</v>
+      </c>
+      <c r="G24" s="52">
+        <f t="shared" si="4"/>
+        <v>-6.4537444933920884E-3</v>
+      </c>
+      <c r="H24" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I24" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="52">
+        <f t="shared" si="4"/>
+        <v>-0.19292951541850201</v>
+      </c>
+      <c r="K24" s="52">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="52">
+        <f>D5-MAX(D5,D6)</f>
+        <v>-5.5066079295155002E-2</v>
+      </c>
+      <c r="Q24" s="52">
+        <f t="shared" ref="Q24:W24" si="5">E5-MAX(E5,E6)</f>
+        <v>-6.2555066079299504E-3</v>
+      </c>
+      <c r="R24" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="52">
+        <f t="shared" si="5"/>
+        <v>-1.6079295154185047E-2</v>
+      </c>
+      <c r="T24" s="52">
+        <f t="shared" si="5"/>
+        <v>-1.0176211453743922E-2</v>
+      </c>
+      <c r="U24" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="V24" s="52">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="W24" s="52">
+        <f t="shared" si="5"/>
+        <v>-1.9823788546250443E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="54">
+        <f>D6-MAX(D6,D8)</f>
+        <v>-0.29491189427312703</v>
+      </c>
+      <c r="E25" s="54">
+        <f t="shared" si="4"/>
+        <v>-2.5220264317180052E-2</v>
+      </c>
+      <c r="F25" s="54">
+        <f t="shared" si="4"/>
+        <v>-0.10814977973568296</v>
+      </c>
+      <c r="G25" s="54">
+        <f t="shared" si="4"/>
+        <v>-1.6497797356827992E-2</v>
+      </c>
+      <c r="H25" s="54">
+        <f t="shared" si="4"/>
+        <v>-3.9207048458150817E-3</v>
+      </c>
+      <c r="I25" s="54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="54">
+        <f t="shared" si="4"/>
+        <v>-0.28548458149779699</v>
+      </c>
+      <c r="K25" s="54">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M25" s="4"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="54">
+        <f>D6-MAX(D5,D6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="54">
+        <f t="shared" ref="Q25:W25" si="6">E6-MAX(E5,E6)</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="54">
+        <f t="shared" si="6"/>
+        <v>-3.1629955947135913E-2</v>
+      </c>
+      <c r="S25" s="54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T25" s="54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U25" s="54">
+        <f t="shared" si="6"/>
+        <v>-2.9823788546255003E-2</v>
+      </c>
+      <c r="V25" s="54">
+        <f t="shared" si="6"/>
+        <v>-9.4955947136563967E-2</v>
+      </c>
+      <c r="W25" s="54">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>1</v>
+      </c>
+      <c r="D26" s="54">
+        <f>D7-MAX(D5,D7)</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="54">
+        <f t="shared" ref="E26:K27" si="7">E7-MAX(E5,E7)</f>
+        <v>-1.429515418502203E-2</v>
+      </c>
+      <c r="F26" s="54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="54">
+        <f t="shared" si="7"/>
+        <v>-2.092511013215903E-2</v>
+      </c>
+      <c r="I26" s="54">
+        <f t="shared" si="7"/>
+        <v>-0.13312775330396398</v>
+      </c>
+      <c r="J26" s="54">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K26" s="54">
+        <f t="shared" si="7"/>
+        <v>-5.6167400881059759E-3</v>
+      </c>
+      <c r="M26" s="4"/>
+      <c r="N26" s="1">
+        <v>2</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="52">
+        <f>D7-MAX(D7,D8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="52">
+        <f t="shared" ref="Q26:W26" si="8">E7-MAX(E7,E8)</f>
+        <v>-4.5770925110132032E-2</v>
+      </c>
+      <c r="R26" s="52">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="52">
+        <f t="shared" si="8"/>
+        <v>-2.6123348017620951E-2</v>
+      </c>
+      <c r="T26" s="52">
+        <f t="shared" si="8"/>
+        <v>-3.5022026431718034E-2</v>
+      </c>
+      <c r="U26" s="52">
+        <f t="shared" si="8"/>
+        <v>-3.3281938325991023E-2</v>
+      </c>
+      <c r="V26" s="52">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="W26" s="52">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="5"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="55">
+        <f>D8-MAX(D6,D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F27" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I27" s="55">
+        <f t="shared" si="7"/>
+        <v>-7.0022026431717954E-2</v>
+      </c>
+      <c r="J27" s="55">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K27" s="55">
+        <f t="shared" si="7"/>
+        <v>-7.8854625550660584E-3</v>
+      </c>
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="54">
+        <f>D8-MAX(D7,D8)</f>
+        <v>-5.1101321585909076E-3</v>
+      </c>
+      <c r="Q27" s="54">
+        <f t="shared" ref="Q27:W27" si="9">E8-MAX(E7,E8)</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="54">
+        <f t="shared" si="9"/>
+        <v>-2.0264317180615943E-2</v>
+      </c>
+      <c r="S27" s="54">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T27" s="54">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="U27" s="54">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="V27" s="54">
+        <f t="shared" si="9"/>
+        <v>-2.4008810572689887E-3</v>
+      </c>
+      <c r="W27" s="54">
+        <f t="shared" si="9"/>
+        <v>-2.8634361233503824E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="3">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1</v>
+      </c>
+      <c r="D28" s="52">
+        <f>D9-MAX(D9,D11)</f>
+        <v>-1.5682819383259994E-2</v>
+      </c>
+      <c r="E28" s="52">
+        <f t="shared" ref="E28:K29" si="10">E9-MAX(E9,E11)</f>
+        <v>-1.8281938325990232E-3</v>
+      </c>
+      <c r="F28" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="52">
+        <f t="shared" si="10"/>
+        <v>-6.8061674008810247E-3</v>
+      </c>
+      <c r="H28" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="52">
+        <f t="shared" si="10"/>
+        <v>-0.77618942731277496</v>
+      </c>
+      <c r="J28" s="52">
+        <f t="shared" si="10"/>
+        <v>-5.3303964757709377E-3</v>
+      </c>
+      <c r="K28" s="52">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1</v>
+      </c>
+      <c r="P28" s="52">
+        <f>D9-MAX(D9,D10)</f>
+        <v>-1.519823788545982E-3</v>
+      </c>
+      <c r="Q28" s="52">
+        <f t="shared" ref="Q28:W28" si="11">E9-MAX(E9,E10)</f>
+        <v>-3.4801762114530232E-3</v>
+      </c>
+      <c r="R28" s="52">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="52">
+        <f t="shared" si="11"/>
+        <v>-1.046255506607896E-2</v>
+      </c>
+      <c r="T28" s="52">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U28" s="52">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V28" s="52">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W28" s="52">
+        <f t="shared" si="11"/>
+        <v>-1.3039647577092084E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="C29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D29" s="54">
+        <f>D10-MAX(D10,D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="54">
+        <f t="shared" si="10"/>
+        <v>-2.3039647577092981E-2</v>
+      </c>
+      <c r="F29" s="54">
+        <f t="shared" si="10"/>
+        <v>-1.2334801762113989E-2</v>
+      </c>
+      <c r="G29" s="54">
+        <f t="shared" si="10"/>
+        <v>-1.7555066079296022E-2</v>
+      </c>
+      <c r="H29" s="54">
+        <f t="shared" si="10"/>
+        <v>-2.3700440528633959E-2</v>
+      </c>
+      <c r="I29" s="54">
+        <f t="shared" si="10"/>
+        <v>-0.79169603524229104</v>
+      </c>
+      <c r="J29" s="54">
+        <f t="shared" si="10"/>
+        <v>-8.3348017621144965E-2</v>
+      </c>
+      <c r="K29" s="54">
+        <f t="shared" si="10"/>
+        <v>-1.2951541850219961E-2</v>
+      </c>
+      <c r="M29" s="4"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="54">
+        <f>D10-MAX(D9,D10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="54">
+        <f t="shared" ref="Q29:W29" si="12">E10-MAX(E9,E10)</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="54">
+        <f t="shared" si="12"/>
+        <v>-1.7973568281938079E-2</v>
+      </c>
+      <c r="S29" s="54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T29" s="54">
+        <f t="shared" si="12"/>
+        <v>-6.3436123348009632E-3</v>
+      </c>
+      <c r="U29" s="54">
+        <f t="shared" si="12"/>
+        <v>-2.4317180616741013E-2</v>
+      </c>
+      <c r="V29" s="54">
+        <f t="shared" si="12"/>
+        <v>-6.561674008810503E-2</v>
+      </c>
+      <c r="W29" s="54">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1</v>
+      </c>
+      <c r="D30" s="54">
+        <f>D11-MAX(D9,D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="54">
+        <f t="shared" ref="E30:K31" si="13">E11-MAX(E9,E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="54">
+        <f t="shared" si="13"/>
+        <v>-6.5418502202639894E-3</v>
+      </c>
+      <c r="G30" s="54">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="54">
+        <f t="shared" si="13"/>
+        <v>-8.1718061673999864E-3</v>
+      </c>
+      <c r="I30" s="54">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="54">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K30" s="54">
+        <f t="shared" si="13"/>
+        <v>-3.5022026431719144E-3</v>
+      </c>
+      <c r="M30" s="4"/>
+      <c r="N30" s="1">
+        <v>2</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+      <c r="P30" s="52">
+        <f>D11-MAX(D11,D12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="52">
+        <f t="shared" ref="Q30:W30" si="14">E11-MAX(E11,E12)</f>
+        <v>-2.4691629955946981E-2</v>
+      </c>
+      <c r="R30" s="52">
+        <f t="shared" si="14"/>
+        <v>-9.0308370043989949E-4</v>
+      </c>
+      <c r="S30" s="52">
+        <f t="shared" si="14"/>
+        <v>-2.1211453744493958E-2</v>
+      </c>
+      <c r="T30" s="52">
+        <f t="shared" si="14"/>
+        <v>-2.5528634361232982E-2</v>
+      </c>
+      <c r="U30" s="52">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="V30" s="52">
+        <f t="shared" si="14"/>
+        <v>-1.2400881057268998E-2</v>
+      </c>
+      <c r="W30" s="52">
+        <f t="shared" si="14"/>
+        <v>-2.9493392070483959E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="55">
+        <f>D12-MAX(D10,D12)</f>
+        <v>-9.4052863436119294E-3</v>
+      </c>
+      <c r="E31" s="55">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="55">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G31" s="55">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="55">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="55">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="55">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K31" s="55">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M31" s="5"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="54">
+        <f>D12-MAX(D11,D12)</f>
+        <v>-2.3568281938325941E-2</v>
+      </c>
+      <c r="Q31" s="54">
+        <f t="shared" ref="Q31:W31" si="15">E12-MAX(E11,E12)</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="54">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="54">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="T31" s="54">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="U31" s="54">
+        <f t="shared" si="15"/>
+        <v>-8.8105726872249601E-3</v>
+      </c>
+      <c r="V31" s="54">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="W31" s="54">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1</v>
+      </c>
+      <c r="D32" s="52">
+        <f>D13-MAX(D13,D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="52">
+        <f t="shared" ref="E32:K33" si="16">E13-MAX(E13,E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="52">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="52">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="52">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="52">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="52">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K32" s="52">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1</v>
+      </c>
+      <c r="P32" s="52">
+        <f>D13-MAX(D13,D14)</f>
+        <v>-1.0374449339207059E-2</v>
+      </c>
+      <c r="Q32" s="52">
+        <f t="shared" ref="Q32:W32" si="17">E13-MAX(E13,E14)</f>
+        <v>-5.8810572687230112E-3</v>
+      </c>
+      <c r="R32" s="52">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="S32" s="52">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="T32" s="52">
+        <f t="shared" si="17"/>
+        <v>-1.1674008810570458E-3</v>
+      </c>
+      <c r="U32" s="52">
+        <f t="shared" si="17"/>
+        <v>-6.8281938325998048E-4</v>
+      </c>
+      <c r="V32" s="52">
+        <f t="shared" si="17"/>
+        <v>-1.1696035242291014E-2</v>
+      </c>
+      <c r="W32" s="52">
+        <f t="shared" si="17"/>
+        <v>-1.0792951541849227E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="C33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="54">
+        <f>D14-MAX(D14,D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="54">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="54">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="54">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="54">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="I33" s="54">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="54">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K33" s="54">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="M33" s="4"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P33" s="54">
+        <f>D14-MAX(D13,D14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="54">
+        <f t="shared" ref="Q33:W33" si="18">E14-MAX(E13,E14)</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="54">
+        <f t="shared" si="18"/>
+        <v>-7.0484581497789467E-3</v>
+      </c>
+      <c r="S33" s="54">
+        <f t="shared" si="18"/>
+        <v>-4.7356828193829692E-3</v>
+      </c>
+      <c r="T33" s="54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="U33" s="54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="V33" s="54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="W33" s="54">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="1">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1">
+        <v>1</v>
+      </c>
+      <c r="D34" s="54">
+        <f>D15-MAX(D13,D15)</f>
+        <v>-0.29925110132158494</v>
+      </c>
+      <c r="E34" s="54">
+        <f t="shared" ref="E34:K35" si="19">E15-MAX(E13,E15)</f>
+        <v>-0.40577092511013202</v>
+      </c>
+      <c r="F34" s="54">
+        <f t="shared" si="19"/>
+        <v>-0.44303964757709202</v>
+      </c>
+      <c r="G34" s="54">
+        <f t="shared" si="19"/>
+        <v>-0.34372246696035191</v>
+      </c>
+      <c r="H34" s="54">
+        <f t="shared" si="19"/>
+        <v>-0.34458149779735703</v>
+      </c>
+      <c r="I34" s="54">
+        <f t="shared" si="19"/>
+        <v>-0.31704845814978</v>
+      </c>
+      <c r="J34" s="54">
+        <f t="shared" si="19"/>
+        <v>-0.322863436123348</v>
+      </c>
+      <c r="K34" s="54">
+        <f t="shared" si="19"/>
+        <v>-0.37314977973568308</v>
+      </c>
+      <c r="M34" s="4"/>
+      <c r="N34" s="1">
+        <v>2</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+      <c r="P34" s="52">
+        <f>D15-MAX(D15,D16)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="52">
+        <f t="shared" ref="Q34:W34" si="20">E15-MAX(E15,E16)</f>
+        <v>-5.7863436123347989E-2</v>
+      </c>
+      <c r="R34" s="52">
+        <f t="shared" si="20"/>
+        <v>-6.1938325991189092E-2</v>
+      </c>
+      <c r="S34" s="52">
+        <f t="shared" si="20"/>
+        <v>-6.3920704845814913E-2</v>
+      </c>
+      <c r="T34" s="52">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="U34" s="52">
+        <f t="shared" si="20"/>
+        <v>-2.0726872246697003E-2</v>
+      </c>
+      <c r="V34" s="52">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="W34" s="52">
+        <f t="shared" si="20"/>
+        <v>-8.676211453744509E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="55">
+        <f>D16-MAX(D14,D16)</f>
+        <v>-0.3277312775330391</v>
+      </c>
+      <c r="E35" s="55">
+        <f t="shared" si="19"/>
+        <v>-0.35378854625550704</v>
+      </c>
+      <c r="F35" s="55">
+        <f t="shared" si="19"/>
+        <v>-0.37405286343612398</v>
+      </c>
+      <c r="G35" s="55">
+        <f t="shared" si="19"/>
+        <v>-0.27506607929515403</v>
+      </c>
+      <c r="H35" s="55">
+        <f t="shared" si="19"/>
+        <v>-0.34927312775330399</v>
+      </c>
+      <c r="I35" s="55">
+        <f t="shared" si="19"/>
+        <v>-0.29700440528634298</v>
+      </c>
+      <c r="J35" s="55">
+        <f t="shared" si="19"/>
+        <v>-0.35491189427312808</v>
+      </c>
+      <c r="K35" s="55">
+        <f t="shared" si="19"/>
+        <v>-0.28746696035242292</v>
+      </c>
+      <c r="M35" s="5"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" s="54">
+        <f>D16-MAX(D15,D16)</f>
+        <v>-1.8105726872247097E-2</v>
+      </c>
+      <c r="Q35" s="54">
+        <f t="shared" ref="Q35:W35" si="21">E16-MAX(E15,E16)</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="54">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="S35" s="54">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="T35" s="54">
+        <f t="shared" si="21"/>
+        <v>-3.5242290748899174E-3</v>
+      </c>
+      <c r="U35" s="54">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="V35" s="54">
+        <f t="shared" si="21"/>
+        <v>-2.0352422907489065E-2</v>
+      </c>
+      <c r="W35" s="54">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="52">
+        <f>D17-MAX(D17,D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="52">
+        <f t="shared" ref="E36:K37" si="22">E17-MAX(E17,E19)</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="52">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G36" s="52">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="52">
+        <f t="shared" si="22"/>
+        <v>-5.5550660792951012E-2</v>
+      </c>
+      <c r="I36" s="52">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="52">
+        <f t="shared" si="22"/>
+        <v>-0.28024229074889906</v>
+      </c>
+      <c r="K36" s="52">
+        <f t="shared" si="22"/>
+        <v>-1.431718061674081E-3</v>
+      </c>
+      <c r="M36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36" s="52">
+        <f>D17-MAX(D17,D18)</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="52">
+        <f t="shared" ref="Q36:W36" si="23">E17-MAX(E17,E18)</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="52">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="S36" s="52">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="T36" s="52">
+        <f t="shared" si="23"/>
+        <v>-9.7444933920704968E-2</v>
+      </c>
+      <c r="U36" s="52">
+        <f t="shared" si="23"/>
+        <v>-2.0506607929515974E-2</v>
+      </c>
+      <c r="V36" s="52">
+        <f t="shared" si="23"/>
+        <v>-0.12242290748898699</v>
+      </c>
+      <c r="W36" s="52">
+        <f t="shared" si="23"/>
+        <v>-5.418502202643205E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A37" s="4"/>
+      <c r="C37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D37" s="54">
+        <f>D18-MAX(D18,D20)</f>
+        <v>-0.206938325991189</v>
+      </c>
+      <c r="E37" s="54">
+        <f t="shared" si="22"/>
+        <v>-2.1189427312775067E-2</v>
+      </c>
+      <c r="F37" s="54">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="G37" s="54">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="54">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="I37" s="54">
+        <f t="shared" si="22"/>
+        <v>-8.1497797356819834E-3</v>
+      </c>
+      <c r="J37" s="54">
+        <f t="shared" si="22"/>
+        <v>-9.9647577092511042E-2</v>
+      </c>
+      <c r="K37" s="54">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="M37" s="4"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P37" s="54">
+        <f>D18-MAX(D17,D18)</f>
+        <v>-0.30883259911894201</v>
+      </c>
+      <c r="Q37" s="54">
+        <f t="shared" ref="Q37:W37" si="24">E18-MAX(E17,E18)</f>
+        <v>-4.2995594713655994E-2</v>
+      </c>
+      <c r="R37" s="54">
+        <f t="shared" si="24"/>
+        <v>-2.8237885462555012E-2</v>
+      </c>
+      <c r="S37" s="54">
+        <f t="shared" si="24"/>
+        <v>-6.8281938325998048E-4</v>
+      </c>
+      <c r="T37" s="54">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="U37" s="54">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="V37" s="54">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+      <c r="W37" s="54">
+        <f t="shared" si="24"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A38" s="4"/>
+      <c r="B38" s="1">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="54">
+        <f>D19-MAX(D17,D19)</f>
+        <v>-6.3325991189427056E-2</v>
+      </c>
+      <c r="E38" s="54">
+        <f t="shared" ref="E38:K39" si="25">E19-MAX(E17,E19)</f>
+        <v>-6.156387665198193E-2</v>
+      </c>
+      <c r="F38" s="54">
+        <f t="shared" si="25"/>
+        <v>-3.6740088105727042E-2</v>
+      </c>
+      <c r="G38" s="54">
+        <f t="shared" si="25"/>
+        <v>-4.1718061674007934E-2</v>
+      </c>
+      <c r="H38" s="54">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="I38" s="54">
+        <f t="shared" si="25"/>
+        <v>-1.8876651982379089E-2</v>
+      </c>
+      <c r="J38" s="54">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K38" s="54">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="M38" s="4"/>
+      <c r="N38" s="1">
+        <v>2</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+      <c r="P38" s="52">
+        <f>D19-MAX(D19,D20)</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="52">
+        <f t="shared" ref="Q38:W38" si="26">E19-MAX(E19,E20)</f>
+        <v>-3.9757709251101003E-2</v>
+      </c>
+      <c r="R38" s="52">
+        <f t="shared" si="26"/>
+        <v>-4.8458149779706527E-4</v>
+      </c>
+      <c r="S38" s="52">
+        <f t="shared" si="26"/>
+        <v>-3.7621145374448939E-2</v>
+      </c>
+      <c r="T38" s="52">
+        <f t="shared" si="26"/>
+        <v>-4.0726872246696022E-2</v>
+      </c>
+      <c r="U38" s="52">
+        <f t="shared" si="26"/>
+        <v>-4.7533039647577047E-2</v>
+      </c>
+      <c r="V38" s="52">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="W38" s="52">
+        <f t="shared" si="26"/>
+        <v>-3.9449339207047962E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="5"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D39" s="55">
+        <f>D20-MAX(D18,D20)</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="55">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="55">
+        <f t="shared" si="25"/>
+        <v>-8.0176211453749646E-3</v>
+      </c>
+      <c r="G39" s="55">
+        <f t="shared" si="25"/>
+        <v>-3.4140969162990142E-3</v>
+      </c>
+      <c r="H39" s="55">
+        <f t="shared" si="25"/>
+        <v>-1.1674008810579339E-3</v>
+      </c>
+      <c r="I39" s="55">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="55">
+        <f t="shared" si="25"/>
+        <v>0</v>
+      </c>
+      <c r="K39" s="55">
+        <f t="shared" si="25"/>
+        <v>-1.3303964757710007E-2</v>
+      </c>
+      <c r="M39" s="5"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P39" s="54">
+        <f>D20-MAX(D19,D20)</f>
+        <v>-3.8568281938325955E-2</v>
+      </c>
+      <c r="Q39" s="54">
+        <f t="shared" ref="Q39:W39" si="27">E20-MAX(E19,E20)</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="54">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S39" s="54">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="T39" s="54">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="U39" s="54">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="V39" s="54">
+        <f t="shared" si="27"/>
+        <v>-5.817180616740103E-2</v>
+      </c>
+      <c r="W39" s="54">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -1788,7 +3765,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -1798,7 +3775,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -1808,7 +3785,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -1818,7 +3795,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -1828,7 +3805,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -1838,7 +3815,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -1848,7 +3825,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -1858,7 +3835,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -1868,7 +3845,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -1878,7 +3855,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -1888,7 +3865,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -1898,7 +3875,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -1908,7 +3885,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -1919,8 +3896,12 @@
       <c r="K53" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="5">
     <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="M3:W3"/>
+    <mergeCell ref="A22:K22"/>
+    <mergeCell ref="M22:W22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1934,21 +3915,21 @@
       <selection activeCell="D5" sqref="D5:S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>27</v>
       </c>
@@ -1970,8 +3951,8 @@
       <c r="Q1" s="60"/>
       <c r="R1" s="60"/>
     </row>
-    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="65" t="s">
         <v>6</v>
       </c>
@@ -2005,7 +3986,7 @@
       </c>
       <c r="S3" s="64"/>
     </row>
-    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -2064,7 +4045,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -2123,7 +4104,7 @@
         <v>1024.001</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -2177,7 +4158,7 @@
         <v>1024.001</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -2234,7 +4215,7 @@
         <v>1024.001</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -2289,7 +4270,7 @@
         <v>1024.001</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -2348,7 +4329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -2402,7 +4383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -2459,7 +4440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -2514,7 +4495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -2573,7 +4554,7 @@
         <v>4.8828125E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -2627,7 +4608,7 @@
         <v>0.1259765625</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -2684,7 +4665,7 @@
         <v>4.0009765625</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -2739,7 +4720,7 @@
         <v>8.0009765625</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -2798,7 +4779,7 @@
         <v>2.0009765625</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -2852,7 +4833,7 @@
         <v>1024.0009765625</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -2909,7 +4890,7 @@
         <v>64.0009765625</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -2964,10 +4945,10 @@
         <v>512.0009765625</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -2984,7 +4965,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -3001,7 +4982,7 @@
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
     </row>
-    <row r="39" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -3018,7 +4999,7 @@
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
     </row>
-    <row r="40" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -3035,7 +5016,7 @@
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
     </row>
-    <row r="41" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -3052,7 +5033,7 @@
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
     </row>
-    <row r="42" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -3069,7 +5050,7 @@
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
     </row>
-    <row r="43" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -3086,7 +5067,7 @@
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
     </row>
-    <row r="44" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -3103,7 +5084,7 @@
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
     </row>
-    <row r="45" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -3120,7 +5101,7 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
     </row>
-    <row r="46" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -3137,7 +5118,7 @@
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
     </row>
-    <row r="47" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -3154,7 +5135,7 @@
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
     </row>
-    <row r="48" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -3171,7 +5152,7 @@
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
     </row>
-    <row r="49" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -3188,7 +5169,7 @@
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
     </row>
-    <row r="50" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -3205,7 +5186,7 @@
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
     </row>
-    <row r="51" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -3222,7 +5203,7 @@
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
     </row>
-    <row r="52" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -3239,7 +5220,7 @@
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
     </row>
-    <row r="53" spans="4:18" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:18" x14ac:dyDescent="0.25">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -3280,14 +5261,14 @@
       <selection activeCell="D5" sqref="D5:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>29</v>
       </c>
@@ -3302,17 +5283,17 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3347,7 +5328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3382,7 +5363,7 @@
         <v>0.90877333330057997</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -3413,7 +5394,7 @@
         <v>0.92369813846524096</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -3446,7 +5427,7 @@
         <v>0.90471695966738397</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -3477,7 +5458,7 @@
         <v>0.926934272107932</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -3512,7 +5493,7 @@
         <v>0.88785684142135801</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -3543,7 +5524,7 @@
         <v>0.91937374873718303</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -3576,7 +5557,7 @@
         <v>0.91593429654494396</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -3607,7 +5588,7 @@
         <v>0.93707611371309796</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -3642,7 +5623,7 @@
         <v>0.94406898236442105</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -3673,7 +5654,7 @@
         <v>0.93757537269981805</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -3706,7 +5687,7 @@
         <v>0.58351743018642299</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -3737,7 +5718,7 @@
         <v>0.73339853509707598</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -3772,7 +5753,7 @@
         <v>0.92689487176847996</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -3803,7 +5784,7 @@
         <v>0.95729041102717205</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -3836,7 +5817,7 @@
         <v>0.92061966166298503</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -3883,14 +5864,14 @@
       <selection activeCell="D5" sqref="D5:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>30</v>
       </c>
@@ -3905,17 +5886,17 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -3950,7 +5931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -3985,7 +5966,7 @@
         <v>0.91522929195337499</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -4016,7 +5997,7 @@
         <v>0.93120625865100104</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -4049,7 +6030,7 @@
         <v>0.91263258424538496</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -4080,7 +6061,7 @@
         <v>0.94084146850579198</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -4115,7 +6096,7 @@
         <v>0.90737695874372504</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -4146,7 +6127,7 @@
         <v>0.91806543700887</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -4179,7 +6160,7 @@
         <v>0.92516582803739</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -4210,7 +6191,7 @@
         <v>0.93352622142918695</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -4245,7 +6226,7 @@
         <v>0.93059791752273302</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -4276,7 +6257,7 @@
         <v>0.93888406412859904</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -4309,7 +6290,7 @@
         <v>0.69523706229530802</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -4340,7 +6321,7 @@
         <v>0.75073591557205099</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -4375,7 +6356,7 @@
         <v>0.93252460985455299</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -4406,7 +6387,7 @@
         <v>0.95904338265911004</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -4439,7 +6420,7 @@
         <v>0.92406920610864296</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -4486,21 +6467,21 @@
       <selection activeCell="D5" sqref="D5:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>31</v>
       </c>
@@ -4515,8 +6496,8 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4551,7 +6532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -4586,7 +6567,7 @@
         <v>1.79339135508681E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -4616,7 +6597,7 @@
         <v>3.0333354694745601E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -4649,7 +6630,7 @@
         <v>2.9996625227153E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -4680,7 +6661,7 @@
         <v>7.1462339233939104E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -4715,7 +6696,7 @@
         <v>1.0854956895604499E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -4745,7 +6726,7 @@
         <v>1.20499770411553E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -4778,7 +6759,7 @@
         <v>3.5769799357299202E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -4809,7 +6790,7 @@
         <v>1.4401087013151801E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -4844,7 +6825,7 @@
         <v>1.3320195096345201E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -4874,7 +6855,7 @@
         <v>8.8837210671498298E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -4907,7 +6888,7 @@
         <v>0.1127280004428</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -4938,7 +6919,7 @@
         <v>0.111498484864825</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -4973,7 +6954,7 @@
         <v>6.5987246215528594E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -5003,7 +6984,7 @@
         <v>1.67778671776075E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -5036,7 +7017,7 @@
         <v>2.9816011583712498E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -5067,7 +7048,7 @@
         <v>3.1393010339116102E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -5077,7 +7058,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -5088,7 +7069,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -5098,7 +7079,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -5108,7 +7089,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -5118,7 +7099,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -5128,7 +7109,7 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -5138,7 +7119,7 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -5148,7 +7129,7 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -5158,7 +7139,7 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -5168,7 +7149,7 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -5178,7 +7159,7 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -5188,7 +7169,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -5198,7 +7179,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -5208,7 +7189,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
@@ -5218,7 +7199,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
@@ -5228,7 +7209,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -5238,7 +7219,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -5248,7 +7229,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -5258,7 +7239,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -5268,7 +7249,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -5278,7 +7259,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -5288,7 +7269,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -5298,7 +7279,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -5308,7 +7289,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -5318,7 +7299,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -5328,7 +7309,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -5338,7 +7319,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -5348,7 +7329,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -5358,7 +7339,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -5368,7 +7349,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -5378,7 +7359,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -5388,7 +7369,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -5414,21 +7395,21 @@
       <selection activeCell="D5" sqref="D5:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>23</v>
       </c>
@@ -5443,8 +7424,8 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -5479,7 +7460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -5514,7 +7495,7 @@
         <v>0.90198237885462595</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -5544,7 +7525,7 @@
         <v>0.91662995594713703</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -5577,7 +7558,7 @@
         <v>0.90792951541850198</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -5608,7 +7589,7 @@
         <v>0.92566079295154202</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -5643,7 +7624,7 @@
         <v>0.91464757709251099</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -5673,7 +7654,7 @@
         <v>0.92389867841409701</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -5706,7 +7687,7 @@
         <v>0.91927312775330405</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -5737,7 +7718,7 @@
         <v>0.94096916299559497</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -5772,7 +7753,7 @@
         <v>0.95055066079295203</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -5802,7 +7783,7 @@
         <v>0.95154185022026405</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -5835,7 +7816,7 @@
         <v>0.60583700440528598</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -5866,7 +7847,7 @@
         <v>0.68590308370044095</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -5901,7 +7882,7 @@
         <v>0.92599118942731296</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -5931,7 +7912,7 @@
         <v>0.96167400881057297</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -5964,7 +7945,7 @@
         <v>0.90660792951541902</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -5995,10 +7976,10 @@
         <v>0.95814977973568305</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -6008,7 +7989,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -6018,7 +7999,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -6028,7 +8009,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -6038,7 +8019,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -6048,7 +8029,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -6058,7 +8039,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -6068,7 +8049,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -6078,7 +8059,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -6088,7 +8069,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -6098,7 +8079,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -6108,7 +8089,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -6118,7 +8099,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -6128,7 +8109,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -6138,7 +8119,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -6148,7 +8129,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -6158,7 +8139,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -6184,21 +8165,21 @@
       <selection activeCell="D5" sqref="D5:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>32</v>
       </c>
@@ -6213,8 +8194,8 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -6249,7 +8230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -6284,7 +8265,7 @@
         <v>0.94251101321585895</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -6314,7 +8295,7 @@
         <v>0.951982378854626</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -6347,7 +8328,7 @@
         <v>0.93898678414096903</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -6378,7 +8359,7 @@
         <v>0.95330396475770895</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -6413,7 +8394,7 @@
         <v>0.92885462555066101</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -6443,7 +8424,7 @@
         <v>0.94845814977973597</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -6476,7 +8457,7 @@
         <v>0.94713656387665202</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -6507,7 +8488,7 @@
         <v>0.95969162995594703</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -6542,7 +8523,7 @@
         <v>0.96453744493392102</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -6572,7 +8553,7 @@
         <v>0.96101321585903099</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -6605,7 +8586,7 @@
         <v>0.71453744493392102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -6636,7 +8617,7 @@
         <v>0.80176211453744495</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -6671,7 +8652,7 @@
         <v>0.95330396475770895</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -6701,7 +8682,7 @@
         <v>0.97334801762114498</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -6734,7 +8715,7 @@
         <v>0.95022026431718098</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -6765,7 +8746,7 @@
         <v>0.96982378854625595</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -6775,7 +8756,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -6786,7 +8767,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -6796,7 +8777,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -6806,7 +8787,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -6816,7 +8797,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -6826,7 +8807,7 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -6836,7 +8817,7 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -6846,7 +8827,7 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -6856,7 +8837,7 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -6866,7 +8847,7 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -6876,7 +8857,7 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -6886,7 +8867,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -6896,7 +8877,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -6906,7 +8887,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
@@ -6916,7 +8897,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
@@ -6926,7 +8907,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -6936,7 +8917,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -6946,7 +8927,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -6956,7 +8937,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -6966,7 +8947,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -6976,7 +8957,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -6986,7 +8967,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -6996,7 +8977,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -7006,7 +8987,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -7016,7 +8997,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -7026,7 +9007,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -7036,7 +9017,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -7046,7 +9027,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -7056,7 +9037,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -7066,7 +9047,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -7076,7 +9057,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -7086,7 +9067,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -7112,21 +9093,21 @@
       <selection activeCell="D5" sqref="D5:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>24</v>
       </c>
@@ -7141,8 +9122,8 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -7177,7 +9158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -7212,7 +9193,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -7242,7 +9223,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -7275,7 +9256,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -7306,7 +9287,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -7341,7 +9322,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -7371,7 +9352,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -7404,7 +9385,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -7435,7 +9416,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -7470,7 +9451,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -7500,7 +9481,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -7533,7 +9514,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -7564,7 +9545,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -7599,7 +9580,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -7629,7 +9610,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -7662,7 +9643,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -7693,10 +9674,10 @@
         <v>244</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -7706,7 +9687,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -7716,7 +9697,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -7726,7 +9707,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -7736,7 +9717,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -7746,7 +9727,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -7756,7 +9737,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -7766,7 +9747,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -7776,7 +9757,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -7786,7 +9767,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -7796,7 +9777,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -7806,7 +9787,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -7816,7 +9797,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -7826,7 +9807,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -7836,7 +9817,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -7846,7 +9827,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -7856,7 +9837,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -7882,21 +9863,21 @@
       <selection activeCell="D5" sqref="D5:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>25</v>
       </c>
@@ -7911,8 +9892,8 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -7947,7 +9928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -7982,7 +9963,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -8012,7 +9993,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -8045,7 +10026,7 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -8076,7 +10057,7 @@
         <v>83.9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -8111,7 +10092,7 @@
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -8141,7 +10122,7 @@
         <v>94.4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -8174,7 +10155,7 @@
         <v>88.7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -8205,7 +10186,7 @@
         <v>86.2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -8240,7 +10221,7 @@
         <v>69.900000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -8270,7 +10251,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -8303,7 +10284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -8334,7 +10315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -8369,7 +10350,7 @@
         <v>314.8</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -8399,7 +10380,7 @@
         <v>156.80000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -8432,7 +10413,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -8463,10 +10444,10 @@
         <v>126.2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -8476,7 +10457,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -8486,7 +10467,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -8496,7 +10477,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -8506,7 +10487,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -8516,7 +10497,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -8526,7 +10507,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -8536,7 +10517,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -8546,7 +10527,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -8556,7 +10537,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -8566,7 +10547,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -8576,7 +10557,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -8586,7 +10567,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -8596,7 +10577,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -8606,7 +10587,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -8616,7 +10597,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -8626,7 +10607,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -8652,21 +10633,21 @@
       <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>26</v>
       </c>
@@ -8681,8 +10662,8 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -8717,7 +10698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -8752,7 +10733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -8782,7 +10763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -8815,7 +10796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -8846,7 +10827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -8881,7 +10862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -8911,7 +10892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -8944,7 +10925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -8975,7 +10956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -9010,7 +10991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -9040,7 +11021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -9073,7 +11054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -9104,7 +11085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -9139,7 +11120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -9169,7 +11150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -9202,7 +11183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -9233,10 +11214,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -9246,7 +11227,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -9256,7 +11237,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -9266,7 +11247,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -9276,7 +11257,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -9286,7 +11267,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -9296,7 +11277,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -9306,7 +11287,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -9316,7 +11297,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -9326,7 +11307,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -9336,7 +11317,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -9346,7 +11327,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -9356,7 +11337,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -9366,7 +11347,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -9376,7 +11357,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -9386,7 +11367,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -9396,7 +11377,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -9422,21 +11403,21 @@
       <selection activeCell="D5" sqref="D5:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>27</v>
       </c>
@@ -9451,8 +11432,8 @@
       <c r="J1" s="60"/>
       <c r="K1" s="60"/>
     </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -9487,7 +11468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -9522,7 +11503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -9552,7 +11533,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -9585,7 +11566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -9616,7 +11597,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -9651,7 +11632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -9681,7 +11662,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -9714,7 +11695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -9745,7 +11726,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -9780,7 +11761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -9810,7 +11791,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -9843,7 +11824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -9874,7 +11855,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -9909,7 +11890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -9939,7 +11920,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -9972,7 +11953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -10003,10 +11984,10 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -10016,7 +11997,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -10026,7 +12007,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -10036,7 +12017,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -10046,7 +12027,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -10056,7 +12037,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -10066,7 +12047,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -10076,7 +12057,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -10086,7 +12067,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -10096,7 +12077,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -10106,7 +12087,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -10116,7 +12097,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -10126,7 +12107,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -10136,7 +12117,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -10146,7 +12127,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -10156,7 +12137,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -10166,7 +12147,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -10192,23 +12173,23 @@
       <selection activeCell="D5" sqref="D5:P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="60" t="s">
         <v>28</v>
       </c>
@@ -10228,8 +12209,8 @@
       <c r="O1" s="60"/>
       <c r="P1" s="60"/>
     </row>
-    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D3" s="17" t="s">
         <v>6</v>
       </c>
@@ -10260,7 +12241,7 @@
       </c>
       <c r="P3" s="64"/>
     </row>
-    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -10310,7 +12291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -10360,7 +12341,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="C6" s="22" t="s">
         <v>12</v>
@@ -10405,7 +12386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -10453,7 +12434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="23" t="s">
@@ -10499,7 +12480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -10549,7 +12530,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="C10" s="22" t="s">
         <v>12</v>
@@ -10594,7 +12575,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -10642,7 +12623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="23" t="s">
@@ -10688,7 +12669,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -10738,7 +12719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="C14" s="22" t="s">
         <v>12</v>
@@ -10783,7 +12764,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -10831,7 +12812,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="23" t="s">
@@ -10877,7 +12858,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -10927,7 +12908,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="C18" s="22" t="s">
         <v>12</v>
@@ -10972,7 +12953,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -11020,7 +13001,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="23" t="s">
@@ -11066,10 +13047,10 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -11083,7 +13064,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -11097,7 +13078,7 @@
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
     </row>
-    <row r="39" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -11111,7 +13092,7 @@
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
     </row>
-    <row r="40" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -11125,7 +13106,7 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
     </row>
-    <row r="41" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -11139,7 +13120,7 @@
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
     </row>
-    <row r="42" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -11153,7 +13134,7 @@
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
     </row>
-    <row r="43" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -11167,7 +13148,7 @@
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
     </row>
-    <row r="44" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -11181,7 +13162,7 @@
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
     </row>
-    <row r="45" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -11195,7 +13176,7 @@
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
     </row>
-    <row r="46" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -11209,7 +13190,7 @@
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
     </row>
-    <row r="47" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -11223,7 +13204,7 @@
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
     </row>
-    <row r="48" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -11237,7 +13218,7 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
     </row>
-    <row r="49" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -11251,7 +13232,7 @@
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
     </row>
-    <row r="50" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -11265,7 +13246,7 @@
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
     </row>
-    <row r="51" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -11279,7 +13260,7 @@
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
     </row>
-    <row r="52" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -11293,7 +13274,7 @@
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
     </row>
-    <row r="53" spans="4:15" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>

--- a/results_analysis/spark_wallFollow_01_hold_02.xlsx
+++ b/results_analysis/spark_wallFollow_01_hold_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4FC28B-155E-49A5-A917-68A4F199D6E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA545D6-439B-4675-A44E-B678B04828AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -807,7 +807,25 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -823,24 +841,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1125,8 +1125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T34" sqref="T34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1146,48 +1146,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="68"/>
-      <c r="M3" s="66" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="66"/>
+      <c r="M3" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="67"/>
-      <c r="Q3" s="67"/>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="67"/>
-      <c r="V3" s="67"/>
-      <c r="W3" s="68"/>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="66"/>
     </row>
     <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -1328,7 +1328,7 @@
         <f t="shared" si="0"/>
         <v>-0.32233480176211404</v>
       </c>
-      <c r="W5" s="69">
+      <c r="W5" s="60">
         <f t="shared" si="0"/>
         <v>-4.0903083700440046E-2</v>
       </c>
@@ -1395,7 +1395,7 @@
         <f t="shared" si="0"/>
         <v>-0.42898678414096902</v>
       </c>
-      <c r="W6" s="70">
+      <c r="W6" s="61">
         <f t="shared" si="0"/>
         <v>-4.4449339207048966E-2</v>
       </c>
@@ -1467,7 +1467,7 @@
         <f t="shared" si="0"/>
         <v>-0.125859030837004</v>
       </c>
-      <c r="W7" s="70">
+      <c r="W7" s="61">
         <f t="shared" si="0"/>
         <v>-6.0572687224670352E-3</v>
       </c>
@@ -1535,7 +1535,7 @@
         <f t="shared" si="0"/>
         <v>-0.14066079295154199</v>
       </c>
-      <c r="W8" s="71">
+      <c r="W8" s="62">
         <f t="shared" si="0"/>
         <v>-3.9030837004405017E-2</v>
       </c>
@@ -1611,7 +1611,7 @@
         <f t="shared" si="1"/>
         <v>-8.8766519823789691E-3</v>
       </c>
-      <c r="W9" s="69">
+      <c r="W9" s="60">
         <f t="shared" si="1"/>
         <v>-3.6960352422907072E-2</v>
       </c>
@@ -1678,7 +1678,7 @@
         <f t="shared" si="1"/>
         <v>-8.6189427312775013E-2</v>
       </c>
-      <c r="W10" s="70">
+      <c r="W10" s="61">
         <f t="shared" si="1"/>
         <v>-2.9449339207048952E-2</v>
       </c>
@@ -1750,7 +1750,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W11" s="70">
+      <c r="W11" s="61">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1818,7 +1818,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="W12" s="71">
+      <c r="W12" s="62">
         <f t="shared" si="1"/>
         <v>-3.1938325991189842E-3</v>
       </c>
@@ -1894,7 +1894,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W13" s="69">
+      <c r="W13" s="60">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -1961,7 +1961,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="W14" s="70">
+      <c r="W14" s="61">
         <f t="shared" si="2"/>
         <v>-4.4493392070490412E-3</v>
       </c>
@@ -2033,7 +2033,7 @@
         <f t="shared" si="2"/>
         <v>-0.31931718061673997</v>
       </c>
-      <c r="W15" s="70">
+      <c r="W15" s="61">
         <f t="shared" si="2"/>
         <v>-0.3326872246696041</v>
       </c>
@@ -2101,7 +2101,7 @@
         <f t="shared" si="2"/>
         <v>-0.35207048458149803</v>
       </c>
-      <c r="W16" s="71">
+      <c r="W16" s="62">
         <f t="shared" si="2"/>
         <v>-0.27861233480176195</v>
       </c>
@@ -2177,7 +2177,7 @@
         <f t="shared" si="3"/>
         <v>-0.34555066079295205</v>
       </c>
-      <c r="W17" s="69">
+      <c r="W17" s="60">
         <f t="shared" si="3"/>
         <v>-4.8656387665198086E-2</v>
       </c>
@@ -2244,7 +2244,7 @@
         <f t="shared" si="3"/>
         <v>-0.23482378854625607</v>
       </c>
-      <c r="W18" s="70">
+      <c r="W18" s="61">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2316,7 +2316,7 @@
         <f t="shared" si="3"/>
         <v>-6.1762114537444956E-2</v>
       </c>
-      <c r="W19" s="70">
+      <c r="W19" s="61">
         <f t="shared" si="3"/>
         <v>-6.7621145374450187E-3</v>
       </c>
@@ -2384,7 +2384,7 @@
         <f t="shared" si="3"/>
         <v>-0.13233480176211498</v>
       </c>
-      <c r="W20" s="71">
+      <c r="W20" s="62">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2400,32 +2400,32 @@
       <c r="K21" s="16"/>
     </row>
     <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="66" t="s">
+      <c r="A22" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="67"/>
-      <c r="C22" s="67"/>
-      <c r="D22" s="67"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="67"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-      <c r="I22" s="67"/>
-      <c r="J22" s="67"/>
-      <c r="K22" s="68"/>
-      <c r="M22" s="66" t="s">
+      <c r="B22" s="65"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="65"/>
+      <c r="H22" s="65"/>
+      <c r="I22" s="65"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="66"/>
+      <c r="M22" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="N22" s="67"/>
-      <c r="O22" s="67"/>
-      <c r="P22" s="67"/>
-      <c r="Q22" s="67"/>
-      <c r="R22" s="67"/>
-      <c r="S22" s="67"/>
-      <c r="T22" s="67"/>
-      <c r="U22" s="67"/>
-      <c r="V22" s="67"/>
-      <c r="W22" s="68"/>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="66"/>
     </row>
     <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
@@ -3930,61 +3930,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
     </row>
     <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="65" t="s">
+      <c r="D3" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="63"/>
-      <c r="F3" s="62" t="s">
+      <c r="E3" s="69"/>
+      <c r="F3" s="68" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="63"/>
-      <c r="H3" s="62" t="s">
+      <c r="G3" s="69"/>
+      <c r="H3" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="63"/>
-      <c r="J3" s="62" t="s">
+      <c r="I3" s="69"/>
+      <c r="J3" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="63"/>
-      <c r="L3" s="62" t="s">
+      <c r="K3" s="69"/>
+      <c r="L3" s="68" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="63"/>
-      <c r="N3" s="62" t="s">
+      <c r="M3" s="69"/>
+      <c r="N3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="63"/>
-      <c r="P3" s="62" t="s">
+      <c r="O3" s="69"/>
+      <c r="P3" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="62" t="s">
+      <c r="Q3" s="69"/>
+      <c r="R3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="64"/>
+      <c r="S3" s="70"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
@@ -5269,19 +5269,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -5872,19 +5872,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
@@ -6463,8 +6463,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4FABDC-54DB-4F0C-8A5E-619A5BBC4590}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6482,19 +6482,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7082,7 +7082,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
+      <c r="F24" s="1"/>
       <c r="G24" s="16"/>
       <c r="H24" s="16"/>
       <c r="I24" s="16"/>
@@ -7410,19 +7410,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -8180,19 +8180,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9108,19 +9108,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9878,19 +9878,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -10648,19 +10648,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -11418,19 +11418,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
     </row>
     <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12190,24 +12190,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
     </row>
     <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -12217,29 +12217,29 @@
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="61" t="s">
+      <c r="F3" s="67" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="61"/>
-      <c r="H3" s="61"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="67"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="62" t="s">
+      <c r="K3" s="68" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="63"/>
-      <c r="M3" s="62" t="s">
+      <c r="L3" s="69"/>
+      <c r="M3" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="63"/>
-      <c r="O3" s="62" t="s">
+      <c r="N3" s="69"/>
+      <c r="O3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="64"/>
+      <c r="P3" s="70"/>
     </row>
     <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">

--- a/results_analysis/spark_wallFollow_01_hold_02.xlsx
+++ b/results_analysis/spark_wallFollow_01_hold_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFA545D6-439B-4675-A44E-B678B04828AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47A921D-CF8B-4591-B183-C6598CF96BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="21840" windowHeight="13140" tabRatio="734" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -1126,26 +1126,26 @@
   <dimension ref="A1:W53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="M20" sqref="M20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
-    <col min="4" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="7" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
+    <col min="12" max="12" width="2.6640625" customWidth="1"/>
     <col min="13" max="13" width="20" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>22</v>
       </c>
@@ -1160,8 +1160,8 @@
       <c r="J1" s="63"/>
       <c r="K1" s="63"/>
     </row>
-    <row r="2" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="64" t="s">
         <v>33</v>
       </c>
@@ -1189,7 +1189,7 @@
       <c r="V3" s="65"/>
       <c r="W3" s="66"/>
     </row>
-    <row r="4" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>-4.0903083700440046E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -1400,7 +1400,7 @@
         <v>-4.4449339207048966E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -1472,7 +1472,7 @@
         <v>-6.0572687224670352E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -1540,7 +1540,7 @@
         <v>-3.9030837004405017E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1616,7 +1616,7 @@
         <v>-3.6960352422907072E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -1683,7 +1683,7 @@
         <v>-2.9449339207048952E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -1755,7 +1755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -1823,7 +1823,7 @@
         <v>-3.1938325991189842E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1899,7 +1899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -1966,7 +1966,7 @@
         <v>-4.4493392070490412E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -2038,7 +2038,7 @@
         <v>-0.3326872246696041</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -2106,7 +2106,7 @@
         <v>-0.27861233480176195</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>-4.8656387665198086E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -2249,7 +2249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -2321,7 +2321,7 @@
         <v>-6.7621145374450187E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -2389,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -2399,7 +2399,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="64" t="s">
         <v>35</v>
       </c>
@@ -2427,7 +2427,7 @@
       <c r="V22" s="65"/>
       <c r="W22" s="66"/>
     </row>
-    <row r="23" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>0</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>1</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>-1.9823788546250443E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
       <c r="C25" s="1" t="s">
         <v>12</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
@@ -2734,7 +2734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6" t="s">
@@ -2810,7 +2810,7 @@
         <v>-2.8634361233503824E-4</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
@@ -2894,7 +2894,7 @@
         <v>-1.3039647577092084E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
       <c r="C29" s="1" t="s">
         <v>12</v>
@@ -2969,7 +2969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="1">
         <v>2</v>
@@ -3049,7 +3049,7 @@
         <v>-2.9493392070483959E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6" t="s">
@@ -3125,7 +3125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
@@ -3209,7 +3209,7 @@
         <v>-1.0792951541849227E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="C33" s="1" t="s">
         <v>12</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="1">
         <v>2</v>
@@ -3364,7 +3364,7 @@
         <v>-8.676211453744509E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6" t="s">
@@ -3440,7 +3440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>5</v>
       </c>
@@ -3524,7 +3524,7 @@
         <v>-5.418502202643205E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="4"/>
       <c r="C37" s="1" t="s">
         <v>12</v>
@@ -3599,7 +3599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="4"/>
       <c r="B38" s="1">
         <v>2</v>
@@ -3679,7 +3679,7 @@
         <v>-3.9449339207047962E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="5"/>
       <c r="B39" s="6"/>
       <c r="C39" s="6" t="s">
@@ -3755,7 +3755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -3765,7 +3765,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -3775,7 +3775,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -3785,7 +3785,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -3795,7 +3795,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -3805,7 +3805,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -3815,7 +3815,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -3825,7 +3825,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -3835,7 +3835,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -3845,7 +3845,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -3855,7 +3855,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -3865,7 +3865,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -3875,7 +3875,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -3885,7 +3885,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -3915,21 +3915,21 @@
       <selection activeCell="D5" sqref="D5:S20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="12" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="12" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>27</v>
       </c>
@@ -3951,8 +3951,8 @@
       <c r="Q1" s="63"/>
       <c r="R1" s="63"/>
     </row>
-    <row r="2" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="71" t="s">
         <v>6</v>
       </c>
@@ -3986,7 +3986,7 @@
       </c>
       <c r="S3" s="70"/>
     </row>
-    <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -4104,7 +4104,7 @@
         <v>1024.001</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -4158,7 +4158,7 @@
         <v>1024.001</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -4215,7 +4215,7 @@
         <v>1024.001</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -4270,7 +4270,7 @@
         <v>1024.001</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -4329,7 +4329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -4383,7 +4383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -4440,7 +4440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -4495,7 +4495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>4.8828125E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -4608,7 +4608,7 @@
         <v>0.1259765625</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -4665,7 +4665,7 @@
         <v>4.0009765625</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -4720,7 +4720,7 @@
         <v>8.0009765625</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -4779,7 +4779,7 @@
         <v>2.0009765625</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -4833,7 +4833,7 @@
         <v>1024.0009765625</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -4890,7 +4890,7 @@
         <v>64.0009765625</v>
       </c>
     </row>
-    <row r="20" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -4945,10 +4945,10 @@
         <v>512.0009765625</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -4965,7 +4965,7 @@
       <c r="Q37" s="1"/>
       <c r="R37" s="1"/>
     </row>
-    <row r="38" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -4982,7 +4982,7 @@
       <c r="Q38" s="10"/>
       <c r="R38" s="10"/>
     </row>
-    <row r="39" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -4999,7 +4999,7 @@
       <c r="Q39" s="10"/>
       <c r="R39" s="10"/>
     </row>
-    <row r="40" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -5016,7 +5016,7 @@
       <c r="Q40" s="10"/>
       <c r="R40" s="10"/>
     </row>
-    <row r="41" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -5033,7 +5033,7 @@
       <c r="Q41" s="10"/>
       <c r="R41" s="10"/>
     </row>
-    <row r="42" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -5050,7 +5050,7 @@
       <c r="Q42" s="10"/>
       <c r="R42" s="10"/>
     </row>
-    <row r="43" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -5067,7 +5067,7 @@
       <c r="Q43" s="10"/>
       <c r="R43" s="10"/>
     </row>
-    <row r="44" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -5084,7 +5084,7 @@
       <c r="Q44" s="10"/>
       <c r="R44" s="10"/>
     </row>
-    <row r="45" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -5101,7 +5101,7 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="10"/>
     </row>
-    <row r="46" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -5118,7 +5118,7 @@
       <c r="Q46" s="10"/>
       <c r="R46" s="10"/>
     </row>
-    <row r="47" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -5135,7 +5135,7 @@
       <c r="Q47" s="10"/>
       <c r="R47" s="10"/>
     </row>
-    <row r="48" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -5152,7 +5152,7 @@
       <c r="Q48" s="10"/>
       <c r="R48" s="10"/>
     </row>
-    <row r="49" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -5169,7 +5169,7 @@
       <c r="Q49" s="10"/>
       <c r="R49" s="10"/>
     </row>
-    <row r="50" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -5186,7 +5186,7 @@
       <c r="Q50" s="10"/>
       <c r="R50" s="10"/>
     </row>
-    <row r="51" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -5203,7 +5203,7 @@
       <c r="Q51" s="10"/>
       <c r="R51" s="10"/>
     </row>
-    <row r="52" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -5220,7 +5220,7 @@
       <c r="Q52" s="10"/>
       <c r="R52" s="10"/>
     </row>
-    <row r="53" spans="4:18" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:18" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -5261,14 +5261,14 @@
       <selection activeCell="D5" sqref="D5:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>29</v>
       </c>
@@ -5283,17 +5283,17 @@
       <c r="J1" s="63"/>
       <c r="K1" s="63"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -5328,7 +5328,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -5363,7 +5363,7 @@
         <v>0.90877333330057997</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -5394,7 +5394,7 @@
         <v>0.92369813846524096</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -5427,7 +5427,7 @@
         <v>0.90471695966738397</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -5458,7 +5458,7 @@
         <v>0.926934272107932</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -5493,7 +5493,7 @@
         <v>0.88785684142135801</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -5524,7 +5524,7 @@
         <v>0.91937374873718303</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -5557,7 +5557,7 @@
         <v>0.91593429654494396</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -5588,7 +5588,7 @@
         <v>0.93707611371309796</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>0.94406898236442105</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -5654,7 +5654,7 @@
         <v>0.93757537269981805</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -5687,7 +5687,7 @@
         <v>0.58351743018642299</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -5718,7 +5718,7 @@
         <v>0.73339853509707598</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>0.92689487176847996</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -5784,7 +5784,7 @@
         <v>0.95729041102717205</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -5817,7 +5817,7 @@
         <v>0.92061966166298503</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -5864,14 +5864,14 @@
       <selection activeCell="D5" sqref="D5:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>30</v>
       </c>
@@ -5886,17 +5886,17 @@
       <c r="J1" s="63"/>
       <c r="K1" s="63"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -5931,7 +5931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>0.91522929195337499</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
@@ -5997,7 +5997,7 @@
         <v>0.93120625865100104</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -6030,7 +6030,7 @@
         <v>0.91263258424538496</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -6061,7 +6061,7 @@
         <v>0.94084146850579198</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -6096,7 +6096,7 @@
         <v>0.90737695874372504</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
@@ -6127,7 +6127,7 @@
         <v>0.91806543700887</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -6160,7 +6160,7 @@
         <v>0.92516582803739</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -6191,7 +6191,7 @@
         <v>0.93352622142918695</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -6226,7 +6226,7 @@
         <v>0.93059791752273302</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
@@ -6257,7 +6257,7 @@
         <v>0.93888406412859904</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -6290,7 +6290,7 @@
         <v>0.69523706229530802</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -6321,7 +6321,7 @@
         <v>0.75073591557205099</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>0.93252460985455299</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
@@ -6387,7 +6387,7 @@
         <v>0.95904338265911004</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -6420,7 +6420,7 @@
         <v>0.92406920610864296</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -6463,25 +6463,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E4FABDC-54DB-4F0C-8A5E-619A5BBC4590}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>31</v>
       </c>
@@ -6496,8 +6496,8 @@
       <c r="J1" s="63"/>
       <c r="K1" s="63"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -6532,7 +6532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>1.79339135508681E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -6597,7 +6597,7 @@
         <v>3.0333354694745601E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -6630,7 +6630,7 @@
         <v>2.9996625227153E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -6661,7 +6661,7 @@
         <v>7.1462339233939104E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>1.0854956895604499E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -6726,7 +6726,7 @@
         <v>1.20499770411553E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -6759,7 +6759,7 @@
         <v>3.5769799357299202E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -6790,7 +6790,7 @@
         <v>1.4401087013151801E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -6825,7 +6825,7 @@
         <v>1.3320195096345201E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -6855,7 +6855,7 @@
         <v>8.8837210671498298E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -6888,7 +6888,7 @@
         <v>0.1127280004428</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -6919,7 +6919,7 @@
         <v>0.111498484864825</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -6954,7 +6954,7 @@
         <v>6.5987246215528594E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -6984,7 +6984,7 @@
         <v>1.67778671776075E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -7017,7 +7017,7 @@
         <v>2.9816011583712498E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -7048,7 +7048,7 @@
         <v>3.1393010339116102E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -7058,7 +7058,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -7069,7 +7069,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -7079,7 +7079,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="1"/>
@@ -7089,7 +7089,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -7099,7 +7099,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -7109,7 +7109,7 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -7119,7 +7119,7 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -7129,7 +7129,7 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -7139,7 +7139,7 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -7149,7 +7149,7 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -7159,7 +7159,7 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -7169,7 +7169,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -7179,7 +7179,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -7189,7 +7189,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
@@ -7199,7 +7199,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
@@ -7209,7 +7209,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -7219,7 +7219,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -7229,7 +7229,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -7239,7 +7239,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -7249,7 +7249,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -7259,7 +7259,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -7269,7 +7269,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -7279,7 +7279,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -7289,7 +7289,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -7299,7 +7299,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -7309,7 +7309,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -7319,7 +7319,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -7329,7 +7329,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -7339,7 +7339,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -7349,7 +7349,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -7359,7 +7359,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -7369,7 +7369,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -7395,21 +7395,21 @@
       <selection activeCell="D5" sqref="D5:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>23</v>
       </c>
@@ -7424,8 +7424,8 @@
       <c r="J1" s="63"/>
       <c r="K1" s="63"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -7495,7 +7495,7 @@
         <v>0.90198237885462595</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -7525,7 +7525,7 @@
         <v>0.91662995594713703</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -7558,7 +7558,7 @@
         <v>0.90792951541850198</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -7589,7 +7589,7 @@
         <v>0.92566079295154202</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -7624,7 +7624,7 @@
         <v>0.91464757709251099</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -7654,7 +7654,7 @@
         <v>0.92389867841409701</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -7687,7 +7687,7 @@
         <v>0.91927312775330405</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -7718,7 +7718,7 @@
         <v>0.94096916299559497</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -7753,7 +7753,7 @@
         <v>0.95055066079295203</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -7783,7 +7783,7 @@
         <v>0.95154185022026405</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -7816,7 +7816,7 @@
         <v>0.60583700440528598</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -7847,7 +7847,7 @@
         <v>0.68590308370044095</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -7882,7 +7882,7 @@
         <v>0.92599118942731296</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -7912,7 +7912,7 @@
         <v>0.96167400881057297</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -7945,7 +7945,7 @@
         <v>0.90660792951541902</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -7976,10 +7976,10 @@
         <v>0.95814977973568305</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -7989,7 +7989,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -7999,7 +7999,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -8009,7 +8009,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -8019,7 +8019,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -8029,7 +8029,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -8039,7 +8039,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -8049,7 +8049,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -8059,7 +8059,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -8069,7 +8069,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -8079,7 +8079,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -8089,7 +8089,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -8099,7 +8099,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -8109,7 +8109,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -8119,7 +8119,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -8129,7 +8129,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -8139,7 +8139,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -8165,21 +8165,21 @@
       <selection activeCell="D5" sqref="D5:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>32</v>
       </c>
@@ -8194,8 +8194,8 @@
       <c r="J1" s="63"/>
       <c r="K1" s="63"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -8230,7 +8230,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>0.94251101321585895</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -8295,7 +8295,7 @@
         <v>0.951982378854626</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -8328,7 +8328,7 @@
         <v>0.93898678414096903</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -8359,7 +8359,7 @@
         <v>0.95330396475770895</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -8394,7 +8394,7 @@
         <v>0.92885462555066101</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -8424,7 +8424,7 @@
         <v>0.94845814977973597</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -8457,7 +8457,7 @@
         <v>0.94713656387665202</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -8488,7 +8488,7 @@
         <v>0.95969162995594703</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -8523,7 +8523,7 @@
         <v>0.96453744493392102</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -8553,7 +8553,7 @@
         <v>0.96101321585903099</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -8586,7 +8586,7 @@
         <v>0.71453744493392102</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -8617,7 +8617,7 @@
         <v>0.80176211453744495</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -8652,7 +8652,7 @@
         <v>0.95330396475770895</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -8682,7 +8682,7 @@
         <v>0.97334801762114498</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -8715,7 +8715,7 @@
         <v>0.95022026431718098</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -8746,7 +8746,7 @@
         <v>0.96982378854625595</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -8756,7 +8756,7 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
       <c r="D22" s="16"/>
       <c r="E22" s="16"/>
@@ -8767,7 +8767,7 @@
       <c r="J22" s="16"/>
       <c r="K22" s="16"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D23" s="16"/>
       <c r="E23" s="16"/>
       <c r="F23" s="16"/>
@@ -8777,7 +8777,7 @@
       <c r="J23" s="16"/>
       <c r="K23" s="16"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D24" s="16"/>
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
@@ -8787,7 +8787,7 @@
       <c r="J24" s="16"/>
       <c r="K24" s="16"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D25" s="16"/>
       <c r="E25" s="16"/>
       <c r="F25" s="16"/>
@@ -8797,7 +8797,7 @@
       <c r="J25" s="16"/>
       <c r="K25" s="16"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D26" s="16"/>
       <c r="E26" s="16"/>
       <c r="F26" s="16"/>
@@ -8807,7 +8807,7 @@
       <c r="J26" s="16"/>
       <c r="K26" s="16"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D27" s="16"/>
       <c r="E27" s="16"/>
       <c r="F27" s="16"/>
@@ -8817,7 +8817,7 @@
       <c r="J27" s="16"/>
       <c r="K27" s="16"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D28" s="16"/>
       <c r="E28" s="16"/>
       <c r="F28" s="16"/>
@@ -8827,7 +8827,7 @@
       <c r="J28" s="16"/>
       <c r="K28" s="16"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D29" s="16"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
@@ -8837,7 +8837,7 @@
       <c r="J29" s="16"/>
       <c r="K29" s="16"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D30" s="16"/>
       <c r="E30" s="16"/>
       <c r="F30" s="16"/>
@@ -8847,7 +8847,7 @@
       <c r="J30" s="16"/>
       <c r="K30" s="16"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
       <c r="E31" s="16"/>
       <c r="F31" s="16"/>
@@ -8857,7 +8857,7 @@
       <c r="J31" s="16"/>
       <c r="K31" s="16"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D32" s="16"/>
       <c r="E32" s="16"/>
       <c r="F32" s="16"/>
@@ -8867,7 +8867,7 @@
       <c r="J32" s="16"/>
       <c r="K32" s="16"/>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D33" s="16"/>
       <c r="E33" s="16"/>
       <c r="F33" s="16"/>
@@ -8877,7 +8877,7 @@
       <c r="J33" s="16"/>
       <c r="K33" s="16"/>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D34" s="16"/>
       <c r="E34" s="16"/>
       <c r="F34" s="16"/>
@@ -8887,7 +8887,7 @@
       <c r="J34" s="16"/>
       <c r="K34" s="16"/>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D35" s="16"/>
       <c r="E35" s="16"/>
       <c r="F35" s="16"/>
@@ -8897,7 +8897,7 @@
       <c r="J35" s="16"/>
       <c r="K35" s="16"/>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D36" s="16"/>
       <c r="E36" s="16"/>
       <c r="F36" s="16"/>
@@ -8907,7 +8907,7 @@
       <c r="J36" s="16"/>
       <c r="K36" s="16"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -8917,7 +8917,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -8927,7 +8927,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -8937,7 +8937,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -8947,7 +8947,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -8957,7 +8957,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -8967,7 +8967,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -8977,7 +8977,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -8987,7 +8987,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -8997,7 +8997,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -9007,7 +9007,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -9017,7 +9017,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -9027,7 +9027,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -9037,7 +9037,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -9047,7 +9047,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -9057,7 +9057,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -9067,7 +9067,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -9090,24 +9090,24 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K20"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>24</v>
       </c>
@@ -9122,8 +9122,8 @@
       <c r="J1" s="63"/>
       <c r="K1" s="63"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -9158,7 +9158,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -9168,62 +9168,62 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="19">
+      <c r="D5" s="29">
         <v>5</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="29">
         <v>152</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="29">
         <v>22</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="29">
         <v>153</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="29">
         <v>140</v>
       </c>
-      <c r="I5" s="19">
+      <c r="I5" s="29">
         <v>732</v>
       </c>
-      <c r="J5" s="19">
+      <c r="J5" s="29">
         <v>6</v>
       </c>
-      <c r="K5" s="19">
+      <c r="K5" s="29">
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="19">
+      <c r="D6" s="29">
         <v>5</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="29">
         <v>169</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="29">
         <v>16</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="29">
         <v>101</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="29">
         <v>173</v>
       </c>
-      <c r="I6" s="19">
+      <c r="I6" s="29">
         <v>507</v>
       </c>
-      <c r="J6" s="19">
+      <c r="J6" s="29">
         <v>6</v>
       </c>
-      <c r="K6" s="19">
+      <c r="K6" s="29">
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -9231,63 +9231,63 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="19">
+      <c r="D7" s="29">
         <v>9</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="29">
         <v>131</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="29">
         <v>20</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="29">
         <v>166</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="29">
         <v>143</v>
       </c>
-      <c r="I7" s="19">
+      <c r="I7" s="29">
         <v>732</v>
       </c>
-      <c r="J7" s="19">
+      <c r="J7" s="29">
         <v>10</v>
       </c>
-      <c r="K7" s="19">
+      <c r="K7" s="29">
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="19">
+      <c r="D8" s="29">
         <v>13</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="29">
         <v>159</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="29">
         <v>73</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="29">
         <v>167</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="29">
         <v>138</v>
       </c>
-      <c r="I8" s="19">
+      <c r="I8" s="29">
         <v>732</v>
       </c>
-      <c r="J8" s="19">
+      <c r="J8" s="29">
         <v>20</v>
       </c>
-      <c r="K8" s="19">
+      <c r="K8" s="29">
         <v>170</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -9297,62 +9297,62 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="19">
+      <c r="D9" s="29">
         <v>145</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="29">
         <v>84</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="29">
         <v>183</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="29">
         <v>114</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="29">
         <v>170</v>
       </c>
-      <c r="I9" s="19">
-        <v>1</v>
-      </c>
-      <c r="J9" s="19">
+      <c r="I9" s="29">
+        <v>1</v>
+      </c>
+      <c r="J9" s="29">
         <v>172</v>
       </c>
-      <c r="K9" s="19">
+      <c r="K9" s="29">
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="19">
+      <c r="D10" s="29">
         <v>112</v>
       </c>
-      <c r="E10" s="19">
+      <c r="E10" s="29">
         <v>156</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="29">
         <v>91</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="29">
         <v>183</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="29">
         <v>84</v>
       </c>
-      <c r="I10" s="19">
-        <v>1</v>
-      </c>
-      <c r="J10" s="19">
+      <c r="I10" s="29">
+        <v>1</v>
+      </c>
+      <c r="J10" s="29">
         <v>199</v>
       </c>
-      <c r="K10" s="19">
+      <c r="K10" s="29">
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -9360,63 +9360,63 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="19">
+      <c r="D11" s="29">
         <v>153</v>
       </c>
-      <c r="E11" s="19">
+      <c r="E11" s="29">
         <v>190</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="29">
         <v>262</v>
       </c>
-      <c r="G11" s="19">
+      <c r="G11" s="29">
         <v>103</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="29">
         <v>101</v>
       </c>
-      <c r="I11" s="19">
+      <c r="I11" s="29">
         <v>732</v>
       </c>
-      <c r="J11" s="19">
+      <c r="J11" s="29">
         <v>208</v>
       </c>
-      <c r="K11" s="19">
+      <c r="K11" s="29">
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D12" s="29">
         <v>84</v>
       </c>
-      <c r="E12" s="19">
+      <c r="E12" s="29">
         <v>129</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="29">
         <v>133</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="29">
         <v>116</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="29">
         <v>140</v>
       </c>
-      <c r="I12" s="19">
+      <c r="I12" s="29">
         <v>732</v>
       </c>
-      <c r="J12" s="19">
+      <c r="J12" s="29">
         <v>225</v>
       </c>
-      <c r="K12" s="19">
+      <c r="K12" s="29">
         <v>195</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -9426,62 +9426,62 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D13" s="29">
         <v>68</v>
       </c>
-      <c r="E13" s="19">
+      <c r="E13" s="29">
         <v>69</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="29">
         <v>74</v>
       </c>
-      <c r="G13" s="19">
+      <c r="G13" s="29">
         <v>67</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="29">
         <v>77</v>
       </c>
-      <c r="I13" s="19">
+      <c r="I13" s="29">
         <v>76</v>
       </c>
-      <c r="J13" s="19">
+      <c r="J13" s="29">
         <v>39</v>
       </c>
-      <c r="K13" s="19">
+      <c r="K13" s="29">
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="19">
+      <c r="D14" s="29">
         <v>65</v>
       </c>
-      <c r="E14" s="19">
+      <c r="E14" s="29">
         <v>74</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="29">
         <v>77</v>
       </c>
-      <c r="G14" s="19">
+      <c r="G14" s="29">
         <v>68</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="29">
         <v>70</v>
       </c>
-      <c r="I14" s="19">
+      <c r="I14" s="29">
         <v>66</v>
       </c>
-      <c r="J14" s="19">
+      <c r="J14" s="29">
         <v>55</v>
       </c>
-      <c r="K14" s="19">
+      <c r="K14" s="29">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -9489,63 +9489,63 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="19">
+      <c r="D15" s="29">
         <v>4</v>
       </c>
-      <c r="E15" s="19">
+      <c r="E15" s="29">
         <v>4</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="29">
         <v>4</v>
       </c>
-      <c r="G15" s="19">
+      <c r="G15" s="29">
         <v>4</v>
       </c>
-      <c r="H15" s="19">
+      <c r="H15" s="29">
         <v>4</v>
       </c>
-      <c r="I15" s="19">
+      <c r="I15" s="29">
         <v>4</v>
       </c>
-      <c r="J15" s="19">
+      <c r="J15" s="29">
         <v>4</v>
       </c>
-      <c r="K15" s="19">
+      <c r="K15" s="29">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19">
+      <c r="D16" s="29">
         <v>4</v>
       </c>
-      <c r="E16" s="19">
+      <c r="E16" s="29">
         <v>4</v>
       </c>
-      <c r="F16" s="19">
+      <c r="F16" s="29">
         <v>5</v>
       </c>
-      <c r="G16" s="19">
+      <c r="G16" s="29">
         <v>4</v>
       </c>
-      <c r="H16" s="19">
+      <c r="H16" s="29">
         <v>4</v>
       </c>
-      <c r="I16" s="19">
+      <c r="I16" s="29">
         <v>4</v>
       </c>
-      <c r="J16" s="19">
+      <c r="J16" s="29">
         <v>4</v>
       </c>
-      <c r="K16" s="19">
+      <c r="K16" s="29">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -9555,62 +9555,62 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="19">
+      <c r="D17" s="29">
         <v>153</v>
       </c>
-      <c r="E17" s="19">
+      <c r="E17" s="29">
         <v>443</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="29">
         <v>128</v>
       </c>
-      <c r="G17" s="19">
+      <c r="G17" s="29">
         <v>156</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="29">
         <v>327</v>
       </c>
-      <c r="I17" s="19">
+      <c r="I17" s="29">
         <v>103</v>
       </c>
-      <c r="J17" s="19">
+      <c r="J17" s="29">
         <v>88</v>
       </c>
-      <c r="K17" s="19">
+      <c r="K17" s="29">
         <v>680</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="19">
+      <c r="D18" s="29">
         <v>10</v>
       </c>
-      <c r="E18" s="19">
+      <c r="E18" s="29">
         <v>184</v>
       </c>
-      <c r="F18" s="19">
+      <c r="F18" s="29">
         <v>213</v>
       </c>
-      <c r="G18" s="19">
+      <c r="G18" s="29">
         <v>125</v>
       </c>
-      <c r="H18" s="19">
+      <c r="H18" s="29">
         <v>127</v>
       </c>
-      <c r="I18" s="19">
+      <c r="I18" s="29">
         <v>240</v>
       </c>
-      <c r="J18" s="19">
+      <c r="J18" s="29">
         <v>7</v>
       </c>
-      <c r="K18" s="19">
+      <c r="K18" s="29">
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -9618,66 +9618,66 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="19">
+      <c r="D19" s="29">
         <v>40</v>
       </c>
-      <c r="E19" s="19">
+      <c r="E19" s="29">
         <v>111</v>
       </c>
-      <c r="F19" s="19">
+      <c r="F19" s="29">
         <v>143</v>
       </c>
-      <c r="G19" s="19">
+      <c r="G19" s="29">
         <v>192</v>
       </c>
-      <c r="H19" s="19">
+      <c r="H19" s="29">
         <v>139</v>
       </c>
-      <c r="I19" s="19">
+      <c r="I19" s="29">
         <v>115</v>
       </c>
-      <c r="J19" s="19">
+      <c r="J19" s="29">
         <v>41</v>
       </c>
-      <c r="K19" s="19">
+      <c r="K19" s="29">
         <v>211</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="29">
         <v>30</v>
       </c>
-      <c r="E20" s="19">
+      <c r="E20" s="29">
         <v>137</v>
       </c>
-      <c r="F20" s="19">
+      <c r="F20" s="29">
         <v>121</v>
       </c>
-      <c r="G20" s="19">
+      <c r="G20" s="29">
         <v>134</v>
       </c>
-      <c r="H20" s="19">
+      <c r="H20" s="29">
         <v>133</v>
       </c>
-      <c r="I20" s="19">
+      <c r="I20" s="29">
         <v>198</v>
       </c>
-      <c r="J20" s="19">
+      <c r="J20" s="29">
         <v>9</v>
       </c>
-      <c r="K20" s="19">
+      <c r="K20" s="29">
         <v>244</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -9687,7 +9687,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -9697,7 +9697,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -9707,7 +9707,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -9717,7 +9717,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -9727,7 +9727,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -9737,7 +9737,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -9747,7 +9747,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -9757,7 +9757,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -9767,7 +9767,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -9777,7 +9777,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -9787,7 +9787,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -9797,7 +9797,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -9807,7 +9807,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -9817,7 +9817,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -9827,7 +9827,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -9837,7 +9837,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -9863,21 +9863,21 @@
       <selection activeCell="D5" sqref="D5:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>25</v>
       </c>
@@ -9892,8 +9892,8 @@
       <c r="J1" s="63"/>
       <c r="K1" s="63"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -9963,7 +9963,7 @@
         <v>95.5</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -9993,7 +9993,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -10026,7 +10026,7 @@
         <v>75.8</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -10057,7 +10057,7 @@
         <v>83.9</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -10092,7 +10092,7 @@
         <v>80.900000000000006</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -10122,7 +10122,7 @@
         <v>94.4</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -10155,7 +10155,7 @@
         <v>88.7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -10186,7 +10186,7 @@
         <v>86.2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -10221,7 +10221,7 @@
         <v>69.900000000000006</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -10251,7 +10251,7 @@
         <v>67.5</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -10284,7 +10284,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -10315,7 +10315,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -10350,7 +10350,7 @@
         <v>314.8</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -10380,7 +10380,7 @@
         <v>156.80000000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -10413,7 +10413,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -10444,10 +10444,10 @@
         <v>126.2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -10457,7 +10457,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -10467,7 +10467,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -10477,7 +10477,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -10487,7 +10487,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -10497,7 +10497,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -10507,7 +10507,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -10517,7 +10517,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -10527,7 +10527,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -10537,7 +10537,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -10547,7 +10547,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -10557,7 +10557,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -10567,7 +10567,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -10577,7 +10577,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -10587,7 +10587,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -10597,7 +10597,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -10607,7 +10607,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -10629,25 +10629,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F40056-F547-48DD-9331-37B657810592}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>26</v>
       </c>
@@ -10662,8 +10662,8 @@
       <c r="J1" s="63"/>
       <c r="K1" s="63"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -10698,7 +10698,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -10733,7 +10733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -10763,7 +10763,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -10796,7 +10796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -10827,7 +10827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -10892,7 +10892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -10925,7 +10925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -10956,7 +10956,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -10991,7 +10991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -11021,7 +11021,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -11054,7 +11054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -11085,7 +11085,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -11150,7 +11150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -11183,7 +11183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -11214,10 +11214,10 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -11227,7 +11227,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -11237,7 +11237,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -11247,7 +11247,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -11257,7 +11257,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -11267,7 +11267,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -11277,7 +11277,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -11287,7 +11287,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -11297,7 +11297,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -11307,7 +11307,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -11317,7 +11317,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -11327,7 +11327,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -11337,7 +11337,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -11347,7 +11347,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -11357,7 +11357,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -11367,7 +11367,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -11377,7 +11377,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -11403,21 +11403,21 @@
       <selection activeCell="D5" sqref="D5:K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>27</v>
       </c>
@@ -11432,8 +11432,8 @@
       <c r="J1" s="63"/>
       <c r="K1" s="63"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -11468,7 +11468,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -11503,7 +11503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -11533,7 +11533,7 @@
         <v>5.9</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -11566,7 +11566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -11597,7 +11597,7 @@
         <v>5.8</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -11632,7 +11632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -11662,7 +11662,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -11695,7 +11695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -11726,7 +11726,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -11761,7 +11761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -11791,7 +11791,7 @@
         <v>5.4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -11824,7 +11824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -11855,7 +11855,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -11890,7 +11890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -11920,7 +11920,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -11953,7 +11953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -11984,10 +11984,10 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -11997,7 +11997,7 @@
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
     </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -12007,7 +12007,7 @@
       <c r="J38" s="10"/>
       <c r="K38" s="10"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -12017,7 +12017,7 @@
       <c r="J39" s="10"/>
       <c r="K39" s="10"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -12027,7 +12027,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -12037,7 +12037,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -12047,7 +12047,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -12057,7 +12057,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -12067,7 +12067,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -12077,7 +12077,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -12087,7 +12087,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -12097,7 +12097,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -12107,7 +12107,7 @@
       <c r="J48" s="10"/>
       <c r="K48" s="10"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -12117,7 +12117,7 @@
       <c r="J49" s="10"/>
       <c r="K49" s="10"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -12127,7 +12127,7 @@
       <c r="J50" s="10"/>
       <c r="K50" s="10"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -12137,7 +12137,7 @@
       <c r="J51" s="10"/>
       <c r="K51" s="10"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -12147,7 +12147,7 @@
       <c r="J52" s="10"/>
       <c r="K52" s="10"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -12173,23 +12173,23 @@
       <selection activeCell="D5" sqref="D5:P20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="7.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>28</v>
       </c>
@@ -12209,8 +12209,8 @@
       <c r="O1" s="63"/>
       <c r="P1" s="63"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D3" s="17" t="s">
         <v>6</v>
       </c>
@@ -12241,7 +12241,7 @@
       </c>
       <c r="P3" s="70"/>
     </row>
-    <row r="4" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -12291,7 +12291,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -12341,7 +12341,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="22" t="s">
         <v>12</v>
@@ -12386,7 +12386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -12434,7 +12434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="23" t="s">
@@ -12480,7 +12480,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -12530,7 +12530,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="22" t="s">
         <v>12</v>
@@ -12575,7 +12575,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -12623,7 +12623,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="23" t="s">
@@ -12669,7 +12669,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -12719,7 +12719,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="22" t="s">
         <v>12</v>
@@ -12764,7 +12764,7 @@
         <v>3.125E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -12812,7 +12812,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="23" t="s">
@@ -12858,7 +12858,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -12908,7 +12908,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="22" t="s">
         <v>12</v>
@@ -12953,7 +12953,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -13001,7 +13001,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="23" t="s">
@@ -13047,10 +13047,10 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B22" s="11"/>
     </row>
-    <row r="37" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
@@ -13064,7 +13064,7 @@
       <c r="N37" s="1"/>
       <c r="O37" s="1"/>
     </row>
-    <row r="38" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -13078,7 +13078,7 @@
       <c r="N38" s="10"/>
       <c r="O38" s="10"/>
     </row>
-    <row r="39" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -13092,7 +13092,7 @@
       <c r="N39" s="10"/>
       <c r="O39" s="10"/>
     </row>
-    <row r="40" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -13106,7 +13106,7 @@
       <c r="N40" s="10"/>
       <c r="O40" s="10"/>
     </row>
-    <row r="41" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -13120,7 +13120,7 @@
       <c r="N41" s="10"/>
       <c r="O41" s="10"/>
     </row>
-    <row r="42" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -13134,7 +13134,7 @@
       <c r="N42" s="10"/>
       <c r="O42" s="10"/>
     </row>
-    <row r="43" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -13148,7 +13148,7 @@
       <c r="N43" s="10"/>
       <c r="O43" s="10"/>
     </row>
-    <row r="44" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -13162,7 +13162,7 @@
       <c r="N44" s="10"/>
       <c r="O44" s="10"/>
     </row>
-    <row r="45" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -13176,7 +13176,7 @@
       <c r="N45" s="10"/>
       <c r="O45" s="10"/>
     </row>
-    <row r="46" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -13190,7 +13190,7 @@
       <c r="N46" s="10"/>
       <c r="O46" s="10"/>
     </row>
-    <row r="47" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="47" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -13204,7 +13204,7 @@
       <c r="N47" s="10"/>
       <c r="O47" s="10"/>
     </row>
-    <row r="48" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -13218,7 +13218,7 @@
       <c r="N48" s="10"/>
       <c r="O48" s="10"/>
     </row>
-    <row r="49" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -13232,7 +13232,7 @@
       <c r="N49" s="10"/>
       <c r="O49" s="10"/>
     </row>
-    <row r="50" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -13246,7 +13246,7 @@
       <c r="N50" s="10"/>
       <c r="O50" s="10"/>
     </row>
-    <row r="51" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -13260,7 +13260,7 @@
       <c r="N51" s="10"/>
       <c r="O51" s="10"/>
     </row>
-    <row r="52" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="52" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -13274,7 +13274,7 @@
       <c r="N52" s="10"/>
       <c r="O52" s="10"/>
     </row>
-    <row r="53" spans="4:15" x14ac:dyDescent="0.25">
+    <row r="53" spans="4:15" x14ac:dyDescent="0.3">
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>

--- a/results_analysis/spark_wallFollow_01_hold_02.xlsx
+++ b/results_analysis/spark_wallFollow_01_hold_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\matlab-mltool-fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A47A921D-CF8B-4591-B183-C6598CF96BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EEE2CB-EBFF-48D3-9FD7-7C8512E1057E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="v1_v2_best" sheetId="13" r:id="rId10"/>
     <sheet name="MCC" sheetId="14" r:id="rId11"/>
     <sheet name="F1S" sheetId="15" r:id="rId12"/>
+    <sheet name="Comp" sheetId="17" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="37">
   <si>
     <t>Sparsiciation Method</t>
   </si>
@@ -628,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -841,6 +842,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1123,10 +1148,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1145,7 +1170,7 @@
     <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
         <v>22</v>
       </c>
@@ -1160,8 +1185,8 @@
       <c r="J1" s="63"/>
       <c r="K1" s="63"/>
     </row>
-    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="64" t="s">
         <v>33</v>
       </c>
@@ -1175,21 +1200,8 @@
       <c r="I3" s="65"/>
       <c r="J3" s="65"/>
       <c r="K3" s="66"/>
-      <c r="M3" s="64" t="s">
-        <v>34</v>
-      </c>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="66"/>
-    </row>
-    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1223,41 +1235,8 @@
       <c r="K4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="U4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="V4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="W4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
@@ -1291,49 +1270,8 @@
       <c r="K5" s="53">
         <v>0.90883259911894299</v>
       </c>
-      <c r="M5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" s="3">
-        <v>1</v>
-      </c>
-      <c r="O5" s="3">
-        <v>1</v>
-      </c>
-      <c r="P5" s="57">
-        <f t="shared" ref="P5:W8" si="0">D5-MAX(D5,D9,D13,D17)</f>
-        <v>-0.49286343612334799</v>
-      </c>
-      <c r="Q5" s="57">
-        <f t="shared" si="0"/>
-        <v>-5.5660792951541915E-2</v>
-      </c>
-      <c r="R5" s="57">
-        <f t="shared" si="0"/>
-        <v>-0.16812775330396501</v>
-      </c>
-      <c r="S5" s="57">
-        <f t="shared" si="0"/>
-        <v>-5.8061674008810016E-2</v>
-      </c>
-      <c r="T5" s="57">
-        <f t="shared" si="0"/>
-        <v>-4.1762114537444939E-2</v>
-      </c>
-      <c r="U5" s="57">
-        <f t="shared" si="0"/>
-        <v>-2.7753303964758058E-2</v>
-      </c>
-      <c r="V5" s="57">
-        <f t="shared" si="0"/>
-        <v>-0.32233480176211404</v>
-      </c>
-      <c r="W5" s="60">
-        <f t="shared" si="0"/>
-        <v>-4.0903083700440046E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="1" t="s">
         <v>12</v>
@@ -1362,45 +1300,8 @@
       <c r="K6" s="15">
         <v>0.91081497797356803</v>
       </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P6" s="54">
-        <f t="shared" si="0"/>
-        <v>-0.44817180616740004</v>
-      </c>
-      <c r="Q6" s="54">
-        <f t="shared" si="0"/>
-        <v>-3.1431718061673997E-2</v>
-      </c>
-      <c r="R6" s="54">
-        <f t="shared" si="0"/>
-        <v>-0.19270925110132198</v>
-      </c>
-      <c r="S6" s="54">
-        <f t="shared" si="0"/>
-        <v>-4.1299559471364988E-2</v>
-      </c>
-      <c r="T6" s="54">
-        <f t="shared" si="0"/>
-        <v>-4.0528634361233995E-2</v>
-      </c>
-      <c r="U6" s="54">
-        <f t="shared" si="0"/>
-        <v>-5.8259911894273042E-2</v>
-      </c>
-      <c r="V6" s="54">
-        <f t="shared" si="0"/>
-        <v>-0.42898678414096902</v>
-      </c>
-      <c r="W6" s="61">
-        <f t="shared" si="0"/>
-        <v>-4.4449339207048966E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="1">
         <v>2</v>
@@ -1432,47 +1333,8 @@
       <c r="K7" s="15">
         <v>0.90321585903083701</v>
       </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="1">
-        <v>2</v>
-      </c>
-      <c r="O7" s="1">
-        <v>1</v>
-      </c>
-      <c r="P7" s="54">
-        <f t="shared" si="0"/>
-        <v>-0.12196035242290704</v>
-      </c>
-      <c r="Q7" s="54">
-        <f t="shared" si="0"/>
-        <v>-1.519823788546304E-2</v>
-      </c>
-      <c r="R7" s="54">
-        <f t="shared" si="0"/>
-        <v>-2.1497797356829107E-2</v>
-      </c>
-      <c r="S7" s="54">
-        <f t="shared" si="0"/>
-        <v>-1.715859030836997E-2</v>
-      </c>
-      <c r="T7" s="54">
-        <f t="shared" si="0"/>
-        <v>-2.9735682819382991E-2</v>
-      </c>
-      <c r="U7" s="54">
-        <f t="shared" si="0"/>
-        <v>-0.17541850220264299</v>
-      </c>
-      <c r="V7" s="54">
-        <f t="shared" si="0"/>
-        <v>-0.125859030837004</v>
-      </c>
-      <c r="W7" s="61">
-        <f t="shared" si="0"/>
-        <v>-6.0572687224670352E-3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6" t="s">
@@ -1502,45 +1364,8 @@
       <c r="K8" s="56">
         <v>0.90292951541850197</v>
       </c>
-      <c r="M8" s="5"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P8" s="55">
-        <f t="shared" si="0"/>
-        <v>-0.103502202643172</v>
-      </c>
-      <c r="Q8" s="55">
-        <f t="shared" si="0"/>
-        <v>-2.3788546255509857E-3</v>
-      </c>
-      <c r="R8" s="55">
-        <f t="shared" si="0"/>
-        <v>-4.2665198237884949E-2</v>
-      </c>
-      <c r="S8" s="55">
-        <f t="shared" si="0"/>
-        <v>-2.1387665198237982E-2</v>
-      </c>
-      <c r="T8" s="55">
-        <f t="shared" si="0"/>
-        <v>-3.5440528634360979E-2</v>
-      </c>
-      <c r="U8" s="55">
-        <f t="shared" si="0"/>
-        <v>-0.13332599118942701</v>
-      </c>
-      <c r="V8" s="55">
-        <f t="shared" si="0"/>
-        <v>-0.14066079295154199</v>
-      </c>
-      <c r="W8" s="62">
-        <f t="shared" si="0"/>
-        <v>-3.9030837004405017E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>3</v>
       </c>
@@ -1574,49 +1399,8 @@
       <c r="K9" s="59">
         <v>0.91277533039647596</v>
       </c>
-      <c r="M9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="3">
-        <v>1</v>
-      </c>
-      <c r="O9" s="3">
-        <v>1</v>
-      </c>
-      <c r="P9" s="57">
-        <f t="shared" ref="P9:W12" si="1">D9-MAX(D5,D9,D13,D17)</f>
-        <v>-3.1497797356828006E-2</v>
-      </c>
-      <c r="Q9" s="57">
-        <f t="shared" si="1"/>
-        <v>-5.6585903083699929E-2</v>
-      </c>
-      <c r="R9" s="57">
-        <f t="shared" si="1"/>
-        <v>-4.3303964757708924E-2</v>
-      </c>
-      <c r="S9" s="57">
-        <f t="shared" si="1"/>
-        <v>-4.1255506607928982E-2</v>
-      </c>
-      <c r="T9" s="57">
-        <f t="shared" si="1"/>
-        <v>-2.9691629955947985E-2</v>
-      </c>
-      <c r="U9" s="57">
-        <f t="shared" si="1"/>
-        <v>-0.76165198237885401</v>
-      </c>
-      <c r="V9" s="57">
-        <f t="shared" si="1"/>
-        <v>-8.8766519823789691E-3</v>
-      </c>
-      <c r="W9" s="60">
-        <f t="shared" si="1"/>
-        <v>-3.6960352422907072E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="1" t="s">
         <v>12</v>
@@ -1645,45 +1429,8 @@
       <c r="K10" s="15">
         <v>0.92581497797356804</v>
       </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P10" s="54">
-        <f t="shared" si="1"/>
-        <v>-4.0352422907489083E-2</v>
-      </c>
-      <c r="Q10" s="54">
-        <f t="shared" si="1"/>
-        <v>-3.5132158590308937E-2</v>
-      </c>
-      <c r="R10" s="54">
-        <f t="shared" si="1"/>
-        <v>-5.4229074889868056E-2</v>
-      </c>
-      <c r="S10" s="54">
-        <f t="shared" si="1"/>
-        <v>-3.0110132158590042E-2</v>
-      </c>
-      <c r="T10" s="54">
-        <f t="shared" si="1"/>
-        <v>-4.4977973568281926E-2</v>
-      </c>
-      <c r="U10" s="54">
-        <f t="shared" si="1"/>
-        <v>-0.78665198237885503</v>
-      </c>
-      <c r="V10" s="54">
-        <f t="shared" si="1"/>
-        <v>-8.6189427312775013E-2</v>
-      </c>
-      <c r="W10" s="61">
-        <f t="shared" si="1"/>
-        <v>-2.9449339207048952E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="1">
         <v>2</v>
@@ -1715,47 +1462,8 @@
       <c r="K11" s="15">
         <v>0.90927312775330404</v>
       </c>
-      <c r="M11" s="4"/>
-      <c r="N11" s="1">
-        <v>2</v>
-      </c>
-      <c r="O11" s="1">
-        <v>1</v>
-      </c>
-      <c r="P11" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q11" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R11" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S11" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="T11" s="54">
-        <f t="shared" si="1"/>
-        <v>-4.9118942731269932E-3</v>
-      </c>
-      <c r="U11" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V11" s="54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W11" s="61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
@@ -1785,45 +1493,8 @@
       <c r="K12" s="56">
         <v>0.938766519823788</v>
       </c>
-      <c r="M12" s="5"/>
-      <c r="N12" s="6"/>
-      <c r="O12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P12" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q12" s="55">
-        <f t="shared" si="1"/>
-        <v>-8.2599118942729977E-3</v>
-      </c>
-      <c r="R12" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="S12" s="55">
-        <f t="shared" si="1"/>
-        <v>-9.1409691629950052E-3</v>
-      </c>
-      <c r="T12" s="55">
-        <f t="shared" si="1"/>
-        <v>-2.0110132158590033E-2</v>
-      </c>
-      <c r="U12" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V12" s="55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W12" s="62">
-        <f t="shared" si="1"/>
-        <v>-3.1938325991189842E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>4</v>
       </c>
@@ -1857,49 +1528,8 @@
       <c r="K13" s="59">
         <v>0.94973568281938303</v>
       </c>
-      <c r="M13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N13" s="3">
-        <v>1</v>
-      </c>
-      <c r="O13" s="3">
-        <v>1</v>
-      </c>
-      <c r="P13" s="57">
-        <f t="shared" ref="P13:W16" si="2">D13-MAX(D5,D9,D13,D17)</f>
-        <v>0</v>
-      </c>
-      <c r="Q13" s="57">
-        <f t="shared" si="2"/>
-        <v>-2.3854625550660979E-2</v>
-      </c>
-      <c r="R13" s="57">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S13" s="57">
-        <f t="shared" si="2"/>
-        <v>-1.0814977973568007E-2</v>
-      </c>
-      <c r="T13" s="57">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="U13" s="57">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V13" s="57">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W13" s="60">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
       <c r="C14" s="1" t="s">
         <v>12</v>
@@ -1928,45 +1558,8 @@
       <c r="K14" s="15">
         <v>0.95081497797356795</v>
       </c>
-      <c r="M14" s="4"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="54">
-        <f t="shared" si="2"/>
-        <v>-1.4867841409690996E-2</v>
-      </c>
-      <c r="T14" s="54">
-        <f t="shared" si="2"/>
-        <v>-7.7753303964759324E-3</v>
-      </c>
-      <c r="U14" s="54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="V14" s="54">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W14" s="61">
-        <f t="shared" si="2"/>
-        <v>-4.4493392070490412E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
       <c r="B15" s="1">
         <v>2</v>
@@ -1998,47 +1591,8 @@
       <c r="K15" s="15">
         <v>0.57658590308369995</v>
       </c>
-      <c r="M15" s="4"/>
-      <c r="N15" s="1">
-        <v>2</v>
-      </c>
-      <c r="O15" s="1">
-        <v>1</v>
-      </c>
-      <c r="P15" s="54">
-        <f t="shared" si="2"/>
-        <v>-0.28343612334801693</v>
-      </c>
-      <c r="Q15" s="54">
-        <f t="shared" si="2"/>
-        <v>-0.37486784140969209</v>
-      </c>
-      <c r="R15" s="54">
-        <f t="shared" si="2"/>
-        <v>-0.39319383259911911</v>
-      </c>
-      <c r="S15" s="54">
-        <f t="shared" si="2"/>
-        <v>-0.32008810572687196</v>
-      </c>
-      <c r="T15" s="54">
-        <f t="shared" si="2"/>
-        <v>-0.31162995594713605</v>
-      </c>
-      <c r="U15" s="54">
-        <f t="shared" si="2"/>
-        <v>-0.33158590308370095</v>
-      </c>
-      <c r="V15" s="54">
-        <f t="shared" si="2"/>
-        <v>-0.31931718061673997</v>
-      </c>
-      <c r="W15" s="61">
-        <f t="shared" si="2"/>
-        <v>-0.3326872246696041</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6" t="s">
@@ -2068,45 +1622,8 @@
       <c r="K16" s="56">
         <v>0.66334801762114504</v>
       </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P16" s="55">
-        <f t="shared" si="2"/>
-        <v>-0.27797356828193809</v>
-      </c>
-      <c r="Q16" s="55">
-        <f t="shared" si="2"/>
-        <v>-0.34995594713656408</v>
-      </c>
-      <c r="R16" s="55">
-        <f t="shared" si="2"/>
-        <v>-0.33215859030836992</v>
-      </c>
-      <c r="S16" s="55">
-        <f t="shared" si="2"/>
-        <v>-0.28651982378854601</v>
-      </c>
-      <c r="T16" s="55">
-        <f t="shared" si="2"/>
-        <v>-0.35588105726872199</v>
-      </c>
-      <c r="U16" s="55">
-        <f t="shared" si="2"/>
-        <v>-0.30204845814977899</v>
-      </c>
-      <c r="V16" s="55">
-        <f t="shared" si="2"/>
-        <v>-0.35207048458149803</v>
-      </c>
-      <c r="W16" s="62">
-        <f t="shared" si="2"/>
-        <v>-0.27861233480176195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>5</v>
       </c>
@@ -2140,49 +1657,8 @@
       <c r="K17" s="59">
         <v>0.90107929515418494</v>
       </c>
-      <c r="M17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="1">
-        <v>1</v>
-      </c>
-      <c r="O17" s="1">
-        <v>1</v>
-      </c>
-      <c r="P17" s="57">
-        <f t="shared" ref="P17:W20" si="3">D17-MAX(D5,D9,D13,D17)</f>
-        <v>-3.2907488986783973E-2</v>
-      </c>
-      <c r="Q17" s="57">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R17" s="57">
-        <f t="shared" si="3"/>
-        <v>-5.9140969162994939E-2</v>
-      </c>
-      <c r="S17" s="57">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T17" s="57">
-        <f t="shared" si="3"/>
-        <v>-8.850220264317199E-2</v>
-      </c>
-      <c r="U17" s="57">
-        <f t="shared" si="3"/>
-        <v>-4.9713656387665006E-2</v>
-      </c>
-      <c r="V17" s="57">
-        <f t="shared" si="3"/>
-        <v>-0.34555066079295205</v>
-      </c>
-      <c r="W17" s="60">
-        <f t="shared" si="3"/>
-        <v>-4.8656387665198086E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="C18" s="1" t="s">
         <v>12</v>
@@ -2211,45 +1687,8 @@
       <c r="K18" s="15">
         <v>0.955264317180617</v>
       </c>
-      <c r="M18" s="4"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P18" s="54">
-        <f t="shared" si="3"/>
-        <v>-0.35211453744493304</v>
-      </c>
-      <c r="Q18" s="54">
-        <f t="shared" si="3"/>
-        <v>-2.5022026431718025E-2</v>
-      </c>
-      <c r="R18" s="54">
-        <f t="shared" si="3"/>
-        <v>-8.0330396475771004E-2</v>
-      </c>
-      <c r="S18" s="54">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T18" s="54">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U18" s="54">
-        <f t="shared" si="3"/>
-        <v>-2.9889867841409012E-2</v>
-      </c>
-      <c r="V18" s="54">
-        <f t="shared" si="3"/>
-        <v>-0.23482378854625607</v>
-      </c>
-      <c r="W18" s="61">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
       <c r="B19" s="1">
         <v>2</v>
@@ -2281,47 +1720,8 @@
       <c r="K19" s="15">
         <v>0.90251101321585903</v>
       </c>
-      <c r="M19" s="4"/>
-      <c r="N19" s="1">
-        <v>2</v>
-      </c>
-      <c r="O19" s="1">
-        <v>1</v>
-      </c>
-      <c r="P19" s="54">
-        <f t="shared" si="3"/>
-        <v>-8.0418502202643016E-2</v>
-      </c>
-      <c r="Q19" s="54">
-        <f t="shared" si="3"/>
-        <v>-6.8061674008810247E-3</v>
-      </c>
-      <c r="R19" s="54">
-        <f t="shared" si="3"/>
-        <v>-4.6035242290749068E-2</v>
-      </c>
-      <c r="S19" s="54">
-        <f t="shared" si="3"/>
-        <v>-7.2687224669599759E-3</v>
-      </c>
-      <c r="T19" s="54">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U19" s="54">
-        <f t="shared" si="3"/>
-        <v>-8.3127753303965046E-2</v>
-      </c>
-      <c r="V19" s="54">
-        <f t="shared" si="3"/>
-        <v>-6.1762114537444956E-2</v>
-      </c>
-      <c r="W19" s="61">
-        <f t="shared" si="3"/>
-        <v>-6.7621145374450187E-3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6" t="s">
@@ -2351,45 +1751,8 @@
       <c r="K20" s="56">
         <v>0.94196035242290699</v>
       </c>
-      <c r="M20" s="5"/>
-      <c r="N20" s="6"/>
-      <c r="O20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P20" s="55">
-        <f t="shared" si="3"/>
-        <v>-9.541850220264303E-2</v>
-      </c>
-      <c r="Q20" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="R20" s="55">
-        <f t="shared" si="3"/>
-        <v>-4.6453744493391902E-2</v>
-      </c>
-      <c r="S20" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="T20" s="55">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="U20" s="55">
-        <f t="shared" si="3"/>
-        <v>-2.6784140969163039E-2</v>
-      </c>
-      <c r="V20" s="55">
-        <f t="shared" si="3"/>
-        <v>-0.13233480176211498</v>
-      </c>
-      <c r="W20" s="62">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -2399,1363 +1762,166 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="64" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="65"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="65"/>
-      <c r="H22" s="65"/>
-      <c r="I22" s="65"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="66"/>
-      <c r="M22" s="64" t="s">
-        <v>36</v>
-      </c>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="66"/>
-    </row>
-    <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="Q23" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="R23" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="S23" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="T23" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="U23" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="V23" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="W23" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B24" s="3">
-        <v>1</v>
-      </c>
-      <c r="C24" s="3">
-        <v>1</v>
-      </c>
-      <c r="D24" s="52">
-        <f>D5-MAX(D5,D7)</f>
-        <v>-0.35508810572687294</v>
-      </c>
-      <c r="E24" s="52">
-        <f t="shared" ref="E24:K25" si="4">E5-MAX(E5,E7)</f>
-        <v>0</v>
-      </c>
-      <c r="F24" s="52">
-        <f t="shared" si="4"/>
-        <v>-9.6784140969162991E-2</v>
-      </c>
-      <c r="G24" s="52">
-        <f t="shared" si="4"/>
-        <v>-6.4537444933920884E-3</v>
-      </c>
-      <c r="H24" s="52">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I24" s="52">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="52">
-        <f t="shared" si="4"/>
-        <v>-0.19292951541850201</v>
-      </c>
-      <c r="K24" s="52">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="N24" s="3">
-        <v>1</v>
-      </c>
-      <c r="O24" s="3">
-        <v>1</v>
-      </c>
-      <c r="P24" s="52">
-        <f>D5-MAX(D5,D6)</f>
-        <v>-5.5066079295155002E-2</v>
-      </c>
-      <c r="Q24" s="52">
-        <f t="shared" ref="Q24:W24" si="5">E5-MAX(E5,E6)</f>
-        <v>-6.2555066079299504E-3</v>
-      </c>
-      <c r="R24" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="S24" s="52">
-        <f t="shared" si="5"/>
-        <v>-1.6079295154185047E-2</v>
-      </c>
-      <c r="T24" s="52">
-        <f t="shared" si="5"/>
-        <v>-1.0176211453743922E-2</v>
-      </c>
-      <c r="U24" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="52">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="52">
-        <f t="shared" si="5"/>
-        <v>-1.9823788546250443E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="C25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D25" s="54">
-        <f>D6-MAX(D6,D8)</f>
-        <v>-0.29491189427312703</v>
-      </c>
-      <c r="E25" s="54">
-        <f t="shared" si="4"/>
-        <v>-2.5220264317180052E-2</v>
-      </c>
-      <c r="F25" s="54">
-        <f t="shared" si="4"/>
-        <v>-0.10814977973568296</v>
-      </c>
-      <c r="G25" s="54">
-        <f t="shared" si="4"/>
-        <v>-1.6497797356827992E-2</v>
-      </c>
-      <c r="H25" s="54">
-        <f t="shared" si="4"/>
-        <v>-3.9207048458150817E-3</v>
-      </c>
-      <c r="I25" s="54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="54">
-        <f t="shared" si="4"/>
-        <v>-0.28548458149779699</v>
-      </c>
-      <c r="K25" s="54">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="M25" s="4"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P25" s="54">
-        <f>D6-MAX(D5,D6)</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="54">
-        <f t="shared" ref="Q25:W25" si="6">E6-MAX(E5,E6)</f>
-        <v>0</v>
-      </c>
-      <c r="R25" s="54">
-        <f t="shared" si="6"/>
-        <v>-3.1629955947135913E-2</v>
-      </c>
-      <c r="S25" s="54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="T25" s="54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="U25" s="54">
-        <f t="shared" si="6"/>
-        <v>-2.9823788546255003E-2</v>
-      </c>
-      <c r="V25" s="54">
-        <f t="shared" si="6"/>
-        <v>-9.4955947136563967E-2</v>
-      </c>
-      <c r="W25" s="54">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="74"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="C26" s="1">
-        <v>1</v>
-      </c>
-      <c r="D26" s="54">
-        <f>D7-MAX(D5,D7)</f>
-        <v>0</v>
-      </c>
-      <c r="E26" s="54">
-        <f t="shared" ref="E26:K27" si="7">E7-MAX(E5,E7)</f>
-        <v>-1.429515418502203E-2</v>
-      </c>
-      <c r="F26" s="54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G26" s="54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H26" s="54">
-        <f t="shared" si="7"/>
-        <v>-2.092511013215903E-2</v>
-      </c>
-      <c r="I26" s="54">
-        <f t="shared" si="7"/>
-        <v>-0.13312775330396398</v>
-      </c>
-      <c r="J26" s="54">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K26" s="54">
-        <f t="shared" si="7"/>
-        <v>-5.6167400881059759E-3</v>
-      </c>
-      <c r="M26" s="4"/>
-      <c r="N26" s="1">
-        <v>2</v>
-      </c>
-      <c r="O26" s="1">
-        <v>1</v>
-      </c>
-      <c r="P26" s="52">
-        <f>D7-MAX(D7,D8)</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="52">
-        <f t="shared" ref="Q26:W26" si="8">E7-MAX(E7,E8)</f>
-        <v>-4.5770925110132032E-2</v>
-      </c>
-      <c r="R26" s="52">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="S26" s="52">
-        <f t="shared" si="8"/>
-        <v>-2.6123348017620951E-2</v>
-      </c>
-      <c r="T26" s="52">
-        <f t="shared" si="8"/>
-        <v>-3.5022026431718034E-2</v>
-      </c>
-      <c r="U26" s="52">
-        <f t="shared" si="8"/>
-        <v>-3.3281938325991023E-2</v>
-      </c>
-      <c r="V26" s="52">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="52">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D27" s="55">
-        <f>D8-MAX(D6,D8)</f>
-        <v>0</v>
-      </c>
-      <c r="E27" s="55">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="55">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="G27" s="55">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H27" s="55">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="I27" s="55">
-        <f t="shared" si="7"/>
-        <v>-7.0022026431717954E-2</v>
-      </c>
-      <c r="J27" s="55">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="K27" s="55">
-        <f t="shared" si="7"/>
-        <v>-7.8854625550660584E-3</v>
-      </c>
-      <c r="M27" s="5"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P27" s="54">
-        <f>D8-MAX(D7,D8)</f>
-        <v>-5.1101321585909076E-3</v>
-      </c>
-      <c r="Q27" s="54">
-        <f t="shared" ref="Q27:W27" si="9">E8-MAX(E7,E8)</f>
-        <v>0</v>
-      </c>
-      <c r="R27" s="54">
-        <f t="shared" si="9"/>
-        <v>-2.0264317180615943E-2</v>
-      </c>
-      <c r="S27" s="54">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="T27" s="54">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="U27" s="54">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="54">
-        <f t="shared" si="9"/>
-        <v>-2.4008810572689887E-3</v>
-      </c>
-      <c r="W27" s="54">
-        <f t="shared" si="9"/>
-        <v>-2.8634361233503824E-4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="3">
-        <v>1</v>
-      </c>
-      <c r="C28" s="3">
-        <v>1</v>
-      </c>
-      <c r="D28" s="52">
-        <f>D9-MAX(D9,D11)</f>
-        <v>-1.5682819383259994E-2</v>
-      </c>
-      <c r="E28" s="52">
-        <f t="shared" ref="E28:K29" si="10">E9-MAX(E9,E11)</f>
-        <v>-1.8281938325990232E-3</v>
-      </c>
-      <c r="F28" s="52">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="G28" s="52">
-        <f t="shared" si="10"/>
-        <v>-6.8061674008810247E-3</v>
-      </c>
-      <c r="H28" s="52">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="I28" s="52">
-        <f t="shared" si="10"/>
-        <v>-0.77618942731277496</v>
-      </c>
-      <c r="J28" s="52">
-        <f t="shared" si="10"/>
-        <v>-5.3303964757709377E-3</v>
-      </c>
-      <c r="K28" s="52">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N28" s="3">
-        <v>1</v>
-      </c>
-      <c r="O28" s="3">
-        <v>1</v>
-      </c>
-      <c r="P28" s="52">
-        <f>D9-MAX(D9,D10)</f>
-        <v>-1.519823788545982E-3</v>
-      </c>
-      <c r="Q28" s="52">
-        <f t="shared" ref="Q28:W28" si="11">E9-MAX(E9,E10)</f>
-        <v>-3.4801762114530232E-3</v>
-      </c>
-      <c r="R28" s="52">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="S28" s="52">
-        <f t="shared" si="11"/>
-        <v>-1.046255506607896E-2</v>
-      </c>
-      <c r="T28" s="52">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="U28" s="52">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="52">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="52">
-        <f t="shared" si="11"/>
-        <v>-1.3039647577092084E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="C29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="54">
-        <f>D10-MAX(D10,D12)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="54">
-        <f t="shared" si="10"/>
-        <v>-2.3039647577092981E-2</v>
-      </c>
-      <c r="F29" s="54">
-        <f t="shared" si="10"/>
-        <v>-1.2334801762113989E-2</v>
-      </c>
-      <c r="G29" s="54">
-        <f t="shared" si="10"/>
-        <v>-1.7555066079296022E-2</v>
-      </c>
-      <c r="H29" s="54">
-        <f t="shared" si="10"/>
-        <v>-2.3700440528633959E-2</v>
-      </c>
-      <c r="I29" s="54">
-        <f t="shared" si="10"/>
-        <v>-0.79169603524229104</v>
-      </c>
-      <c r="J29" s="54">
-        <f t="shared" si="10"/>
-        <v>-8.3348017621144965E-2</v>
-      </c>
-      <c r="K29" s="54">
-        <f t="shared" si="10"/>
-        <v>-1.2951541850219961E-2</v>
-      </c>
-      <c r="M29" s="4"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P29" s="54">
-        <f>D10-MAX(D9,D10)</f>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="54">
-        <f t="shared" ref="Q29:W29" si="12">E10-MAX(E9,E10)</f>
-        <v>0</v>
-      </c>
-      <c r="R29" s="54">
-        <f t="shared" si="12"/>
-        <v>-1.7973568281938079E-2</v>
-      </c>
-      <c r="S29" s="54">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="T29" s="54">
-        <f t="shared" si="12"/>
-        <v>-6.3436123348009632E-3</v>
-      </c>
-      <c r="U29" s="54">
-        <f t="shared" si="12"/>
-        <v>-2.4317180616741013E-2</v>
-      </c>
-      <c r="V29" s="54">
-        <f t="shared" si="12"/>
-        <v>-6.561674008810503E-2</v>
-      </c>
-      <c r="W29" s="54">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="1">
-        <v>2</v>
-      </c>
-      <c r="C30" s="1">
-        <v>1</v>
-      </c>
-      <c r="D30" s="54">
-        <f>D11-MAX(D9,D11)</f>
-        <v>0</v>
-      </c>
-      <c r="E30" s="54">
-        <f t="shared" ref="E30:K31" si="13">E11-MAX(E9,E11)</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="54">
-        <f t="shared" si="13"/>
-        <v>-6.5418502202639894E-3</v>
-      </c>
-      <c r="G30" s="54">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H30" s="54">
-        <f t="shared" si="13"/>
-        <v>-8.1718061673999864E-3</v>
-      </c>
-      <c r="I30" s="54">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="54">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="54">
-        <f t="shared" si="13"/>
-        <v>-3.5022026431719144E-3</v>
-      </c>
-      <c r="M30" s="4"/>
-      <c r="N30" s="1">
-        <v>2</v>
-      </c>
-      <c r="O30" s="1">
-        <v>1</v>
-      </c>
-      <c r="P30" s="52">
-        <f>D11-MAX(D11,D12)</f>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="52">
-        <f t="shared" ref="Q30:W30" si="14">E11-MAX(E11,E12)</f>
-        <v>-2.4691629955946981E-2</v>
-      </c>
-      <c r="R30" s="52">
-        <f t="shared" si="14"/>
-        <v>-9.0308370043989949E-4</v>
-      </c>
-      <c r="S30" s="52">
-        <f t="shared" si="14"/>
-        <v>-2.1211453744493958E-2</v>
-      </c>
-      <c r="T30" s="52">
-        <f t="shared" si="14"/>
-        <v>-2.5528634361232982E-2</v>
-      </c>
-      <c r="U30" s="52">
-        <f t="shared" si="14"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="52">
-        <f t="shared" si="14"/>
-        <v>-1.2400881057268998E-2</v>
-      </c>
-      <c r="W30" s="52">
-        <f t="shared" si="14"/>
-        <v>-2.9493392070483959E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" s="55">
-        <f>D12-MAX(D10,D12)</f>
-        <v>-9.4052863436119294E-3</v>
-      </c>
-      <c r="E31" s="55">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="55">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="G31" s="55">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="H31" s="55">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="I31" s="55">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="55">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="K31" s="55">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="M31" s="5"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P31" s="54">
-        <f>D12-MAX(D11,D12)</f>
-        <v>-2.3568281938325941E-2</v>
-      </c>
-      <c r="Q31" s="54">
-        <f t="shared" ref="Q31:W31" si="15">E12-MAX(E11,E12)</f>
-        <v>0</v>
-      </c>
-      <c r="R31" s="54">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="54">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="T31" s="54">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="U31" s="54">
-        <f t="shared" si="15"/>
-        <v>-8.8105726872249601E-3</v>
-      </c>
-      <c r="V31" s="54">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-      <c r="W31" s="54">
-        <f t="shared" si="15"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
+      <c r="D26" s="75"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="77"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="3">
-        <v>1</v>
-      </c>
-      <c r="C32" s="3">
-        <v>1</v>
-      </c>
-      <c r="D32" s="52">
-        <f>D13-MAX(D13,D15)</f>
-        <v>0</v>
-      </c>
-      <c r="E32" s="52">
-        <f t="shared" ref="E32:K33" si="16">E13-MAX(E13,E15)</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="52">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="52">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="52">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I32" s="52">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="52">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K32" s="52">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M32" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="N32" s="3">
-        <v>1</v>
-      </c>
-      <c r="O32" s="3">
-        <v>1</v>
-      </c>
-      <c r="P32" s="52">
-        <f>D13-MAX(D13,D14)</f>
-        <v>-1.0374449339207059E-2</v>
-      </c>
-      <c r="Q32" s="52">
-        <f t="shared" ref="Q32:W32" si="17">E13-MAX(E13,E14)</f>
-        <v>-5.8810572687230112E-3</v>
-      </c>
-      <c r="R32" s="52">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="S32" s="52">
-        <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="T32" s="52">
-        <f t="shared" si="17"/>
-        <v>-1.1674008810570458E-3</v>
-      </c>
-      <c r="U32" s="52">
-        <f t="shared" si="17"/>
-        <v>-6.8281938325998048E-4</v>
-      </c>
-      <c r="V32" s="52">
-        <f t="shared" si="17"/>
-        <v>-1.1696035242291014E-2</v>
-      </c>
-      <c r="W32" s="52">
-        <f t="shared" si="17"/>
-        <v>-1.0792951541849227E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="C33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D33" s="54">
-        <f>D14-MAX(D14,D16)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="54">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="54">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="54">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="54">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="54">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="54">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="K33" s="54">
-        <f t="shared" si="16"/>
-        <v>0</v>
-      </c>
-      <c r="M33" s="4"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P33" s="54">
-        <f>D14-MAX(D13,D14)</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="54">
-        <f t="shared" ref="Q33:W33" si="18">E14-MAX(E13,E14)</f>
-        <v>0</v>
-      </c>
-      <c r="R33" s="54">
-        <f t="shared" si="18"/>
-        <v>-7.0484581497789467E-3</v>
-      </c>
-      <c r="S33" s="54">
-        <f t="shared" si="18"/>
-        <v>-4.7356828193829692E-3</v>
-      </c>
-      <c r="T33" s="54">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="U33" s="54">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="54">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="W33" s="54">
-        <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="1">
-        <v>2</v>
-      </c>
-      <c r="C34" s="1">
-        <v>1</v>
-      </c>
-      <c r="D34" s="54">
-        <f>D15-MAX(D13,D15)</f>
-        <v>-0.29925110132158494</v>
-      </c>
-      <c r="E34" s="54">
-        <f t="shared" ref="E34:K35" si="19">E15-MAX(E13,E15)</f>
-        <v>-0.40577092511013202</v>
-      </c>
-      <c r="F34" s="54">
-        <f t="shared" si="19"/>
-        <v>-0.44303964757709202</v>
-      </c>
-      <c r="G34" s="54">
-        <f t="shared" si="19"/>
-        <v>-0.34372246696035191</v>
-      </c>
-      <c r="H34" s="54">
-        <f t="shared" si="19"/>
-        <v>-0.34458149779735703</v>
-      </c>
-      <c r="I34" s="54">
-        <f t="shared" si="19"/>
-        <v>-0.31704845814978</v>
-      </c>
-      <c r="J34" s="54">
-        <f t="shared" si="19"/>
-        <v>-0.322863436123348</v>
-      </c>
-      <c r="K34" s="54">
-        <f t="shared" si="19"/>
-        <v>-0.37314977973568308</v>
-      </c>
-      <c r="M34" s="4"/>
-      <c r="N34" s="1">
-        <v>2</v>
-      </c>
-      <c r="O34" s="1">
-        <v>1</v>
-      </c>
-      <c r="P34" s="52">
-        <f>D15-MAX(D15,D16)</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="52">
-        <f t="shared" ref="Q34:W34" si="20">E15-MAX(E15,E16)</f>
-        <v>-5.7863436123347989E-2</v>
-      </c>
-      <c r="R34" s="52">
-        <f t="shared" si="20"/>
-        <v>-6.1938325991189092E-2</v>
-      </c>
-      <c r="S34" s="52">
-        <f t="shared" si="20"/>
-        <v>-6.3920704845814913E-2</v>
-      </c>
-      <c r="T34" s="52">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="U34" s="52">
-        <f t="shared" si="20"/>
-        <v>-2.0726872246697003E-2</v>
-      </c>
-      <c r="V34" s="52">
-        <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-      <c r="W34" s="52">
-        <f t="shared" si="20"/>
-        <v>-8.676211453744509E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="55">
-        <f>D16-MAX(D14,D16)</f>
-        <v>-0.3277312775330391</v>
-      </c>
-      <c r="E35" s="55">
-        <f t="shared" si="19"/>
-        <v>-0.35378854625550704</v>
-      </c>
-      <c r="F35" s="55">
-        <f t="shared" si="19"/>
-        <v>-0.37405286343612398</v>
-      </c>
-      <c r="G35" s="55">
-        <f t="shared" si="19"/>
-        <v>-0.27506607929515403</v>
-      </c>
-      <c r="H35" s="55">
-        <f t="shared" si="19"/>
-        <v>-0.34927312775330399</v>
-      </c>
-      <c r="I35" s="55">
-        <f t="shared" si="19"/>
-        <v>-0.29700440528634298</v>
-      </c>
-      <c r="J35" s="55">
-        <f t="shared" si="19"/>
-        <v>-0.35491189427312808</v>
-      </c>
-      <c r="K35" s="55">
-        <f t="shared" si="19"/>
-        <v>-0.28746696035242292</v>
-      </c>
-      <c r="M35" s="5"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P35" s="54">
-        <f>D16-MAX(D15,D16)</f>
-        <v>-1.8105726872247097E-2</v>
-      </c>
-      <c r="Q35" s="54">
-        <f t="shared" ref="Q35:W35" si="21">E16-MAX(E15,E16)</f>
-        <v>0</v>
-      </c>
-      <c r="R35" s="54">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="S35" s="54">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="T35" s="54">
-        <f t="shared" si="21"/>
-        <v>-3.5242290748899174E-3</v>
-      </c>
-      <c r="U35" s="54">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-      <c r="V35" s="54">
-        <f t="shared" si="21"/>
-        <v>-2.0352422907489065E-2</v>
-      </c>
-      <c r="W35" s="54">
-        <f t="shared" si="21"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A36" s="4" t="s">
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="74"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="77"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="1">
-        <v>1</v>
-      </c>
-      <c r="C36" s="1">
-        <v>1</v>
-      </c>
-      <c r="D36" s="52">
-        <f>D17-MAX(D17,D19)</f>
-        <v>0</v>
-      </c>
-      <c r="E36" s="52">
-        <f t="shared" ref="E36:K37" si="22">E17-MAX(E17,E19)</f>
-        <v>0</v>
-      </c>
-      <c r="F36" s="52">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G36" s="52">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H36" s="52">
-        <f t="shared" si="22"/>
-        <v>-5.5550660792951012E-2</v>
-      </c>
-      <c r="I36" s="52">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="52">
-        <f t="shared" si="22"/>
-        <v>-0.28024229074889906</v>
-      </c>
-      <c r="K36" s="52">
-        <f t="shared" si="22"/>
-        <v>-1.431718061674081E-3</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="N36" s="1">
-        <v>1</v>
-      </c>
-      <c r="O36" s="1">
-        <v>1</v>
-      </c>
-      <c r="P36" s="52">
-        <f>D17-MAX(D17,D18)</f>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="52">
-        <f t="shared" ref="Q36:W36" si="23">E17-MAX(E17,E18)</f>
-        <v>0</v>
-      </c>
-      <c r="R36" s="52">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="S36" s="52">
-        <f t="shared" si="23"/>
-        <v>0</v>
-      </c>
-      <c r="T36" s="52">
-        <f t="shared" si="23"/>
-        <v>-9.7444933920704968E-2</v>
-      </c>
-      <c r="U36" s="52">
-        <f t="shared" si="23"/>
-        <v>-2.0506607929515974E-2</v>
-      </c>
-      <c r="V36" s="52">
-        <f t="shared" si="23"/>
-        <v>-0.12242290748898699</v>
-      </c>
-      <c r="W36" s="52">
-        <f t="shared" si="23"/>
-        <v>-5.418502202643205E-2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="C37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="54">
-        <f>D18-MAX(D18,D20)</f>
-        <v>-0.206938325991189</v>
-      </c>
-      <c r="E37" s="54">
-        <f t="shared" si="22"/>
-        <v>-2.1189427312775067E-2</v>
-      </c>
-      <c r="F37" s="54">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="G37" s="54">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H37" s="54">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="I37" s="54">
-        <f t="shared" si="22"/>
-        <v>-8.1497797356819834E-3</v>
-      </c>
-      <c r="J37" s="54">
-        <f t="shared" si="22"/>
-        <v>-9.9647577092511042E-2</v>
-      </c>
-      <c r="K37" s="54">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="M37" s="4"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P37" s="54">
-        <f>D18-MAX(D17,D18)</f>
-        <v>-0.30883259911894201</v>
-      </c>
-      <c r="Q37" s="54">
-        <f t="shared" ref="Q37:W37" si="24">E18-MAX(E17,E18)</f>
-        <v>-4.2995594713655994E-2</v>
-      </c>
-      <c r="R37" s="54">
-        <f t="shared" si="24"/>
-        <v>-2.8237885462555012E-2</v>
-      </c>
-      <c r="S37" s="54">
-        <f t="shared" si="24"/>
-        <v>-6.8281938325998048E-4</v>
-      </c>
-      <c r="T37" s="54">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="U37" s="54">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="V37" s="54">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-      <c r="W37" s="54">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="1">
-        <v>2</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="54">
-        <f>D19-MAX(D17,D19)</f>
-        <v>-6.3325991189427056E-2</v>
-      </c>
-      <c r="E38" s="54">
-        <f t="shared" ref="E38:K39" si="25">E19-MAX(E17,E19)</f>
-        <v>-6.156387665198193E-2</v>
-      </c>
-      <c r="F38" s="54">
-        <f t="shared" si="25"/>
-        <v>-3.6740088105727042E-2</v>
-      </c>
-      <c r="G38" s="54">
-        <f t="shared" si="25"/>
-        <v>-4.1718061674007934E-2</v>
-      </c>
-      <c r="H38" s="54">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="I38" s="54">
-        <f t="shared" si="25"/>
-        <v>-1.8876651982379089E-2</v>
-      </c>
-      <c r="J38" s="54">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K38" s="54">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="M38" s="4"/>
-      <c r="N38" s="1">
-        <v>2</v>
-      </c>
-      <c r="O38" s="1">
-        <v>1</v>
-      </c>
-      <c r="P38" s="52">
-        <f>D19-MAX(D19,D20)</f>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="52">
-        <f t="shared" ref="Q38:W38" si="26">E19-MAX(E19,E20)</f>
-        <v>-3.9757709251101003E-2</v>
-      </c>
-      <c r="R38" s="52">
-        <f t="shared" si="26"/>
-        <v>-4.8458149779706527E-4</v>
-      </c>
-      <c r="S38" s="52">
-        <f t="shared" si="26"/>
-        <v>-3.7621145374448939E-2</v>
-      </c>
-      <c r="T38" s="52">
-        <f t="shared" si="26"/>
-        <v>-4.0726872246696022E-2</v>
-      </c>
-      <c r="U38" s="52">
-        <f t="shared" si="26"/>
-        <v>-4.7533039647577047E-2</v>
-      </c>
-      <c r="V38" s="52">
-        <f t="shared" si="26"/>
-        <v>0</v>
-      </c>
-      <c r="W38" s="52">
-        <f t="shared" si="26"/>
-        <v>-3.9449339207047962E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="55">
-        <f>D20-MAX(D18,D20)</f>
-        <v>0</v>
-      </c>
-      <c r="E39" s="55">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="55">
-        <f t="shared" si="25"/>
-        <v>-8.0176211453749646E-3</v>
-      </c>
-      <c r="G39" s="55">
-        <f t="shared" si="25"/>
-        <v>-3.4140969162990142E-3</v>
-      </c>
-      <c r="H39" s="55">
-        <f t="shared" si="25"/>
-        <v>-1.1674008810579339E-3</v>
-      </c>
-      <c r="I39" s="55">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="55">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="K39" s="55">
-        <f t="shared" si="25"/>
-        <v>-1.3303964757710007E-2</v>
-      </c>
-      <c r="M39" s="5"/>
-      <c r="N39" s="6"/>
-      <c r="O39" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="P39" s="54">
-        <f>D20-MAX(D19,D20)</f>
-        <v>-3.8568281938325955E-2</v>
-      </c>
-      <c r="Q39" s="54">
-        <f t="shared" ref="Q39:W39" si="27">E20-MAX(E19,E20)</f>
-        <v>0</v>
-      </c>
-      <c r="R39" s="54">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S39" s="54">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="T39" s="54">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="U39" s="54">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="V39" s="54">
-        <f t="shared" si="27"/>
-        <v>-5.817180616740103E-2</v>
-      </c>
-      <c r="W39" s="54">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="79"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -3765,7 +1931,7 @@
       <c r="J40" s="10"/>
       <c r="K40" s="10"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -3775,7 +1941,7 @@
       <c r="J41" s="10"/>
       <c r="K41" s="10"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -3785,7 +1951,7 @@
       <c r="J42" s="10"/>
       <c r="K42" s="10"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -3795,7 +1961,7 @@
       <c r="J43" s="10"/>
       <c r="K43" s="10"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -3805,7 +1971,7 @@
       <c r="J44" s="10"/>
       <c r="K44" s="10"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -3815,7 +1981,7 @@
       <c r="J45" s="10"/>
       <c r="K45" s="10"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -3825,7 +1991,7 @@
       <c r="J46" s="10"/>
       <c r="K46" s="10"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
@@ -3835,7 +2001,7 @@
       <c r="J47" s="10"/>
       <c r="K47" s="10"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -3896,12 +2062,9 @@
       <c r="K53" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="2">
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="A3:K3"/>
-    <mergeCell ref="M3:W3"/>
-    <mergeCell ref="A22:K22"/>
-    <mergeCell ref="M22:W22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3912,7 +2075,7 @@
   <dimension ref="A1:S53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:S20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5255,10 +3418,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8065C56F-AEED-4D36-9CB5-AF6203A45422}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5848,6 +4011,168 @@
         <v>0.95235553777215498</v>
       </c>
     </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="74"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="77"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="74"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="77"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="79"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
@@ -5858,10 +4183,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF1E589-1659-439B-B1DA-4F9E028A9755}">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6451,9 +4776,2260 @@
         <v>0.93522983199859899</v>
       </c>
     </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1"/>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="74"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="77"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="74"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="77"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="79"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCB8ACC3-53A9-4DB2-BF0D-1B4685C6E9B3}">
+  <dimension ref="A2:W39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="2.21875" customWidth="1"/>
+    <col min="13" max="13" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="64" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="66"/>
+      <c r="M3" s="64" t="s">
+        <v>34</v>
+      </c>
+      <c r="N3" s="65"/>
+      <c r="O3" s="65"/>
+      <c r="P3" s="65"/>
+      <c r="Q3" s="65"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="66"/>
+    </row>
+    <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="52">
+        <f>acc_mean!D5-MAX(acc_mean!D5,acc_mean!D7)</f>
+        <v>-0.35508810572687294</v>
+      </c>
+      <c r="E5" s="52">
+        <f>acc_mean!E5-MAX(acc_mean!E5,acc_mean!E7)</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="52">
+        <f>acc_mean!F5-MAX(acc_mean!F5,acc_mean!F7)</f>
+        <v>-9.6784140969162991E-2</v>
+      </c>
+      <c r="G5" s="52">
+        <f>acc_mean!G5-MAX(acc_mean!G5,acc_mean!G7)</f>
+        <v>-6.4537444933920884E-3</v>
+      </c>
+      <c r="H5" s="52">
+        <f>acc_mean!H5-MAX(acc_mean!H5,acc_mean!H7)</f>
+        <v>0</v>
+      </c>
+      <c r="I5" s="52">
+        <f>acc_mean!I5-MAX(acc_mean!I5,acc_mean!I7)</f>
+        <v>0</v>
+      </c>
+      <c r="J5" s="52">
+        <f>acc_mean!J5-MAX(acc_mean!J5,acc_mean!J7)</f>
+        <v>-0.19292951541850201</v>
+      </c>
+      <c r="K5" s="52">
+        <f>acc_mean!K5-MAX(acc_mean!K5,acc_mean!K7)</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N5" s="3">
+        <v>1</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="57">
+        <f>acc_mean!D5-MAX(acc_mean!D5,acc_mean!D9,acc_mean!D13,acc_mean!D17)</f>
+        <v>-0.49286343612334799</v>
+      </c>
+      <c r="Q5" s="57">
+        <f>acc_mean!E5-MAX(acc_mean!E5,acc_mean!E9,acc_mean!E13,acc_mean!E17)</f>
+        <v>-5.5660792951541915E-2</v>
+      </c>
+      <c r="R5" s="57">
+        <f>acc_mean!F5-MAX(acc_mean!F5,acc_mean!F9,acc_mean!F13,acc_mean!F17)</f>
+        <v>-0.16812775330396501</v>
+      </c>
+      <c r="S5" s="57">
+        <f>acc_mean!G5-MAX(acc_mean!G5,acc_mean!G9,acc_mean!G13,acc_mean!G17)</f>
+        <v>-5.8061674008810016E-2</v>
+      </c>
+      <c r="T5" s="57">
+        <f>acc_mean!H5-MAX(acc_mean!H5,acc_mean!H9,acc_mean!H13,acc_mean!H17)</f>
+        <v>-4.1762114537444939E-2</v>
+      </c>
+      <c r="U5" s="57">
+        <f>acc_mean!I5-MAX(acc_mean!I5,acc_mean!I9,acc_mean!I13,acc_mean!I17)</f>
+        <v>-2.7753303964758058E-2</v>
+      </c>
+      <c r="V5" s="57">
+        <f>acc_mean!J5-MAX(acc_mean!J5,acc_mean!J9,acc_mean!J13,acc_mean!J17)</f>
+        <v>-0.32233480176211404</v>
+      </c>
+      <c r="W5" s="60">
+        <f>acc_mean!K5-MAX(acc_mean!K5,acc_mean!K9,acc_mean!K13,acc_mean!K17)</f>
+        <v>-4.0903083700440046E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="54">
+        <f>acc_mean!D6-MAX(acc_mean!D6,acc_mean!D8)</f>
+        <v>-0.29491189427312703</v>
+      </c>
+      <c r="E6" s="54">
+        <f>acc_mean!E6-MAX(acc_mean!E6,acc_mean!E8)</f>
+        <v>-2.5220264317180052E-2</v>
+      </c>
+      <c r="F6" s="54">
+        <f>acc_mean!F6-MAX(acc_mean!F6,acc_mean!F8)</f>
+        <v>-0.10814977973568296</v>
+      </c>
+      <c r="G6" s="54">
+        <f>acc_mean!G6-MAX(acc_mean!G6,acc_mean!G8)</f>
+        <v>-1.6497797356827992E-2</v>
+      </c>
+      <c r="H6" s="54">
+        <f>acc_mean!H6-MAX(acc_mean!H6,acc_mean!H8)</f>
+        <v>-3.9207048458150817E-3</v>
+      </c>
+      <c r="I6" s="54">
+        <f>acc_mean!I6-MAX(acc_mean!I6,acc_mean!I8)</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="54">
+        <f>acc_mean!J6-MAX(acc_mean!J6,acc_mean!J8)</f>
+        <v>-0.28548458149779699</v>
+      </c>
+      <c r="K6" s="54">
+        <f>acc_mean!K6-MAX(acc_mean!K6,acc_mean!K8)</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="4"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P6" s="54">
+        <f>acc_mean!D6-MAX(acc_mean!D6,acc_mean!D10,acc_mean!D14,acc_mean!D18)</f>
+        <v>-0.44817180616740004</v>
+      </c>
+      <c r="Q6" s="54">
+        <f>acc_mean!E6-MAX(acc_mean!E6,acc_mean!E10,acc_mean!E14,acc_mean!E18)</f>
+        <v>-3.1431718061673997E-2</v>
+      </c>
+      <c r="R6" s="54">
+        <f>acc_mean!F6-MAX(acc_mean!F6,acc_mean!F10,acc_mean!F14,acc_mean!F18)</f>
+        <v>-0.19270925110132198</v>
+      </c>
+      <c r="S6" s="54">
+        <f>acc_mean!G6-MAX(acc_mean!G6,acc_mean!G10,acc_mean!G14,acc_mean!G18)</f>
+        <v>-4.1299559471364988E-2</v>
+      </c>
+      <c r="T6" s="54">
+        <f>acc_mean!H6-MAX(acc_mean!H6,acc_mean!H10,acc_mean!H14,acc_mean!H18)</f>
+        <v>-4.0528634361233995E-2</v>
+      </c>
+      <c r="U6" s="54">
+        <f>acc_mean!I6-MAX(acc_mean!I6,acc_mean!I10,acc_mean!I14,acc_mean!I18)</f>
+        <v>-5.8259911894273042E-2</v>
+      </c>
+      <c r="V6" s="54">
+        <f>acc_mean!J6-MAX(acc_mean!J6,acc_mean!J10,acc_mean!J14,acc_mean!J18)</f>
+        <v>-0.42898678414096902</v>
+      </c>
+      <c r="W6" s="61">
+        <f>acc_mean!K6-MAX(acc_mean!K6,acc_mean!K10,acc_mean!K14,acc_mean!K18)</f>
+        <v>-4.4449339207048966E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="54">
+        <f>acc_mean!D7-MAX(acc_mean!D5,acc_mean!D7)</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="54">
+        <f>acc_mean!E7-MAX(acc_mean!E5,acc_mean!E7)</f>
+        <v>-1.429515418502203E-2</v>
+      </c>
+      <c r="F7" s="54">
+        <f>acc_mean!F7-MAX(acc_mean!F5,acc_mean!F7)</f>
+        <v>0</v>
+      </c>
+      <c r="G7" s="54">
+        <f>acc_mean!G7-MAX(acc_mean!G5,acc_mean!G7)</f>
+        <v>0</v>
+      </c>
+      <c r="H7" s="54">
+        <f>acc_mean!H7-MAX(acc_mean!H5,acc_mean!H7)</f>
+        <v>-2.092511013215903E-2</v>
+      </c>
+      <c r="I7" s="54">
+        <f>acc_mean!I7-MAX(acc_mean!I5,acc_mean!I7)</f>
+        <v>-0.13312775330396398</v>
+      </c>
+      <c r="J7" s="54">
+        <f>acc_mean!J7-MAX(acc_mean!J5,acc_mean!J7)</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="54">
+        <f>acc_mean!K7-MAX(acc_mean!K5,acc_mean!K7)</f>
+        <v>-5.6167400881059759E-3</v>
+      </c>
+      <c r="M7" s="4"/>
+      <c r="N7" s="1">
+        <v>2</v>
+      </c>
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+      <c r="P7" s="54">
+        <f>acc_mean!D7-MAX(acc_mean!D7,acc_mean!D11,acc_mean!D15,acc_mean!D19)</f>
+        <v>-0.12196035242290704</v>
+      </c>
+      <c r="Q7" s="54">
+        <f>acc_mean!E7-MAX(acc_mean!E7,acc_mean!E11,acc_mean!E15,acc_mean!E19)</f>
+        <v>-1.519823788546304E-2</v>
+      </c>
+      <c r="R7" s="54">
+        <f>acc_mean!F7-MAX(acc_mean!F7,acc_mean!F11,acc_mean!F15,acc_mean!F19)</f>
+        <v>-2.1497797356829107E-2</v>
+      </c>
+      <c r="S7" s="54">
+        <f>acc_mean!G7-MAX(acc_mean!G7,acc_mean!G11,acc_mean!G15,acc_mean!G19)</f>
+        <v>-1.715859030836997E-2</v>
+      </c>
+      <c r="T7" s="54">
+        <f>acc_mean!H7-MAX(acc_mean!H7,acc_mean!H11,acc_mean!H15,acc_mean!H19)</f>
+        <v>-2.9735682819382991E-2</v>
+      </c>
+      <c r="U7" s="54">
+        <f>acc_mean!I7-MAX(acc_mean!I7,acc_mean!I11,acc_mean!I15,acc_mean!I19)</f>
+        <v>-0.17541850220264299</v>
+      </c>
+      <c r="V7" s="54">
+        <f>acc_mean!J7-MAX(acc_mean!J7,acc_mean!J11,acc_mean!J15,acc_mean!J19)</f>
+        <v>-0.125859030837004</v>
+      </c>
+      <c r="W7" s="61">
+        <f>acc_mean!K7-MAX(acc_mean!K7,acc_mean!K11,acc_mean!K15,acc_mean!K19)</f>
+        <v>-6.0572687224670352E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="55">
+        <f>acc_mean!D8-MAX(acc_mean!D6,acc_mean!D8)</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="55">
+        <f>acc_mean!E8-MAX(acc_mean!E6,acc_mean!E8)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="55">
+        <f>acc_mean!F8-MAX(acc_mean!F6,acc_mean!F8)</f>
+        <v>0</v>
+      </c>
+      <c r="G8" s="55">
+        <f>acc_mean!G8-MAX(acc_mean!G6,acc_mean!G8)</f>
+        <v>0</v>
+      </c>
+      <c r="H8" s="55">
+        <f>acc_mean!H8-MAX(acc_mean!H6,acc_mean!H8)</f>
+        <v>0</v>
+      </c>
+      <c r="I8" s="55">
+        <f>acc_mean!I8-MAX(acc_mean!I6,acc_mean!I8)</f>
+        <v>-7.0022026431717954E-2</v>
+      </c>
+      <c r="J8" s="55">
+        <f>acc_mean!J8-MAX(acc_mean!J6,acc_mean!J8)</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="55">
+        <f>acc_mean!K8-MAX(acc_mean!K6,acc_mean!K8)</f>
+        <v>-7.8854625550660584E-3</v>
+      </c>
+      <c r="M8" s="5"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P8" s="55">
+        <f>acc_mean!D8-MAX(acc_mean!D8,acc_mean!D12,acc_mean!D16,acc_mean!D20)</f>
+        <v>-0.103502202643172</v>
+      </c>
+      <c r="Q8" s="55">
+        <f>acc_mean!E8-MAX(acc_mean!E8,acc_mean!E12,acc_mean!E16,acc_mean!E20)</f>
+        <v>-2.3788546255509857E-3</v>
+      </c>
+      <c r="R8" s="55">
+        <f>acc_mean!F8-MAX(acc_mean!F8,acc_mean!F12,acc_mean!F16,acc_mean!F20)</f>
+        <v>-4.2665198237884949E-2</v>
+      </c>
+      <c r="S8" s="55">
+        <f>acc_mean!G8-MAX(acc_mean!G8,acc_mean!G12,acc_mean!G16,acc_mean!G20)</f>
+        <v>-2.1387665198237982E-2</v>
+      </c>
+      <c r="T8" s="55">
+        <f>acc_mean!H8-MAX(acc_mean!H8,acc_mean!H12,acc_mean!H16,acc_mean!H20)</f>
+        <v>-3.5440528634360979E-2</v>
+      </c>
+      <c r="U8" s="55">
+        <f>acc_mean!I8-MAX(acc_mean!I8,acc_mean!I12,acc_mean!I16,acc_mean!I20)</f>
+        <v>-0.13332599118942701</v>
+      </c>
+      <c r="V8" s="55">
+        <f>acc_mean!J8-MAX(acc_mean!J8,acc_mean!J12,acc_mean!J16,acc_mean!J20)</f>
+        <v>-0.14066079295154199</v>
+      </c>
+      <c r="W8" s="62">
+        <f>acc_mean!K8-MAX(acc_mean!K8,acc_mean!K12,acc_mean!K16,acc_mean!K20)</f>
+        <v>-3.9030837004405017E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="52">
+        <f>acc_mean!D9-MAX(acc_mean!D9,acc_mean!D11)</f>
+        <v>-1.5682819383259994E-2</v>
+      </c>
+      <c r="E9" s="52">
+        <f>acc_mean!E9-MAX(acc_mean!E9,acc_mean!E11)</f>
+        <v>-1.8281938325990232E-3</v>
+      </c>
+      <c r="F9" s="52">
+        <f>acc_mean!F9-MAX(acc_mean!F9,acc_mean!F11)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="52">
+        <f>acc_mean!G9-MAX(acc_mean!G9,acc_mean!G11)</f>
+        <v>-6.8061674008810247E-3</v>
+      </c>
+      <c r="H9" s="52">
+        <f>acc_mean!H9-MAX(acc_mean!H9,acc_mean!H11)</f>
+        <v>0</v>
+      </c>
+      <c r="I9" s="52">
+        <f>acc_mean!I9-MAX(acc_mean!I9,acc_mean!I11)</f>
+        <v>-0.77618942731277496</v>
+      </c>
+      <c r="J9" s="52">
+        <f>acc_mean!J9-MAX(acc_mean!J9,acc_mean!J11)</f>
+        <v>-5.3303964757709377E-3</v>
+      </c>
+      <c r="K9" s="52">
+        <f>acc_mean!K9-MAX(acc_mean!K9,acc_mean!K11)</f>
+        <v>0</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="57">
+        <f>acc_mean!D9-MAX(acc_mean!D5,acc_mean!D9,acc_mean!D13,acc_mean!D17)</f>
+        <v>-3.1497797356828006E-2</v>
+      </c>
+      <c r="Q9" s="57">
+        <f>acc_mean!E9-MAX(acc_mean!E5,acc_mean!E9,acc_mean!E13,acc_mean!E17)</f>
+        <v>-5.6585903083699929E-2</v>
+      </c>
+      <c r="R9" s="57">
+        <f>acc_mean!F9-MAX(acc_mean!F5,acc_mean!F9,acc_mean!F13,acc_mean!F17)</f>
+        <v>-4.3303964757708924E-2</v>
+      </c>
+      <c r="S9" s="57">
+        <f>acc_mean!G9-MAX(acc_mean!G5,acc_mean!G9,acc_mean!G13,acc_mean!G17)</f>
+        <v>-4.1255506607928982E-2</v>
+      </c>
+      <c r="T9" s="57">
+        <f>acc_mean!H9-MAX(acc_mean!H5,acc_mean!H9,acc_mean!H13,acc_mean!H17)</f>
+        <v>-2.9691629955947985E-2</v>
+      </c>
+      <c r="U9" s="57">
+        <f>acc_mean!I9-MAX(acc_mean!I5,acc_mean!I9,acc_mean!I13,acc_mean!I17)</f>
+        <v>-0.76165198237885401</v>
+      </c>
+      <c r="V9" s="57">
+        <f>acc_mean!J9-MAX(acc_mean!J5,acc_mean!J9,acc_mean!J13,acc_mean!J17)</f>
+        <v>-8.8766519823789691E-3</v>
+      </c>
+      <c r="W9" s="60">
+        <f>acc_mean!K9-MAX(acc_mean!K5,acc_mean!K9,acc_mean!K13,acc_mean!K17)</f>
+        <v>-3.6960352422907072E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="54">
+        <f>acc_mean!D10-MAX(acc_mean!D10,acc_mean!D12)</f>
+        <v>0</v>
+      </c>
+      <c r="E10" s="54">
+        <f>acc_mean!E10-MAX(acc_mean!E10,acc_mean!E12)</f>
+        <v>-2.3039647577092981E-2</v>
+      </c>
+      <c r="F10" s="54">
+        <f>acc_mean!F10-MAX(acc_mean!F10,acc_mean!F12)</f>
+        <v>-1.2334801762113989E-2</v>
+      </c>
+      <c r="G10" s="54">
+        <f>acc_mean!G10-MAX(acc_mean!G10,acc_mean!G12)</f>
+        <v>-1.7555066079296022E-2</v>
+      </c>
+      <c r="H10" s="54">
+        <f>acc_mean!H10-MAX(acc_mean!H10,acc_mean!H12)</f>
+        <v>-2.3700440528633959E-2</v>
+      </c>
+      <c r="I10" s="54">
+        <f>acc_mean!I10-MAX(acc_mean!I10,acc_mean!I12)</f>
+        <v>-0.79169603524229104</v>
+      </c>
+      <c r="J10" s="54">
+        <f>acc_mean!J10-MAX(acc_mean!J10,acc_mean!J12)</f>
+        <v>-8.3348017621144965E-2</v>
+      </c>
+      <c r="K10" s="54">
+        <f>acc_mean!K10-MAX(acc_mean!K10,acc_mean!K12)</f>
+        <v>-1.2951541850219961E-2</v>
+      </c>
+      <c r="M10" s="4"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P10" s="54">
+        <f>acc_mean!D10-MAX(acc_mean!D6,acc_mean!D10,acc_mean!D14,acc_mean!D18)</f>
+        <v>-4.0352422907489083E-2</v>
+      </c>
+      <c r="Q10" s="54">
+        <f>acc_mean!E10-MAX(acc_mean!E6,acc_mean!E10,acc_mean!E14,acc_mean!E18)</f>
+        <v>-3.5132158590308937E-2</v>
+      </c>
+      <c r="R10" s="54">
+        <f>acc_mean!F10-MAX(acc_mean!F6,acc_mean!F10,acc_mean!F14,acc_mean!F18)</f>
+        <v>-5.4229074889868056E-2</v>
+      </c>
+      <c r="S10" s="54">
+        <f>acc_mean!G10-MAX(acc_mean!G6,acc_mean!G10,acc_mean!G14,acc_mean!G18)</f>
+        <v>-3.0110132158590042E-2</v>
+      </c>
+      <c r="T10" s="54">
+        <f>acc_mean!H10-MAX(acc_mean!H6,acc_mean!H10,acc_mean!H14,acc_mean!H18)</f>
+        <v>-4.4977973568281926E-2</v>
+      </c>
+      <c r="U10" s="54">
+        <f>acc_mean!I10-MAX(acc_mean!I6,acc_mean!I10,acc_mean!I14,acc_mean!I18)</f>
+        <v>-0.78665198237885503</v>
+      </c>
+      <c r="V10" s="54">
+        <f>acc_mean!J10-MAX(acc_mean!J6,acc_mean!J10,acc_mean!J14,acc_mean!J18)</f>
+        <v>-8.6189427312775013E-2</v>
+      </c>
+      <c r="W10" s="61">
+        <f>acc_mean!K10-MAX(acc_mean!K6,acc_mean!K10,acc_mean!K14,acc_mean!K18)</f>
+        <v>-2.9449339207048952E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="54">
+        <f>acc_mean!D11-MAX(acc_mean!D9,acc_mean!D11)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="54">
+        <f>acc_mean!E11-MAX(acc_mean!E9,acc_mean!E11)</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="54">
+        <f>acc_mean!F11-MAX(acc_mean!F9,acc_mean!F11)</f>
+        <v>-6.5418502202639894E-3</v>
+      </c>
+      <c r="G11" s="54">
+        <f>acc_mean!G11-MAX(acc_mean!G9,acc_mean!G11)</f>
+        <v>0</v>
+      </c>
+      <c r="H11" s="54">
+        <f>acc_mean!H11-MAX(acc_mean!H9,acc_mean!H11)</f>
+        <v>-8.1718061673999864E-3</v>
+      </c>
+      <c r="I11" s="54">
+        <f>acc_mean!I11-MAX(acc_mean!I9,acc_mean!I11)</f>
+        <v>0</v>
+      </c>
+      <c r="J11" s="54">
+        <f>acc_mean!J11-MAX(acc_mean!J9,acc_mean!J11)</f>
+        <v>0</v>
+      </c>
+      <c r="K11" s="54">
+        <f>acc_mean!K11-MAX(acc_mean!K9,acc_mean!K11)</f>
+        <v>-3.5022026431719144E-3</v>
+      </c>
+      <c r="M11" s="4"/>
+      <c r="N11" s="1">
+        <v>2</v>
+      </c>
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+      <c r="P11" s="54">
+        <f>acc_mean!D11-MAX(acc_mean!D7,acc_mean!D11,acc_mean!D15,acc_mean!D19)</f>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="54">
+        <f>acc_mean!E11-MAX(acc_mean!E7,acc_mean!E11,acc_mean!E15,acc_mean!E19)</f>
+        <v>0</v>
+      </c>
+      <c r="R11" s="54">
+        <f>acc_mean!F11-MAX(acc_mean!F7,acc_mean!F11,acc_mean!F15,acc_mean!F19)</f>
+        <v>0</v>
+      </c>
+      <c r="S11" s="54">
+        <f>acc_mean!G11-MAX(acc_mean!G7,acc_mean!G11,acc_mean!G15,acc_mean!G19)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="54">
+        <f>acc_mean!H11-MAX(acc_mean!H7,acc_mean!H11,acc_mean!H15,acc_mean!H19)</f>
+        <v>-4.9118942731269932E-3</v>
+      </c>
+      <c r="U11" s="54">
+        <f>acc_mean!I11-MAX(acc_mean!I7,acc_mean!I11,acc_mean!I15,acc_mean!I19)</f>
+        <v>0</v>
+      </c>
+      <c r="V11" s="54">
+        <f>acc_mean!J11-MAX(acc_mean!J7,acc_mean!J11,acc_mean!J15,acc_mean!J19)</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="61">
+        <f>acc_mean!K11-MAX(acc_mean!K7,acc_mean!K11,acc_mean!K15,acc_mean!K19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="55">
+        <f>acc_mean!D12-MAX(acc_mean!D10,acc_mean!D12)</f>
+        <v>-9.4052863436119294E-3</v>
+      </c>
+      <c r="E12" s="55">
+        <f>acc_mean!E12-MAX(acc_mean!E10,acc_mean!E12)</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="55">
+        <f>acc_mean!F12-MAX(acc_mean!F10,acc_mean!F12)</f>
+        <v>0</v>
+      </c>
+      <c r="G12" s="55">
+        <f>acc_mean!G12-MAX(acc_mean!G10,acc_mean!G12)</f>
+        <v>0</v>
+      </c>
+      <c r="H12" s="55">
+        <f>acc_mean!H12-MAX(acc_mean!H10,acc_mean!H12)</f>
+        <v>0</v>
+      </c>
+      <c r="I12" s="55">
+        <f>acc_mean!I12-MAX(acc_mean!I10,acc_mean!I12)</f>
+        <v>0</v>
+      </c>
+      <c r="J12" s="55">
+        <f>acc_mean!J12-MAX(acc_mean!J10,acc_mean!J12)</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="55">
+        <f>acc_mean!K12-MAX(acc_mean!K10,acc_mean!K12)</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="5"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P12" s="55">
+        <f>acc_mean!D12-MAX(acc_mean!D8,acc_mean!D12,acc_mean!D16,acc_mean!D20)</f>
+        <v>0</v>
+      </c>
+      <c r="Q12" s="55">
+        <f>acc_mean!E12-MAX(acc_mean!E8,acc_mean!E12,acc_mean!E16,acc_mean!E20)</f>
+        <v>-8.2599118942729977E-3</v>
+      </c>
+      <c r="R12" s="55">
+        <f>acc_mean!F12-MAX(acc_mean!F8,acc_mean!F12,acc_mean!F16,acc_mean!F20)</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="55">
+        <f>acc_mean!G12-MAX(acc_mean!G8,acc_mean!G12,acc_mean!G16,acc_mean!G20)</f>
+        <v>-9.1409691629950052E-3</v>
+      </c>
+      <c r="T12" s="55">
+        <f>acc_mean!H12-MAX(acc_mean!H8,acc_mean!H12,acc_mean!H16,acc_mean!H20)</f>
+        <v>-2.0110132158590033E-2</v>
+      </c>
+      <c r="U12" s="55">
+        <f>acc_mean!I12-MAX(acc_mean!I8,acc_mean!I12,acc_mean!I16,acc_mean!I20)</f>
+        <v>0</v>
+      </c>
+      <c r="V12" s="55">
+        <f>acc_mean!J12-MAX(acc_mean!J8,acc_mean!J12,acc_mean!J16,acc_mean!J20)</f>
+        <v>0</v>
+      </c>
+      <c r="W12" s="62">
+        <f>acc_mean!K12-MAX(acc_mean!K8,acc_mean!K12,acc_mean!K16,acc_mean!K20)</f>
+        <v>-3.1938325991189842E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="52">
+        <f>acc_mean!D13-MAX(acc_mean!D13,acc_mean!D15)</f>
+        <v>0</v>
+      </c>
+      <c r="E13" s="52">
+        <f>acc_mean!E13-MAX(acc_mean!E13,acc_mean!E15)</f>
+        <v>0</v>
+      </c>
+      <c r="F13" s="52">
+        <f>acc_mean!F13-MAX(acc_mean!F13,acc_mean!F15)</f>
+        <v>0</v>
+      </c>
+      <c r="G13" s="52">
+        <f>acc_mean!G13-MAX(acc_mean!G13,acc_mean!G15)</f>
+        <v>0</v>
+      </c>
+      <c r="H13" s="52">
+        <f>acc_mean!H13-MAX(acc_mean!H13,acc_mean!H15)</f>
+        <v>0</v>
+      </c>
+      <c r="I13" s="52">
+        <f>acc_mean!I13-MAX(acc_mean!I13,acc_mean!I15)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="52">
+        <f>acc_mean!J13-MAX(acc_mean!J13,acc_mean!J15)</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="52">
+        <f>acc_mean!K13-MAX(acc_mean!K13,acc_mean!K15)</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N13" s="3">
+        <v>1</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="57">
+        <f>acc_mean!D13-MAX(acc_mean!D5,acc_mean!D9,acc_mean!D13,acc_mean!D17)</f>
+        <v>0</v>
+      </c>
+      <c r="Q13" s="57">
+        <f>acc_mean!E13-MAX(acc_mean!E5,acc_mean!E9,acc_mean!E13,acc_mean!E17)</f>
+        <v>-2.3854625550660979E-2</v>
+      </c>
+      <c r="R13" s="57">
+        <f>acc_mean!F13-MAX(acc_mean!F5,acc_mean!F9,acc_mean!F13,acc_mean!F17)</f>
+        <v>0</v>
+      </c>
+      <c r="S13" s="57">
+        <f>acc_mean!G13-MAX(acc_mean!G5,acc_mean!G9,acc_mean!G13,acc_mean!G17)</f>
+        <v>-1.0814977973568007E-2</v>
+      </c>
+      <c r="T13" s="57">
+        <f>acc_mean!H13-MAX(acc_mean!H5,acc_mean!H9,acc_mean!H13,acc_mean!H17)</f>
+        <v>0</v>
+      </c>
+      <c r="U13" s="57">
+        <f>acc_mean!I13-MAX(acc_mean!I5,acc_mean!I9,acc_mean!I13,acc_mean!I17)</f>
+        <v>0</v>
+      </c>
+      <c r="V13" s="57">
+        <f>acc_mean!J13-MAX(acc_mean!J5,acc_mean!J9,acc_mean!J13,acc_mean!J17)</f>
+        <v>0</v>
+      </c>
+      <c r="W13" s="60">
+        <f>acc_mean!K13-MAX(acc_mean!K5,acc_mean!K9,acc_mean!K13,acc_mean!K17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="54">
+        <f>acc_mean!D14-MAX(acc_mean!D14,acc_mean!D16)</f>
+        <v>0</v>
+      </c>
+      <c r="E14" s="54">
+        <f>acc_mean!E14-MAX(acc_mean!E14,acc_mean!E16)</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="54">
+        <f>acc_mean!F14-MAX(acc_mean!F14,acc_mean!F16)</f>
+        <v>0</v>
+      </c>
+      <c r="G14" s="54">
+        <f>acc_mean!G14-MAX(acc_mean!G14,acc_mean!G16)</f>
+        <v>0</v>
+      </c>
+      <c r="H14" s="54">
+        <f>acc_mean!H14-MAX(acc_mean!H14,acc_mean!H16)</f>
+        <v>0</v>
+      </c>
+      <c r="I14" s="54">
+        <f>acc_mean!I14-MAX(acc_mean!I14,acc_mean!I16)</f>
+        <v>0</v>
+      </c>
+      <c r="J14" s="54">
+        <f>acc_mean!J14-MAX(acc_mean!J14,acc_mean!J16)</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="54">
+        <f>acc_mean!K14-MAX(acc_mean!K14,acc_mean!K16)</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="4"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P14" s="54">
+        <f>acc_mean!D14-MAX(acc_mean!D6,acc_mean!D10,acc_mean!D14,acc_mean!D18)</f>
+        <v>0</v>
+      </c>
+      <c r="Q14" s="54">
+        <f>acc_mean!E14-MAX(acc_mean!E6,acc_mean!E10,acc_mean!E14,acc_mean!E18)</f>
+        <v>0</v>
+      </c>
+      <c r="R14" s="54">
+        <f>acc_mean!F14-MAX(acc_mean!F6,acc_mean!F10,acc_mean!F14,acc_mean!F18)</f>
+        <v>0</v>
+      </c>
+      <c r="S14" s="54">
+        <f>acc_mean!G14-MAX(acc_mean!G6,acc_mean!G10,acc_mean!G14,acc_mean!G18)</f>
+        <v>-1.4867841409690996E-2</v>
+      </c>
+      <c r="T14" s="54">
+        <f>acc_mean!H14-MAX(acc_mean!H6,acc_mean!H10,acc_mean!H14,acc_mean!H18)</f>
+        <v>-7.7753303964759324E-3</v>
+      </c>
+      <c r="U14" s="54">
+        <f>acc_mean!I14-MAX(acc_mean!I6,acc_mean!I10,acc_mean!I14,acc_mean!I18)</f>
+        <v>0</v>
+      </c>
+      <c r="V14" s="54">
+        <f>acc_mean!J14-MAX(acc_mean!J6,acc_mean!J10,acc_mean!J14,acc_mean!J18)</f>
+        <v>0</v>
+      </c>
+      <c r="W14" s="61">
+        <f>acc_mean!K14-MAX(acc_mean!K6,acc_mean!K10,acc_mean!K14,acc_mean!K18)</f>
+        <v>-4.4493392070490412E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="54">
+        <f>acc_mean!D15-MAX(acc_mean!D13,acc_mean!D15)</f>
+        <v>-0.29925110132158494</v>
+      </c>
+      <c r="E15" s="54">
+        <f>acc_mean!E15-MAX(acc_mean!E13,acc_mean!E15)</f>
+        <v>-0.40577092511013202</v>
+      </c>
+      <c r="F15" s="54">
+        <f>acc_mean!F15-MAX(acc_mean!F13,acc_mean!F15)</f>
+        <v>-0.44303964757709202</v>
+      </c>
+      <c r="G15" s="54">
+        <f>acc_mean!G15-MAX(acc_mean!G13,acc_mean!G15)</f>
+        <v>-0.34372246696035191</v>
+      </c>
+      <c r="H15" s="54">
+        <f>acc_mean!H15-MAX(acc_mean!H13,acc_mean!H15)</f>
+        <v>-0.34458149779735703</v>
+      </c>
+      <c r="I15" s="54">
+        <f>acc_mean!I15-MAX(acc_mean!I13,acc_mean!I15)</f>
+        <v>-0.31704845814978</v>
+      </c>
+      <c r="J15" s="54">
+        <f>acc_mean!J15-MAX(acc_mean!J13,acc_mean!J15)</f>
+        <v>-0.322863436123348</v>
+      </c>
+      <c r="K15" s="54">
+        <f>acc_mean!K15-MAX(acc_mean!K13,acc_mean!K15)</f>
+        <v>-0.37314977973568308</v>
+      </c>
+      <c r="M15" s="4"/>
+      <c r="N15" s="1">
+        <v>2</v>
+      </c>
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+      <c r="P15" s="54">
+        <f>acc_mean!D15-MAX(acc_mean!D7,acc_mean!D11,acc_mean!D15,acc_mean!D19)</f>
+        <v>-0.28343612334801693</v>
+      </c>
+      <c r="Q15" s="54">
+        <f>acc_mean!E15-MAX(acc_mean!E7,acc_mean!E11,acc_mean!E15,acc_mean!E19)</f>
+        <v>-0.37486784140969209</v>
+      </c>
+      <c r="R15" s="54">
+        <f>acc_mean!F15-MAX(acc_mean!F7,acc_mean!F11,acc_mean!F15,acc_mean!F19)</f>
+        <v>-0.39319383259911911</v>
+      </c>
+      <c r="S15" s="54">
+        <f>acc_mean!G15-MAX(acc_mean!G7,acc_mean!G11,acc_mean!G15,acc_mean!G19)</f>
+        <v>-0.32008810572687196</v>
+      </c>
+      <c r="T15" s="54">
+        <f>acc_mean!H15-MAX(acc_mean!H7,acc_mean!H11,acc_mean!H15,acc_mean!H19)</f>
+        <v>-0.31162995594713605</v>
+      </c>
+      <c r="U15" s="54">
+        <f>acc_mean!I15-MAX(acc_mean!I7,acc_mean!I11,acc_mean!I15,acc_mean!I19)</f>
+        <v>-0.33158590308370095</v>
+      </c>
+      <c r="V15" s="54">
+        <f>acc_mean!J15-MAX(acc_mean!J7,acc_mean!J11,acc_mean!J15,acc_mean!J19)</f>
+        <v>-0.31931718061673997</v>
+      </c>
+      <c r="W15" s="61">
+        <f>acc_mean!K15-MAX(acc_mean!K7,acc_mean!K11,acc_mean!K15,acc_mean!K19)</f>
+        <v>-0.3326872246696041</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="55">
+        <f>acc_mean!D16-MAX(acc_mean!D14,acc_mean!D16)</f>
+        <v>-0.3277312775330391</v>
+      </c>
+      <c r="E16" s="55">
+        <f>acc_mean!E16-MAX(acc_mean!E14,acc_mean!E16)</f>
+        <v>-0.35378854625550704</v>
+      </c>
+      <c r="F16" s="55">
+        <f>acc_mean!F16-MAX(acc_mean!F14,acc_mean!F16)</f>
+        <v>-0.37405286343612398</v>
+      </c>
+      <c r="G16" s="55">
+        <f>acc_mean!G16-MAX(acc_mean!G14,acc_mean!G16)</f>
+        <v>-0.27506607929515403</v>
+      </c>
+      <c r="H16" s="55">
+        <f>acc_mean!H16-MAX(acc_mean!H14,acc_mean!H16)</f>
+        <v>-0.34927312775330399</v>
+      </c>
+      <c r="I16" s="55">
+        <f>acc_mean!I16-MAX(acc_mean!I14,acc_mean!I16)</f>
+        <v>-0.29700440528634298</v>
+      </c>
+      <c r="J16" s="55">
+        <f>acc_mean!J16-MAX(acc_mean!J14,acc_mean!J16)</f>
+        <v>-0.35491189427312808</v>
+      </c>
+      <c r="K16" s="55">
+        <f>acc_mean!K16-MAX(acc_mean!K14,acc_mean!K16)</f>
+        <v>-0.28746696035242292</v>
+      </c>
+      <c r="M16" s="5"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P16" s="55">
+        <f>acc_mean!D16-MAX(acc_mean!D8,acc_mean!D12,acc_mean!D16,acc_mean!D20)</f>
+        <v>-0.27797356828193809</v>
+      </c>
+      <c r="Q16" s="55">
+        <f>acc_mean!E16-MAX(acc_mean!E8,acc_mean!E12,acc_mean!E16,acc_mean!E20)</f>
+        <v>-0.34995594713656408</v>
+      </c>
+      <c r="R16" s="55">
+        <f>acc_mean!F16-MAX(acc_mean!F8,acc_mean!F12,acc_mean!F16,acc_mean!F20)</f>
+        <v>-0.33215859030836992</v>
+      </c>
+      <c r="S16" s="55">
+        <f>acc_mean!G16-MAX(acc_mean!G8,acc_mean!G12,acc_mean!G16,acc_mean!G20)</f>
+        <v>-0.28651982378854601</v>
+      </c>
+      <c r="T16" s="55">
+        <f>acc_mean!H16-MAX(acc_mean!H8,acc_mean!H12,acc_mean!H16,acc_mean!H20)</f>
+        <v>-0.35588105726872199</v>
+      </c>
+      <c r="U16" s="55">
+        <f>acc_mean!I16-MAX(acc_mean!I8,acc_mean!I12,acc_mean!I16,acc_mean!I20)</f>
+        <v>-0.30204845814977899</v>
+      </c>
+      <c r="V16" s="55">
+        <f>acc_mean!J16-MAX(acc_mean!J8,acc_mean!J12,acc_mean!J16,acc_mean!J20)</f>
+        <v>-0.35207048458149803</v>
+      </c>
+      <c r="W16" s="62">
+        <f>acc_mean!K16-MAX(acc_mean!K8,acc_mean!K12,acc_mean!K16,acc_mean!K20)</f>
+        <v>-0.27861233480176195</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="52">
+        <f>acc_mean!D17-MAX(acc_mean!D17,acc_mean!D19)</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="52">
+        <f>acc_mean!E17-MAX(acc_mean!E17,acc_mean!E19)</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="52">
+        <f>acc_mean!F17-MAX(acc_mean!F17,acc_mean!F19)</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="52">
+        <f>acc_mean!G17-MAX(acc_mean!G17,acc_mean!G19)</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="52">
+        <f>acc_mean!H17-MAX(acc_mean!H17,acc_mean!H19)</f>
+        <v>-5.5550660792951012E-2</v>
+      </c>
+      <c r="I17" s="52">
+        <f>acc_mean!I17-MAX(acc_mean!I17,acc_mean!I19)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="52">
+        <f>acc_mean!J17-MAX(acc_mean!J17,acc_mean!J19)</f>
+        <v>-0.28024229074889906</v>
+      </c>
+      <c r="K17" s="52">
+        <f>acc_mean!K17-MAX(acc_mean!K17,acc_mean!K19)</f>
+        <v>-1.431718061674081E-3</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1</v>
+      </c>
+      <c r="O17" s="1">
+        <v>1</v>
+      </c>
+      <c r="P17" s="57">
+        <f>acc_mean!D17-MAX(acc_mean!D5,acc_mean!D9,acc_mean!D13,acc_mean!D17)</f>
+        <v>-3.2907488986783973E-2</v>
+      </c>
+      <c r="Q17" s="57">
+        <f>acc_mean!E17-MAX(acc_mean!E5,acc_mean!E9,acc_mean!E13,acc_mean!E17)</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="57">
+        <f>acc_mean!F17-MAX(acc_mean!F5,acc_mean!F9,acc_mean!F13,acc_mean!F17)</f>
+        <v>-5.9140969162994939E-2</v>
+      </c>
+      <c r="S17" s="57">
+        <f>acc_mean!G17-MAX(acc_mean!G5,acc_mean!G9,acc_mean!G13,acc_mean!G17)</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="57">
+        <f>acc_mean!H17-MAX(acc_mean!H5,acc_mean!H9,acc_mean!H13,acc_mean!H17)</f>
+        <v>-8.850220264317199E-2</v>
+      </c>
+      <c r="U17" s="57">
+        <f>acc_mean!I17-MAX(acc_mean!I5,acc_mean!I9,acc_mean!I13,acc_mean!I17)</f>
+        <v>-4.9713656387665006E-2</v>
+      </c>
+      <c r="V17" s="57">
+        <f>acc_mean!J17-MAX(acc_mean!J5,acc_mean!J9,acc_mean!J13,acc_mean!J17)</f>
+        <v>-0.34555066079295205</v>
+      </c>
+      <c r="W17" s="60">
+        <f>acc_mean!K17-MAX(acc_mean!K5,acc_mean!K9,acc_mean!K13,acc_mean!K17)</f>
+        <v>-4.8656387665198086E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="54">
+        <f>acc_mean!D18-MAX(acc_mean!D18,acc_mean!D20)</f>
+        <v>-0.206938325991189</v>
+      </c>
+      <c r="E18" s="54">
+        <f>acc_mean!E18-MAX(acc_mean!E18,acc_mean!E20)</f>
+        <v>-2.1189427312775067E-2</v>
+      </c>
+      <c r="F18" s="54">
+        <f>acc_mean!F18-MAX(acc_mean!F18,acc_mean!F20)</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="54">
+        <f>acc_mean!G18-MAX(acc_mean!G18,acc_mean!G20)</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="54">
+        <f>acc_mean!H18-MAX(acc_mean!H18,acc_mean!H20)</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="54">
+        <f>acc_mean!I18-MAX(acc_mean!I18,acc_mean!I20)</f>
+        <v>-8.1497797356819834E-3</v>
+      </c>
+      <c r="J18" s="54">
+        <f>acc_mean!J18-MAX(acc_mean!J18,acc_mean!J20)</f>
+        <v>-9.9647577092511042E-2</v>
+      </c>
+      <c r="K18" s="54">
+        <f>acc_mean!K18-MAX(acc_mean!K18,acc_mean!K20)</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="4"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P18" s="54">
+        <f>acc_mean!D18-MAX(acc_mean!D6,acc_mean!D10,acc_mean!D14,acc_mean!D18)</f>
+        <v>-0.35211453744493304</v>
+      </c>
+      <c r="Q18" s="54">
+        <f>acc_mean!E18-MAX(acc_mean!E6,acc_mean!E10,acc_mean!E14,acc_mean!E18)</f>
+        <v>-2.5022026431718025E-2</v>
+      </c>
+      <c r="R18" s="54">
+        <f>acc_mean!F18-MAX(acc_mean!F6,acc_mean!F10,acc_mean!F14,acc_mean!F18)</f>
+        <v>-8.0330396475771004E-2</v>
+      </c>
+      <c r="S18" s="54">
+        <f>acc_mean!G18-MAX(acc_mean!G6,acc_mean!G10,acc_mean!G14,acc_mean!G18)</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="54">
+        <f>acc_mean!H18-MAX(acc_mean!H6,acc_mean!H10,acc_mean!H14,acc_mean!H18)</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="54">
+        <f>acc_mean!I18-MAX(acc_mean!I6,acc_mean!I10,acc_mean!I14,acc_mean!I18)</f>
+        <v>-2.9889867841409012E-2</v>
+      </c>
+      <c r="V18" s="54">
+        <f>acc_mean!J18-MAX(acc_mean!J6,acc_mean!J10,acc_mean!J14,acc_mean!J18)</f>
+        <v>-0.23482378854625607</v>
+      </c>
+      <c r="W18" s="61">
+        <f>acc_mean!K18-MAX(acc_mean!K6,acc_mean!K10,acc_mean!K14,acc_mean!K18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="54">
+        <f>acc_mean!D19-MAX(acc_mean!D17,acc_mean!D19)</f>
+        <v>-6.3325991189427056E-2</v>
+      </c>
+      <c r="E19" s="54">
+        <f>acc_mean!E19-MAX(acc_mean!E17,acc_mean!E19)</f>
+        <v>-6.156387665198193E-2</v>
+      </c>
+      <c r="F19" s="54">
+        <f>acc_mean!F19-MAX(acc_mean!F17,acc_mean!F19)</f>
+        <v>-3.6740088105727042E-2</v>
+      </c>
+      <c r="G19" s="54">
+        <f>acc_mean!G19-MAX(acc_mean!G17,acc_mean!G19)</f>
+        <v>-4.1718061674007934E-2</v>
+      </c>
+      <c r="H19" s="54">
+        <f>acc_mean!H19-MAX(acc_mean!H17,acc_mean!H19)</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="54">
+        <f>acc_mean!I19-MAX(acc_mean!I17,acc_mean!I19)</f>
+        <v>-1.8876651982379089E-2</v>
+      </c>
+      <c r="J19" s="54">
+        <f>acc_mean!J19-MAX(acc_mean!J17,acc_mean!J19)</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="54">
+        <f>acc_mean!K19-MAX(acc_mean!K17,acc_mean!K19)</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="4"/>
+      <c r="N19" s="1">
+        <v>2</v>
+      </c>
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+      <c r="P19" s="54">
+        <f>acc_mean!D19-MAX(acc_mean!D7,acc_mean!D11,acc_mean!D15,acc_mean!D19)</f>
+        <v>-8.0418502202643016E-2</v>
+      </c>
+      <c r="Q19" s="54">
+        <f>acc_mean!E19-MAX(acc_mean!E7,acc_mean!E11,acc_mean!E15,acc_mean!E19)</f>
+        <v>-6.8061674008810247E-3</v>
+      </c>
+      <c r="R19" s="54">
+        <f>acc_mean!F19-MAX(acc_mean!F7,acc_mean!F11,acc_mean!F15,acc_mean!F19)</f>
+        <v>-4.6035242290749068E-2</v>
+      </c>
+      <c r="S19" s="54">
+        <f>acc_mean!G19-MAX(acc_mean!G7,acc_mean!G11,acc_mean!G15,acc_mean!G19)</f>
+        <v>-7.2687224669599759E-3</v>
+      </c>
+      <c r="T19" s="54">
+        <f>acc_mean!H19-MAX(acc_mean!H7,acc_mean!H11,acc_mean!H15,acc_mean!H19)</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="54">
+        <f>acc_mean!I19-MAX(acc_mean!I7,acc_mean!I11,acc_mean!I15,acc_mean!I19)</f>
+        <v>-8.3127753303965046E-2</v>
+      </c>
+      <c r="V19" s="54">
+        <f>acc_mean!J19-MAX(acc_mean!J7,acc_mean!J11,acc_mean!J15,acc_mean!J19)</f>
+        <v>-6.1762114537444956E-2</v>
+      </c>
+      <c r="W19" s="61">
+        <f>acc_mean!K19-MAX(acc_mean!K7,acc_mean!K11,acc_mean!K15,acc_mean!K19)</f>
+        <v>-6.7621145374450187E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="55">
+        <f>acc_mean!D20-MAX(acc_mean!D18,acc_mean!D20)</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="55">
+        <f>acc_mean!E20-MAX(acc_mean!E18,acc_mean!E20)</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="55">
+        <f>acc_mean!F20-MAX(acc_mean!F18,acc_mean!F20)</f>
+        <v>-8.0176211453749646E-3</v>
+      </c>
+      <c r="G20" s="55">
+        <f>acc_mean!G20-MAX(acc_mean!G18,acc_mean!G20)</f>
+        <v>-3.4140969162990142E-3</v>
+      </c>
+      <c r="H20" s="55">
+        <f>acc_mean!H20-MAX(acc_mean!H18,acc_mean!H20)</f>
+        <v>-1.1674008810579339E-3</v>
+      </c>
+      <c r="I20" s="55">
+        <f>acc_mean!I20-MAX(acc_mean!I18,acc_mean!I20)</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="55">
+        <f>acc_mean!J20-MAX(acc_mean!J18,acc_mean!J20)</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="55">
+        <f>acc_mean!K20-MAX(acc_mean!K18,acc_mean!K20)</f>
+        <v>-1.3303964757710007E-2</v>
+      </c>
+      <c r="M20" s="5"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P20" s="55">
+        <f>acc_mean!D20-MAX(acc_mean!D8,acc_mean!D12,acc_mean!D16,acc_mean!D20)</f>
+        <v>-9.541850220264303E-2</v>
+      </c>
+      <c r="Q20" s="55">
+        <f>acc_mean!E20-MAX(acc_mean!E8,acc_mean!E12,acc_mean!E16,acc_mean!E20)</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="55">
+        <f>acc_mean!F20-MAX(acc_mean!F8,acc_mean!F12,acc_mean!F16,acc_mean!F20)</f>
+        <v>-4.6453744493391902E-2</v>
+      </c>
+      <c r="S20" s="55">
+        <f>acc_mean!G20-MAX(acc_mean!G8,acc_mean!G12,acc_mean!G16,acc_mean!G20)</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="55">
+        <f>acc_mean!H20-MAX(acc_mean!H8,acc_mean!H12,acc_mean!H16,acc_mean!H20)</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="55">
+        <f>acc_mean!I20-MAX(acc_mean!I8,acc_mean!I12,acc_mean!I16,acc_mean!I20)</f>
+        <v>-2.6784140969163039E-2</v>
+      </c>
+      <c r="V20" s="55">
+        <f>acc_mean!J20-MAX(acc_mean!J8,acc_mean!J12,acc_mean!J16,acc_mean!J20)</f>
+        <v>-0.13233480176211498</v>
+      </c>
+      <c r="W20" s="62">
+        <f>acc_mean!K20-MAX(acc_mean!K8,acc_mean!K12,acc_mean!K16,acc_mean!K20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M22" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="N22" s="65"/>
+      <c r="O22" s="65"/>
+      <c r="P22" s="65"/>
+      <c r="Q22" s="65"/>
+      <c r="R22" s="65"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="66"/>
+    </row>
+    <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M23" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="S23" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U23" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="V23" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="W23" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N24" s="3">
+        <v>1</v>
+      </c>
+      <c r="O24" s="3">
+        <v>1</v>
+      </c>
+      <c r="P24" s="52">
+        <f>acc_mean!D5-MAX(acc_mean!D5,acc_mean!D6)</f>
+        <v>-5.5066079295155002E-2</v>
+      </c>
+      <c r="Q24" s="52">
+        <f>acc_mean!E5-MAX(acc_mean!E5,acc_mean!E6)</f>
+        <v>-6.2555066079299504E-3</v>
+      </c>
+      <c r="R24" s="52">
+        <f>acc_mean!F5-MAX(acc_mean!F5,acc_mean!F6)</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="52">
+        <f>acc_mean!G5-MAX(acc_mean!G5,acc_mean!G6)</f>
+        <v>-1.6079295154185047E-2</v>
+      </c>
+      <c r="T24" s="52">
+        <f>acc_mean!H5-MAX(acc_mean!H5,acc_mean!H6)</f>
+        <v>-1.0176211453743922E-2</v>
+      </c>
+      <c r="U24" s="52">
+        <f>acc_mean!I5-MAX(acc_mean!I5,acc_mean!I6)</f>
+        <v>0</v>
+      </c>
+      <c r="V24" s="52">
+        <f>acc_mean!J5-MAX(acc_mean!J5,acc_mean!J6)</f>
+        <v>0</v>
+      </c>
+      <c r="W24" s="52">
+        <f>acc_mean!K5-MAX(acc_mean!K5,acc_mean!K6)</f>
+        <v>-1.9823788546250443E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M25" s="4"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P25" s="54">
+        <f>acc_mean!D6-MAX(acc_mean!D5,acc_mean!D6)</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="54">
+        <f>acc_mean!E6-MAX(acc_mean!E5,acc_mean!E6)</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="54">
+        <f>acc_mean!F6-MAX(acc_mean!F5,acc_mean!F6)</f>
+        <v>-3.1629955947135913E-2</v>
+      </c>
+      <c r="S25" s="54">
+        <f>acc_mean!G6-MAX(acc_mean!G5,acc_mean!G6)</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="54">
+        <f>acc_mean!H6-MAX(acc_mean!H5,acc_mean!H6)</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="54">
+        <f>acc_mean!I6-MAX(acc_mean!I5,acc_mean!I6)</f>
+        <v>-2.9823788546255003E-2</v>
+      </c>
+      <c r="V25" s="54">
+        <f>acc_mean!J6-MAX(acc_mean!J5,acc_mean!J6)</f>
+        <v>-9.4955947136563967E-2</v>
+      </c>
+      <c r="W25" s="54">
+        <f>acc_mean!K6-MAX(acc_mean!K5,acc_mean!K6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M26" s="4"/>
+      <c r="N26" s="1">
+        <v>2</v>
+      </c>
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+      <c r="P26" s="52">
+        <f>acc_mean!D7-MAX(acc_mean!D7,acc_mean!D8)</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="52">
+        <f>acc_mean!E7-MAX(acc_mean!E7,acc_mean!E8)</f>
+        <v>-4.5770925110132032E-2</v>
+      </c>
+      <c r="R26" s="52">
+        <f>acc_mean!F7-MAX(acc_mean!F7,acc_mean!F8)</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="52">
+        <f>acc_mean!G7-MAX(acc_mean!G7,acc_mean!G8)</f>
+        <v>-2.6123348017620951E-2</v>
+      </c>
+      <c r="T26" s="52">
+        <f>acc_mean!H7-MAX(acc_mean!H7,acc_mean!H8)</f>
+        <v>-3.5022026431718034E-2</v>
+      </c>
+      <c r="U26" s="52">
+        <f>acc_mean!I7-MAX(acc_mean!I7,acc_mean!I8)</f>
+        <v>-3.3281938325991023E-2</v>
+      </c>
+      <c r="V26" s="52">
+        <f>acc_mean!J7-MAX(acc_mean!J7,acc_mean!J8)</f>
+        <v>0</v>
+      </c>
+      <c r="W26" s="52">
+        <f>acc_mean!K7-MAX(acc_mean!K7,acc_mean!K8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M27" s="5"/>
+      <c r="N27" s="6"/>
+      <c r="O27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P27" s="54">
+        <f>acc_mean!D8-MAX(acc_mean!D7,acc_mean!D8)</f>
+        <v>-5.1101321585909076E-3</v>
+      </c>
+      <c r="Q27" s="54">
+        <f>acc_mean!E8-MAX(acc_mean!E7,acc_mean!E8)</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="54">
+        <f>acc_mean!F8-MAX(acc_mean!F7,acc_mean!F8)</f>
+        <v>-2.0264317180615943E-2</v>
+      </c>
+      <c r="S27" s="54">
+        <f>acc_mean!G8-MAX(acc_mean!G7,acc_mean!G8)</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="54">
+        <f>acc_mean!H8-MAX(acc_mean!H7,acc_mean!H8)</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="54">
+        <f>acc_mean!I8-MAX(acc_mean!I7,acc_mean!I8)</f>
+        <v>0</v>
+      </c>
+      <c r="V27" s="54">
+        <f>acc_mean!J8-MAX(acc_mean!J7,acc_mean!J8)</f>
+        <v>-2.4008810572689887E-3</v>
+      </c>
+      <c r="W27" s="54">
+        <f>acc_mean!K8-MAX(acc_mean!K7,acc_mean!K8)</f>
+        <v>-2.8634361233503824E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M28" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N28" s="3">
+        <v>1</v>
+      </c>
+      <c r="O28" s="3">
+        <v>1</v>
+      </c>
+      <c r="P28" s="52">
+        <f>acc_mean!D9-MAX(acc_mean!D9,acc_mean!D10)</f>
+        <v>-1.519823788545982E-3</v>
+      </c>
+      <c r="Q28" s="52">
+        <f>acc_mean!E9-MAX(acc_mean!E9,acc_mean!E10)</f>
+        <v>-3.4801762114530232E-3</v>
+      </c>
+      <c r="R28" s="52">
+        <f>acc_mean!F9-MAX(acc_mean!F9,acc_mean!F10)</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="52">
+        <f>acc_mean!G9-MAX(acc_mean!G9,acc_mean!G10)</f>
+        <v>-1.046255506607896E-2</v>
+      </c>
+      <c r="T28" s="52">
+        <f>acc_mean!H9-MAX(acc_mean!H9,acc_mean!H10)</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="52">
+        <f>acc_mean!I9-MAX(acc_mean!I9,acc_mean!I10)</f>
+        <v>0</v>
+      </c>
+      <c r="V28" s="52">
+        <f>acc_mean!J9-MAX(acc_mean!J9,acc_mean!J10)</f>
+        <v>0</v>
+      </c>
+      <c r="W28" s="52">
+        <f>acc_mean!K9-MAX(acc_mean!K9,acc_mean!K10)</f>
+        <v>-1.3039647577092084E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M29" s="4"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P29" s="54">
+        <f>acc_mean!D10-MAX(acc_mean!D9,acc_mean!D10)</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="54">
+        <f>acc_mean!E10-MAX(acc_mean!E9,acc_mean!E10)</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="54">
+        <f>acc_mean!F10-MAX(acc_mean!F9,acc_mean!F10)</f>
+        <v>-1.7973568281938079E-2</v>
+      </c>
+      <c r="S29" s="54">
+        <f>acc_mean!G10-MAX(acc_mean!G9,acc_mean!G10)</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="54">
+        <f>acc_mean!H10-MAX(acc_mean!H9,acc_mean!H10)</f>
+        <v>-6.3436123348009632E-3</v>
+      </c>
+      <c r="U29" s="54">
+        <f>acc_mean!I10-MAX(acc_mean!I9,acc_mean!I10)</f>
+        <v>-2.4317180616741013E-2</v>
+      </c>
+      <c r="V29" s="54">
+        <f>acc_mean!J10-MAX(acc_mean!J9,acc_mean!J10)</f>
+        <v>-6.561674008810503E-2</v>
+      </c>
+      <c r="W29" s="54">
+        <f>acc_mean!K10-MAX(acc_mean!K9,acc_mean!K10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M30" s="4"/>
+      <c r="N30" s="1">
+        <v>2</v>
+      </c>
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+      <c r="P30" s="52">
+        <f>acc_mean!D11-MAX(acc_mean!D11,acc_mean!D12)</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="52">
+        <f>acc_mean!E11-MAX(acc_mean!E11,acc_mean!E12)</f>
+        <v>-2.4691629955946981E-2</v>
+      </c>
+      <c r="R30" s="52">
+        <f>acc_mean!F11-MAX(acc_mean!F11,acc_mean!F12)</f>
+        <v>-9.0308370043989949E-4</v>
+      </c>
+      <c r="S30" s="52">
+        <f>acc_mean!G11-MAX(acc_mean!G11,acc_mean!G12)</f>
+        <v>-2.1211453744493958E-2</v>
+      </c>
+      <c r="T30" s="52">
+        <f>acc_mean!H11-MAX(acc_mean!H11,acc_mean!H12)</f>
+        <v>-2.5528634361232982E-2</v>
+      </c>
+      <c r="U30" s="52">
+        <f>acc_mean!I11-MAX(acc_mean!I11,acc_mean!I12)</f>
+        <v>0</v>
+      </c>
+      <c r="V30" s="52">
+        <f>acc_mean!J11-MAX(acc_mean!J11,acc_mean!J12)</f>
+        <v>-1.2400881057268998E-2</v>
+      </c>
+      <c r="W30" s="52">
+        <f>acc_mean!K11-MAX(acc_mean!K11,acc_mean!K12)</f>
+        <v>-2.9493392070483959E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M31" s="5"/>
+      <c r="N31" s="6"/>
+      <c r="O31" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P31" s="54">
+        <f>acc_mean!D12-MAX(acc_mean!D11,acc_mean!D12)</f>
+        <v>-2.3568281938325941E-2</v>
+      </c>
+      <c r="Q31" s="54">
+        <f>acc_mean!E12-MAX(acc_mean!E11,acc_mean!E12)</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="54">
+        <f>acc_mean!F12-MAX(acc_mean!F11,acc_mean!F12)</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="54">
+        <f>acc_mean!G12-MAX(acc_mean!G11,acc_mean!G12)</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="54">
+        <f>acc_mean!H12-MAX(acc_mean!H11,acc_mean!H12)</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="54">
+        <f>acc_mean!I12-MAX(acc_mean!I11,acc_mean!I12)</f>
+        <v>-8.8105726872249601E-3</v>
+      </c>
+      <c r="V31" s="54">
+        <f>acc_mean!J12-MAX(acc_mean!J11,acc_mean!J12)</f>
+        <v>0</v>
+      </c>
+      <c r="W31" s="54">
+        <f>acc_mean!K12-MAX(acc_mean!K11,acc_mean!K12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="M32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" s="3">
+        <v>1</v>
+      </c>
+      <c r="O32" s="3">
+        <v>1</v>
+      </c>
+      <c r="P32" s="52">
+        <f>acc_mean!D13-MAX(acc_mean!D13,acc_mean!D14)</f>
+        <v>-1.0374449339207059E-2</v>
+      </c>
+      <c r="Q32" s="52">
+        <f>acc_mean!E13-MAX(acc_mean!E13,acc_mean!E14)</f>
+        <v>-5.8810572687230112E-3</v>
+      </c>
+      <c r="R32" s="52">
+        <f>acc_mean!F13-MAX(acc_mean!F13,acc_mean!F14)</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="52">
+        <f>acc_mean!G13-MAX(acc_mean!G13,acc_mean!G14)</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="52">
+        <f>acc_mean!H13-MAX(acc_mean!H13,acc_mean!H14)</f>
+        <v>-1.1674008810570458E-3</v>
+      </c>
+      <c r="U32" s="52">
+        <f>acc_mean!I13-MAX(acc_mean!I13,acc_mean!I14)</f>
+        <v>-6.8281938325998048E-4</v>
+      </c>
+      <c r="V32" s="52">
+        <f>acc_mean!J13-MAX(acc_mean!J13,acc_mean!J14)</f>
+        <v>-1.1696035242291014E-2</v>
+      </c>
+      <c r="W32" s="52">
+        <f>acc_mean!K13-MAX(acc_mean!K13,acc_mean!K14)</f>
+        <v>-1.0792951541849227E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M33" s="4"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P33" s="54">
+        <f>acc_mean!D14-MAX(acc_mean!D13,acc_mean!D14)</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="54">
+        <f>acc_mean!E14-MAX(acc_mean!E13,acc_mean!E14)</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="54">
+        <f>acc_mean!F14-MAX(acc_mean!F13,acc_mean!F14)</f>
+        <v>-7.0484581497789467E-3</v>
+      </c>
+      <c r="S33" s="54">
+        <f>acc_mean!G14-MAX(acc_mean!G13,acc_mean!G14)</f>
+        <v>-4.7356828193829692E-3</v>
+      </c>
+      <c r="T33" s="54">
+        <f>acc_mean!H14-MAX(acc_mean!H13,acc_mean!H14)</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="54">
+        <f>acc_mean!I14-MAX(acc_mean!I13,acc_mean!I14)</f>
+        <v>0</v>
+      </c>
+      <c r="V33" s="54">
+        <f>acc_mean!J14-MAX(acc_mean!J13,acc_mean!J14)</f>
+        <v>0</v>
+      </c>
+      <c r="W33" s="54">
+        <f>acc_mean!K14-MAX(acc_mean!K13,acc_mean!K14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M34" s="4"/>
+      <c r="N34" s="1">
+        <v>2</v>
+      </c>
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+      <c r="P34" s="52">
+        <f>acc_mean!D15-MAX(acc_mean!D15,acc_mean!D16)</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="52">
+        <f>acc_mean!E15-MAX(acc_mean!E15,acc_mean!E16)</f>
+        <v>-5.7863436123347989E-2</v>
+      </c>
+      <c r="R34" s="52">
+        <f>acc_mean!F15-MAX(acc_mean!F15,acc_mean!F16)</f>
+        <v>-6.1938325991189092E-2</v>
+      </c>
+      <c r="S34" s="52">
+        <f>acc_mean!G15-MAX(acc_mean!G15,acc_mean!G16)</f>
+        <v>-6.3920704845814913E-2</v>
+      </c>
+      <c r="T34" s="52">
+        <f>acc_mean!H15-MAX(acc_mean!H15,acc_mean!H16)</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="52">
+        <f>acc_mean!I15-MAX(acc_mean!I15,acc_mean!I16)</f>
+        <v>-2.0726872246697003E-2</v>
+      </c>
+      <c r="V34" s="52">
+        <f>acc_mean!J15-MAX(acc_mean!J15,acc_mean!J16)</f>
+        <v>0</v>
+      </c>
+      <c r="W34" s="52">
+        <f>acc_mean!K15-MAX(acc_mean!K15,acc_mean!K16)</f>
+        <v>-8.676211453744509E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="13:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M35" s="5"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P35" s="54">
+        <f>acc_mean!D16-MAX(acc_mean!D15,acc_mean!D16)</f>
+        <v>-1.8105726872247097E-2</v>
+      </c>
+      <c r="Q35" s="54">
+        <f>acc_mean!E16-MAX(acc_mean!E15,acc_mean!E16)</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="54">
+        <f>acc_mean!F16-MAX(acc_mean!F15,acc_mean!F16)</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="54">
+        <f>acc_mean!G16-MAX(acc_mean!G15,acc_mean!G16)</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="54">
+        <f>acc_mean!H16-MAX(acc_mean!H15,acc_mean!H16)</f>
+        <v>-3.5242290748899174E-3</v>
+      </c>
+      <c r="U35" s="54">
+        <f>acc_mean!I16-MAX(acc_mean!I15,acc_mean!I16)</f>
+        <v>0</v>
+      </c>
+      <c r="V35" s="54">
+        <f>acc_mean!J16-MAX(acc_mean!J15,acc_mean!J16)</f>
+        <v>-2.0352422907489065E-2</v>
+      </c>
+      <c r="W35" s="54">
+        <f>acc_mean!K16-MAX(acc_mean!K15,acc_mean!K16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M36" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1</v>
+      </c>
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+      <c r="P36" s="52">
+        <f>acc_mean!D17-MAX(acc_mean!D17,acc_mean!D18)</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="52">
+        <f>acc_mean!E17-MAX(acc_mean!E17,acc_mean!E18)</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="52">
+        <f>acc_mean!F17-MAX(acc_mean!F17,acc_mean!F18)</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="52">
+        <f>acc_mean!G17-MAX(acc_mean!G17,acc_mean!G18)</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="52">
+        <f>acc_mean!H17-MAX(acc_mean!H17,acc_mean!H18)</f>
+        <v>-9.7444933920704968E-2</v>
+      </c>
+      <c r="U36" s="52">
+        <f>acc_mean!I17-MAX(acc_mean!I17,acc_mean!I18)</f>
+        <v>-2.0506607929515974E-2</v>
+      </c>
+      <c r="V36" s="52">
+        <f>acc_mean!J17-MAX(acc_mean!J17,acc_mean!J18)</f>
+        <v>-0.12242290748898699</v>
+      </c>
+      <c r="W36" s="52">
+        <f>acc_mean!K17-MAX(acc_mean!K17,acc_mean!K18)</f>
+        <v>-5.418502202643205E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M37" s="4"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P37" s="54">
+        <f>acc_mean!D18-MAX(acc_mean!D17,acc_mean!D18)</f>
+        <v>-0.30883259911894201</v>
+      </c>
+      <c r="Q37" s="54">
+        <f>acc_mean!E18-MAX(acc_mean!E17,acc_mean!E18)</f>
+        <v>-4.2995594713655994E-2</v>
+      </c>
+      <c r="R37" s="54">
+        <f>acc_mean!F18-MAX(acc_mean!F17,acc_mean!F18)</f>
+        <v>-2.8237885462555012E-2</v>
+      </c>
+      <c r="S37" s="54">
+        <f>acc_mean!G18-MAX(acc_mean!G17,acc_mean!G18)</f>
+        <v>-6.8281938325998048E-4</v>
+      </c>
+      <c r="T37" s="54">
+        <f>acc_mean!H18-MAX(acc_mean!H17,acc_mean!H18)</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="54">
+        <f>acc_mean!I18-MAX(acc_mean!I17,acc_mean!I18)</f>
+        <v>0</v>
+      </c>
+      <c r="V37" s="54">
+        <f>acc_mean!J18-MAX(acc_mean!J17,acc_mean!J18)</f>
+        <v>0</v>
+      </c>
+      <c r="W37" s="54">
+        <f>acc_mean!K18-MAX(acc_mean!K17,acc_mean!K18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="M38" s="4"/>
+      <c r="N38" s="1">
+        <v>2</v>
+      </c>
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+      <c r="P38" s="52">
+        <f>acc_mean!D19-MAX(acc_mean!D19,acc_mean!D20)</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="52">
+        <f>acc_mean!E19-MAX(acc_mean!E19,acc_mean!E20)</f>
+        <v>-3.9757709251101003E-2</v>
+      </c>
+      <c r="R38" s="52">
+        <f>acc_mean!F19-MAX(acc_mean!F19,acc_mean!F20)</f>
+        <v>-4.8458149779706527E-4</v>
+      </c>
+      <c r="S38" s="52">
+        <f>acc_mean!G19-MAX(acc_mean!G19,acc_mean!G20)</f>
+        <v>-3.7621145374448939E-2</v>
+      </c>
+      <c r="T38" s="52">
+        <f>acc_mean!H19-MAX(acc_mean!H19,acc_mean!H20)</f>
+        <v>-4.0726872246696022E-2</v>
+      </c>
+      <c r="U38" s="52">
+        <f>acc_mean!I19-MAX(acc_mean!I19,acc_mean!I20)</f>
+        <v>-4.7533039647577047E-2</v>
+      </c>
+      <c r="V38" s="52">
+        <f>acc_mean!J19-MAX(acc_mean!J19,acc_mean!J20)</f>
+        <v>0</v>
+      </c>
+      <c r="W38" s="52">
+        <f>acc_mean!K19-MAX(acc_mean!K19,acc_mean!K20)</f>
+        <v>-3.9449339207047962E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="13:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="M39" s="5"/>
+      <c r="N39" s="6"/>
+      <c r="O39" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="P39" s="54">
+        <f>acc_mean!D20-MAX(acc_mean!D19,acc_mean!D20)</f>
+        <v>-3.8568281938325955E-2</v>
+      </c>
+      <c r="Q39" s="54">
+        <f>acc_mean!E20-MAX(acc_mean!E19,acc_mean!E20)</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="54">
+        <f>acc_mean!F20-MAX(acc_mean!F19,acc_mean!F20)</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="54">
+        <f>acc_mean!G20-MAX(acc_mean!G19,acc_mean!G20)</f>
+        <v>0</v>
+      </c>
+      <c r="T39" s="54">
+        <f>acc_mean!H20-MAX(acc_mean!H19,acc_mean!H20)</f>
+        <v>0</v>
+      </c>
+      <c r="U39" s="54">
+        <f>acc_mean!I20-MAX(acc_mean!I19,acc_mean!I20)</f>
+        <v>0</v>
+      </c>
+      <c r="V39" s="54">
+        <f>acc_mean!J20-MAX(acc_mean!J19,acc_mean!J20)</f>
+        <v>-5.817180616740103E-2</v>
+      </c>
+      <c r="W39" s="54">
+        <f>acc_mean!K20-MAX(acc_mean!K19,acc_mean!K20)</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="M3:W3"/>
+    <mergeCell ref="M22:W22"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -6464,7 +7040,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7048,7 +7624,7 @@
         <v>3.1393010339116102E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -7058,96 +7634,164 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="74"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="75"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="77"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="74"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="77"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D29" s="16"/>
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="78"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
+      <c r="K29" s="79"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
@@ -7392,7 +8036,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7976,8 +8620,165 @@
         <v>0.95814977973568305</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="74"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="75"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="77"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="74"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="77"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="79"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -8162,7 +8963,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8746,7 +9547,7 @@
         <v>0.96982378854625595</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="16"/>
       <c r="E21" s="16"/>
       <c r="F21" s="16"/>
@@ -8756,96 +9557,164 @@
       <c r="J21" s="16"/>
       <c r="K21" s="16"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="16"/>
-      <c r="K22" s="16"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="16"/>
-      <c r="K23" s="16"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="16"/>
-      <c r="K24" s="16"/>
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="16"/>
-      <c r="K25" s="16"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="74"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="75"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="77"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="16"/>
-      <c r="K27" s="16"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
-      <c r="J28" s="16"/>
-      <c r="K28" s="16"/>
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="74"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="77"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D29" s="16"/>
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="78"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="16"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-      <c r="G30" s="16"/>
-      <c r="H30" s="16"/>
-      <c r="I30" s="16"/>
-      <c r="J30" s="16"/>
-      <c r="K30" s="16"/>
+      <c r="K29" s="79"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
@@ -9090,7 +9959,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9674,8 +10543,165 @@
         <v>244</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="74"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="75"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="77"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="74"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="77"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="79"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -9860,7 +10886,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10444,8 +11470,165 @@
         <v>126.2</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="74"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="75"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="77"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="74"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="77"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="79"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -10629,8 +11812,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F40056-F547-48DD-9331-37B657810592}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11214,8 +12397,165 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="74"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="75"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="77"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="74"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="77"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="79"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -11400,7 +12740,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:K20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11984,8 +13324,165 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="11"/>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="73"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="73"/>
+      <c r="J23" s="73"/>
+      <c r="K23" s="74"/>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="75"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="I24" s="76"/>
+      <c r="J24" s="76"/>
+      <c r="K24" s="77"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="73"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="73"/>
+      <c r="J25" s="73"/>
+      <c r="K25" s="74"/>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="75"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="76"/>
+      <c r="I26" s="76"/>
+      <c r="J26" s="76"/>
+      <c r="K26" s="77"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="73"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="73"/>
+      <c r="J27" s="73"/>
+      <c r="K27" s="74"/>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="75"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="76"/>
+      <c r="J28" s="76"/>
+      <c r="K28" s="77"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="78"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
+      <c r="G29" s="16"/>
+      <c r="H29" s="16"/>
+      <c r="I29" s="16"/>
+      <c r="J29" s="16"/>
+      <c r="K29" s="79"/>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="75"/>
+      <c r="E30" s="76"/>
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="I30" s="76"/>
+      <c r="J30" s="76"/>
+      <c r="K30" s="77"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -12170,7 +13667,7 @@
   <dimension ref="A1:P53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:P20"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/results_analysis/spark_wallFollow_01_hold_02.xlsx
+++ b/results_analysis/spark_wallFollow_01_hold_02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\matlab-mltool-fp\results_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11EEE2CB-EBFF-48D3-9FD7-7C8512E1057E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F737F7DA-249B-472A-B6ED-84B05DB2095E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -817,6 +817,30 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -842,30 +866,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1150,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N21" sqref="N21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1171,35 +1171,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="66"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -1803,28 +1803,60 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="74"/>
+      <c r="D23" s="63">
+        <v>0.49841409691630001</v>
+      </c>
+      <c r="E23" s="64">
+        <v>0.91632158590308399</v>
+      </c>
+      <c r="F23" s="64">
+        <v>0.78444933920704796</v>
+      </c>
+      <c r="G23" s="64">
+        <v>0.913898678414097</v>
+      </c>
+      <c r="H23" s="64">
+        <v>0.92112334801762097</v>
+      </c>
+      <c r="I23" s="64">
+        <v>0.92123348017621098</v>
+      </c>
+      <c r="J23" s="64">
+        <v>0.54698237885462597</v>
+      </c>
+      <c r="K23" s="65">
+        <v>0.91081497797356803</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="75"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
+      <c r="D24" s="66">
+        <v>0.79843612334801795</v>
+      </c>
+      <c r="E24" s="67">
+        <v>0.94154185022026404</v>
+      </c>
+      <c r="F24" s="67">
+        <v>0.88123348017621095</v>
+      </c>
+      <c r="G24" s="67">
+        <v>0.93039647577092499</v>
+      </c>
+      <c r="H24" s="67">
+        <v>0.92504405286343605</v>
+      </c>
+      <c r="I24" s="67">
+        <v>0.82138766519823803</v>
+      </c>
+      <c r="J24" s="67">
+        <v>0.73991189427312798</v>
+      </c>
+      <c r="K24" s="68">
+        <v>0.90321585903083701</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -1834,28 +1866,60 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="74"/>
+      <c r="D25" s="63">
+        <v>0.90623348017621097</v>
+      </c>
+      <c r="E25" s="64">
+        <v>0.91262114537444905</v>
+      </c>
+      <c r="F25" s="64">
+        <v>0.90927312775330404</v>
+      </c>
+      <c r="G25" s="64">
+        <v>0.92508810572687195</v>
+      </c>
+      <c r="H25" s="64">
+        <v>0.923017621145374</v>
+      </c>
+      <c r="I25" s="64">
+        <v>0.18733480176211501</v>
+      </c>
+      <c r="J25" s="64">
+        <v>0.86044052863436105</v>
+      </c>
+      <c r="K25" s="65">
+        <v>0.92581497797356804</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="77"/>
+      <c r="D26" s="66">
+        <v>0.92039647577092498</v>
+      </c>
+      <c r="E26" s="67">
+        <v>0.93566079295154203</v>
+      </c>
+      <c r="F26" s="67">
+        <v>0.90363436123347995</v>
+      </c>
+      <c r="G26" s="67">
+        <v>0.94264317180616797</v>
+      </c>
+      <c r="H26" s="67">
+        <v>0.940374449339207</v>
+      </c>
+      <c r="I26" s="67">
+        <v>0.96352422907488999</v>
+      </c>
+      <c r="J26" s="67">
+        <v>0.87817180616740098</v>
+      </c>
+      <c r="K26" s="68">
+        <v>0.938766519823788</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -1865,14 +1929,30 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="74"/>
+      <c r="D27" s="63">
+        <v>0.94658590308370005</v>
+      </c>
+      <c r="E27" s="64">
+        <v>0.94775330396475799</v>
+      </c>
+      <c r="F27" s="64">
+        <v>0.95257709251101297</v>
+      </c>
+      <c r="G27" s="64">
+        <v>0.94506607929515396</v>
+      </c>
+      <c r="H27" s="64">
+        <v>0.95387665198237903</v>
+      </c>
+      <c r="I27" s="64">
+        <v>0.94966960352422902</v>
+      </c>
+      <c r="J27" s="64">
+        <v>0.88101321585903103</v>
+      </c>
+      <c r="K27" s="65">
+        <v>0.95081497797356795</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -1880,14 +1960,30 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="77"/>
+      <c r="D28" s="66">
+        <v>0.63696035242290805</v>
+      </c>
+      <c r="E28" s="67">
+        <v>0.59396475770925095</v>
+      </c>
+      <c r="F28" s="67">
+        <v>0.57147577092511004</v>
+      </c>
+      <c r="G28" s="67">
+        <v>0.66526431718061696</v>
+      </c>
+      <c r="H28" s="67">
+        <v>0.60812775330396496</v>
+      </c>
+      <c r="I28" s="67">
+        <v>0.65266519823788605</v>
+      </c>
+      <c r="J28" s="67">
+        <v>0.54645374449339201</v>
+      </c>
+      <c r="K28" s="68">
+        <v>0.66334801762114504</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -1897,14 +1993,30 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="79"/>
+      <c r="D29" s="69">
+        <v>0.90330396475770902</v>
+      </c>
+      <c r="E29" s="16">
+        <v>0.96572687224669596</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0.89343612334801803</v>
+      </c>
+      <c r="G29" s="16">
+        <v>0.95588105726872197</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0.96165198237885496</v>
+      </c>
+      <c r="I29" s="16">
+        <v>0.91977973568282001</v>
+      </c>
+      <c r="J29" s="16">
+        <v>0.64618942731277496</v>
+      </c>
+      <c r="K29" s="70">
+        <v>0.955264317180617</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -1912,14 +2024,30 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="77"/>
+      <c r="D30" s="66">
+        <v>0.83997797356828197</v>
+      </c>
+      <c r="E30" s="67">
+        <v>0.94392070484581503</v>
+      </c>
+      <c r="F30" s="67">
+        <v>0.85718061674008805</v>
+      </c>
+      <c r="G30" s="67">
+        <v>0.95178414096916297</v>
+      </c>
+      <c r="H30" s="67">
+        <v>0.96048458149779703</v>
+      </c>
+      <c r="I30" s="67">
+        <v>0.92792951541850199</v>
+      </c>
+      <c r="J30" s="67">
+        <v>0.80400881057268703</v>
+      </c>
+      <c r="K30" s="68">
+        <v>0.94196035242290699</v>
+      </c>
     </row>
     <row r="40" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D40" s="10"/>
@@ -2093,61 +2221,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="71" t="s">
+      <c r="D3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="69"/>
-      <c r="F3" s="68" t="s">
+      <c r="E3" s="77"/>
+      <c r="F3" s="76" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="69"/>
-      <c r="H3" s="68" t="s">
+      <c r="G3" s="77"/>
+      <c r="H3" s="76" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="68" t="s">
+      <c r="I3" s="77"/>
+      <c r="J3" s="76" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="69"/>
-      <c r="L3" s="68" t="s">
+      <c r="K3" s="77"/>
+      <c r="L3" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="69"/>
-      <c r="N3" s="68" t="s">
+      <c r="M3" s="77"/>
+      <c r="N3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="69"/>
-      <c r="P3" s="68" t="s">
+      <c r="O3" s="77"/>
+      <c r="P3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="68" t="s">
+      <c r="Q3" s="77"/>
+      <c r="R3" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="70"/>
+      <c r="S3" s="78"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -3432,19 +3560,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4053,14 +4181,14 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="74"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
@@ -4068,14 +4196,14 @@
         <v>2</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="68"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -4085,14 +4213,14 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="74"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
@@ -4100,14 +4228,14 @@
         <v>2</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="77"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="68"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -4117,14 +4245,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="74"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="65"/>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -4132,14 +4260,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="77"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="68"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -4149,14 +4277,14 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="78"/>
+      <c r="D29" s="69"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="79"/>
+      <c r="K29" s="70"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -4164,14 +4292,14 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="77"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4197,19 +4325,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4818,14 +4946,14 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="74"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
@@ -4833,14 +4961,14 @@
         <v>2</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="68"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -4850,14 +4978,14 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="74"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
@@ -4865,14 +4993,14 @@
         <v>2</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="77"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="68"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -4882,14 +5010,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="74"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="65"/>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -4897,14 +5025,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="77"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="68"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -4914,14 +5042,14 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="78"/>
+      <c r="D29" s="69"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="79"/>
+      <c r="K29" s="70"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -4929,14 +5057,14 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="77"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4967,32 +5095,32 @@
   <sheetData>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="66"/>
-      <c r="M3" s="64" t="s">
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
+      <c r="K3" s="74"/>
+      <c r="M3" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="65"/>
-      <c r="O3" s="65"/>
-      <c r="P3" s="65"/>
-      <c r="Q3" s="65"/>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="66"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="73"/>
+      <c r="R3" s="73"/>
+      <c r="S3" s="73"/>
+      <c r="T3" s="73"/>
+      <c r="U3" s="73"/>
+      <c r="V3" s="73"/>
+      <c r="W3" s="74"/>
     </row>
     <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -6328,19 +6456,19 @@
     </row>
     <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M22" s="64" t="s">
+      <c r="M22" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="N22" s="65"/>
-      <c r="O22" s="65"/>
-      <c r="P22" s="65"/>
-      <c r="Q22" s="65"/>
-      <c r="R22" s="65"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="66"/>
+      <c r="N22" s="73"/>
+      <c r="O22" s="73"/>
+      <c r="P22" s="73"/>
+      <c r="Q22" s="73"/>
+      <c r="R22" s="73"/>
+      <c r="S22" s="73"/>
+      <c r="T22" s="73"/>
+      <c r="U22" s="73"/>
+      <c r="V22" s="73"/>
+      <c r="W22" s="74"/>
     </row>
     <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M23" s="2" t="s">
@@ -7040,7 +7168,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D23" sqref="D23:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7058,19 +7186,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -7675,28 +7803,60 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="74"/>
+      <c r="D23" s="63">
+        <v>0.23884944997374499</v>
+      </c>
+      <c r="E23" s="64">
+        <v>1.07277993972856E-2</v>
+      </c>
+      <c r="F23" s="64">
+        <v>7.5408300278419702E-2</v>
+      </c>
+      <c r="G23" s="64">
+        <v>2.6936854120277701E-2</v>
+      </c>
+      <c r="H23" s="64">
+        <v>3.2004749736985701E-2</v>
+      </c>
+      <c r="I23" s="64">
+        <v>6.1332281714432203E-2</v>
+      </c>
+      <c r="J23" s="64">
+        <v>0.17587869492456901</v>
+      </c>
+      <c r="K23" s="65">
+        <v>3.0333354694745601E-2</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="75"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
+      <c r="D24" s="66">
+        <v>5.9519971616641902E-2</v>
+      </c>
+      <c r="E24" s="67">
+        <v>2.26997432541006E-2</v>
+      </c>
+      <c r="F24" s="67">
+        <v>2.46461674568044E-2</v>
+      </c>
+      <c r="G24" s="67">
+        <v>3.0830535647647098E-2</v>
+      </c>
+      <c r="H24" s="67">
+        <v>2.95942230831551E-2</v>
+      </c>
+      <c r="I24" s="67">
+        <v>0.17696977827588301</v>
+      </c>
+      <c r="J24" s="67">
+        <v>9.2760298585291903E-2</v>
+      </c>
+      <c r="K24" s="68">
+        <v>2.9996625227153E-2</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -7706,28 +7866,60 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="74"/>
+      <c r="D25" s="63">
+        <v>3.1108872539195798E-2</v>
+      </c>
+      <c r="E25" s="64">
+        <v>1.8560106233257601E-2</v>
+      </c>
+      <c r="F25" s="64">
+        <v>2.75271555141729E-2</v>
+      </c>
+      <c r="G25" s="64">
+        <v>1.8525045335687301E-2</v>
+      </c>
+      <c r="H25" s="64">
+        <v>1.17796227402986E-2</v>
+      </c>
+      <c r="I25" s="64">
+        <v>0.17250308123069699</v>
+      </c>
+      <c r="J25" s="64">
+        <v>8.4236580540785699E-2</v>
+      </c>
+      <c r="K25" s="65">
+        <v>1.20499770411553E-2</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="77"/>
+      <c r="D26" s="66">
+        <v>1.4226036175609099E-2</v>
+      </c>
+      <c r="E26" s="67">
+        <v>2.1096740551400098E-2</v>
+      </c>
+      <c r="F26" s="67">
+        <v>4.9228760069118797E-2</v>
+      </c>
+      <c r="G26" s="67">
+        <v>1.6949446945551502E-2</v>
+      </c>
+      <c r="H26" s="67">
+        <v>1.92437157578558E-2</v>
+      </c>
+      <c r="I26" s="67">
+        <v>3.1032177267640601E-3</v>
+      </c>
+      <c r="J26" s="67">
+        <v>5.3307347497668203E-2</v>
+      </c>
+      <c r="K26" s="68">
+        <v>1.4401087013151801E-2</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -7737,14 +7929,30 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="74"/>
+      <c r="D27" s="63">
+        <v>1.40487467827845E-2</v>
+      </c>
+      <c r="E27" s="64">
+        <v>1.6654468421903101E-2</v>
+      </c>
+      <c r="F27" s="64">
+        <v>1.0754198359704901E-2</v>
+      </c>
+      <c r="G27" s="64">
+        <v>1.8514784897358499E-2</v>
+      </c>
+      <c r="H27" s="64">
+        <v>1.21601508571684E-2</v>
+      </c>
+      <c r="I27" s="64">
+        <v>1.7622445497803198E-2</v>
+      </c>
+      <c r="J27" s="64">
+        <v>4.8537602287533399E-2</v>
+      </c>
+      <c r="K27" s="65">
+        <v>8.8837210671498298E-3</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -7752,14 +7960,30 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="77"/>
+      <c r="D28" s="66">
+        <v>8.0548358267461706E-2</v>
+      </c>
+      <c r="E28" s="67">
+        <v>8.9137691111531997E-2</v>
+      </c>
+      <c r="F28" s="67">
+        <v>0.155553685161259</v>
+      </c>
+      <c r="G28" s="67">
+        <v>5.7857403065163397E-2</v>
+      </c>
+      <c r="H28" s="67">
+        <v>0.112409084017494</v>
+      </c>
+      <c r="I28" s="67">
+        <v>0.11026817102993</v>
+      </c>
+      <c r="J28" s="67">
+        <v>0.16587505179780701</v>
+      </c>
+      <c r="K28" s="68">
+        <v>0.111498484864825</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -7769,14 +7993,30 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="79"/>
+      <c r="D29" s="69">
+        <v>2.2918781809253101E-2</v>
+      </c>
+      <c r="E29" s="16">
+        <v>4.4067545277369398E-3</v>
+      </c>
+      <c r="F29" s="16">
+        <v>1.69031397662366E-2</v>
+      </c>
+      <c r="G29" s="16">
+        <v>1.03776730423781E-2</v>
+      </c>
+      <c r="H29" s="16">
+        <v>1.25692056986032E-2</v>
+      </c>
+      <c r="I29" s="16">
+        <v>5.0732864948233002E-2</v>
+      </c>
+      <c r="J29" s="16">
+        <v>9.8133682050271398E-2</v>
+      </c>
+      <c r="K29" s="70">
+        <v>1.67778671776075E-2</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -7784,14 +8024,30 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="77"/>
+      <c r="D30" s="66">
+        <v>2.5041823860690201E-2</v>
+      </c>
+      <c r="E30" s="67">
+        <v>1.7233311511275901E-2</v>
+      </c>
+      <c r="F30" s="67">
+        <v>4.43456010245711E-2</v>
+      </c>
+      <c r="G30" s="67">
+        <v>1.59793965218561E-2</v>
+      </c>
+      <c r="H30" s="67">
+        <v>9.32839537097193E-3</v>
+      </c>
+      <c r="I30" s="67">
+        <v>4.3246511527677299E-2</v>
+      </c>
+      <c r="J30" s="67">
+        <v>4.9596255452207701E-2</v>
+      </c>
+      <c r="K30" s="68">
+        <v>3.1393010339116102E-2</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
@@ -8054,19 +8310,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8662,28 +8918,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="74"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="75"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="68"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -8693,28 +8949,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="74"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="77"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="68"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -8724,14 +8980,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="74"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="65"/>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -8739,14 +8995,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="77"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="68"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -8756,14 +9012,14 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="78"/>
+      <c r="D29" s="69"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="79"/>
+      <c r="K29" s="70"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -8771,14 +9027,14 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="77"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -8981,19 +9237,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9598,28 +9854,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="74"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="64"/>
+      <c r="F23" s="64"/>
+      <c r="G23" s="64"/>
+      <c r="H23" s="64"/>
+      <c r="I23" s="64"/>
+      <c r="J23" s="64"/>
+      <c r="K23" s="65"/>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="75"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="67"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+      <c r="I24" s="67"/>
+      <c r="J24" s="67"/>
+      <c r="K24" s="68"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -9629,28 +9885,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="74"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="64"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64"/>
+      <c r="K25" s="65"/>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="77"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="67"/>
+      <c r="F26" s="67"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
+      <c r="I26" s="67"/>
+      <c r="J26" s="67"/>
+      <c r="K26" s="68"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -9660,14 +9916,14 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="74"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="65"/>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -9675,14 +9931,14 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="77"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="67"/>
+      <c r="F28" s="67"/>
+      <c r="G28" s="67"/>
+      <c r="H28" s="67"/>
+      <c r="I28" s="67"/>
+      <c r="J28" s="67"/>
+      <c r="K28" s="68"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -9692,14 +9948,14 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="78"/>
+      <c r="D29" s="69"/>
       <c r="E29" s="16"/>
       <c r="F29" s="16"/>
       <c r="G29" s="16"/>
       <c r="H29" s="16"/>
       <c r="I29" s="16"/>
       <c r="J29" s="16"/>
-      <c r="K29" s="79"/>
+      <c r="K29" s="70"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -9707,14 +9963,14 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="77"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="67"/>
+      <c r="F30" s="67"/>
+      <c r="G30" s="67"/>
+      <c r="H30" s="67"/>
+      <c r="I30" s="67"/>
+      <c r="J30" s="67"/>
+      <c r="K30" s="68"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D31" s="16"/>
@@ -9959,7 +10215,2109 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29">
+        <v>5</v>
+      </c>
+      <c r="E5" s="29">
+        <v>152</v>
+      </c>
+      <c r="F5" s="29">
+        <v>22</v>
+      </c>
+      <c r="G5" s="29">
+        <v>153</v>
+      </c>
+      <c r="H5" s="29">
+        <v>140</v>
+      </c>
+      <c r="I5" s="29">
+        <v>732</v>
+      </c>
+      <c r="J5" s="29">
+        <v>6</v>
+      </c>
+      <c r="K5" s="29">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="29">
+        <v>5</v>
+      </c>
+      <c r="E6" s="29">
+        <v>169</v>
+      </c>
+      <c r="F6" s="29">
+        <v>16</v>
+      </c>
+      <c r="G6" s="29">
+        <v>101</v>
+      </c>
+      <c r="H6" s="29">
+        <v>173</v>
+      </c>
+      <c r="I6" s="29">
+        <v>507</v>
+      </c>
+      <c r="J6" s="29">
+        <v>6</v>
+      </c>
+      <c r="K6" s="29">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="29">
+        <v>9</v>
+      </c>
+      <c r="E7" s="29">
+        <v>131</v>
+      </c>
+      <c r="F7" s="29">
+        <v>20</v>
+      </c>
+      <c r="G7" s="29">
+        <v>166</v>
+      </c>
+      <c r="H7" s="29">
+        <v>143</v>
+      </c>
+      <c r="I7" s="29">
+        <v>732</v>
+      </c>
+      <c r="J7" s="29">
+        <v>10</v>
+      </c>
+      <c r="K7" s="29">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="29">
+        <v>13</v>
+      </c>
+      <c r="E8" s="29">
+        <v>159</v>
+      </c>
+      <c r="F8" s="29">
+        <v>73</v>
+      </c>
+      <c r="G8" s="29">
+        <v>167</v>
+      </c>
+      <c r="H8" s="29">
+        <v>138</v>
+      </c>
+      <c r="I8" s="29">
+        <v>732</v>
+      </c>
+      <c r="J8" s="29">
+        <v>20</v>
+      </c>
+      <c r="K8" s="29">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="29">
+        <v>145</v>
+      </c>
+      <c r="E9" s="29">
+        <v>84</v>
+      </c>
+      <c r="F9" s="29">
+        <v>183</v>
+      </c>
+      <c r="G9" s="29">
+        <v>114</v>
+      </c>
+      <c r="H9" s="29">
+        <v>170</v>
+      </c>
+      <c r="I9" s="29">
+        <v>1</v>
+      </c>
+      <c r="J9" s="29">
+        <v>172</v>
+      </c>
+      <c r="K9" s="29">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="29">
+        <v>112</v>
+      </c>
+      <c r="E10" s="29">
+        <v>156</v>
+      </c>
+      <c r="F10" s="29">
+        <v>91</v>
+      </c>
+      <c r="G10" s="29">
+        <v>183</v>
+      </c>
+      <c r="H10" s="29">
+        <v>84</v>
+      </c>
+      <c r="I10" s="29">
+        <v>1</v>
+      </c>
+      <c r="J10" s="29">
+        <v>199</v>
+      </c>
+      <c r="K10" s="29">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="29">
+        <v>153</v>
+      </c>
+      <c r="E11" s="29">
+        <v>190</v>
+      </c>
+      <c r="F11" s="29">
+        <v>262</v>
+      </c>
+      <c r="G11" s="29">
+        <v>103</v>
+      </c>
+      <c r="H11" s="29">
+        <v>101</v>
+      </c>
+      <c r="I11" s="29">
+        <v>732</v>
+      </c>
+      <c r="J11" s="29">
+        <v>208</v>
+      </c>
+      <c r="K11" s="29">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="29">
+        <v>84</v>
+      </c>
+      <c r="E12" s="29">
+        <v>129</v>
+      </c>
+      <c r="F12" s="29">
+        <v>133</v>
+      </c>
+      <c r="G12" s="29">
+        <v>116</v>
+      </c>
+      <c r="H12" s="29">
+        <v>140</v>
+      </c>
+      <c r="I12" s="29">
+        <v>732</v>
+      </c>
+      <c r="J12" s="29">
+        <v>225</v>
+      </c>
+      <c r="K12" s="29">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="29">
+        <v>68</v>
+      </c>
+      <c r="E13" s="29">
+        <v>69</v>
+      </c>
+      <c r="F13" s="29">
+        <v>74</v>
+      </c>
+      <c r="G13" s="29">
+        <v>67</v>
+      </c>
+      <c r="H13" s="29">
+        <v>77</v>
+      </c>
+      <c r="I13" s="29">
+        <v>76</v>
+      </c>
+      <c r="J13" s="29">
+        <v>39</v>
+      </c>
+      <c r="K13" s="29">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="29">
+        <v>65</v>
+      </c>
+      <c r="E14" s="29">
+        <v>74</v>
+      </c>
+      <c r="F14" s="29">
+        <v>77</v>
+      </c>
+      <c r="G14" s="29">
+        <v>68</v>
+      </c>
+      <c r="H14" s="29">
+        <v>70</v>
+      </c>
+      <c r="I14" s="29">
+        <v>66</v>
+      </c>
+      <c r="J14" s="29">
+        <v>55</v>
+      </c>
+      <c r="K14" s="29">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="29">
+        <v>4</v>
+      </c>
+      <c r="E15" s="29">
+        <v>4</v>
+      </c>
+      <c r="F15" s="29">
+        <v>4</v>
+      </c>
+      <c r="G15" s="29">
+        <v>4</v>
+      </c>
+      <c r="H15" s="29">
+        <v>4</v>
+      </c>
+      <c r="I15" s="29">
+        <v>4</v>
+      </c>
+      <c r="J15" s="29">
+        <v>4</v>
+      </c>
+      <c r="K15" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="29">
+        <v>4</v>
+      </c>
+      <c r="E16" s="29">
+        <v>4</v>
+      </c>
+      <c r="F16" s="29">
+        <v>5</v>
+      </c>
+      <c r="G16" s="29">
+        <v>4</v>
+      </c>
+      <c r="H16" s="29">
+        <v>4</v>
+      </c>
+      <c r="I16" s="29">
+        <v>4</v>
+      </c>
+      <c r="J16" s="29">
+        <v>4</v>
+      </c>
+      <c r="K16" s="29">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="29">
+        <v>153</v>
+      </c>
+      <c r="E17" s="29">
+        <v>443</v>
+      </c>
+      <c r="F17" s="29">
+        <v>128</v>
+      </c>
+      <c r="G17" s="29">
+        <v>156</v>
+      </c>
+      <c r="H17" s="29">
+        <v>327</v>
+      </c>
+      <c r="I17" s="29">
+        <v>103</v>
+      </c>
+      <c r="J17" s="29">
+        <v>88</v>
+      </c>
+      <c r="K17" s="29">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="29">
+        <v>10</v>
+      </c>
+      <c r="E18" s="29">
+        <v>184</v>
+      </c>
+      <c r="F18" s="29">
+        <v>213</v>
+      </c>
+      <c r="G18" s="29">
+        <v>125</v>
+      </c>
+      <c r="H18" s="29">
+        <v>127</v>
+      </c>
+      <c r="I18" s="29">
+        <v>240</v>
+      </c>
+      <c r="J18" s="29">
+        <v>7</v>
+      </c>
+      <c r="K18" s="29">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="29">
+        <v>40</v>
+      </c>
+      <c r="E19" s="29">
+        <v>111</v>
+      </c>
+      <c r="F19" s="29">
+        <v>143</v>
+      </c>
+      <c r="G19" s="29">
+        <v>192</v>
+      </c>
+      <c r="H19" s="29">
+        <v>139</v>
+      </c>
+      <c r="I19" s="29">
+        <v>115</v>
+      </c>
+      <c r="J19" s="29">
+        <v>41</v>
+      </c>
+      <c r="K19" s="29">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="29">
+        <v>30</v>
+      </c>
+      <c r="E20" s="29">
+        <v>137</v>
+      </c>
+      <c r="F20" s="29">
+        <v>121</v>
+      </c>
+      <c r="G20" s="29">
+        <v>134</v>
+      </c>
+      <c r="H20" s="29">
+        <v>133</v>
+      </c>
+      <c r="I20" s="29">
+        <v>198</v>
+      </c>
+      <c r="J20" s="29">
+        <v>9</v>
+      </c>
+      <c r="K20" s="29">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="63">
+        <v>5</v>
+      </c>
+      <c r="E23" s="64">
+        <v>169</v>
+      </c>
+      <c r="F23" s="64">
+        <v>22</v>
+      </c>
+      <c r="G23" s="64">
+        <v>101</v>
+      </c>
+      <c r="H23" s="64">
+        <v>173</v>
+      </c>
+      <c r="I23" s="64">
+        <v>732</v>
+      </c>
+      <c r="J23" s="64">
+        <v>6</v>
+      </c>
+      <c r="K23" s="65">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="66">
+        <v>9</v>
+      </c>
+      <c r="E24" s="67">
+        <v>159</v>
+      </c>
+      <c r="F24" s="67">
+        <v>20</v>
+      </c>
+      <c r="G24" s="67">
+        <v>167</v>
+      </c>
+      <c r="H24" s="67">
+        <v>138</v>
+      </c>
+      <c r="I24" s="67">
+        <v>732</v>
+      </c>
+      <c r="J24" s="67">
+        <v>10</v>
+      </c>
+      <c r="K24" s="68">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="63">
+        <v>112</v>
+      </c>
+      <c r="E25" s="64">
+        <v>156</v>
+      </c>
+      <c r="F25" s="64">
+        <v>183</v>
+      </c>
+      <c r="G25" s="64">
+        <v>183</v>
+      </c>
+      <c r="H25" s="64">
+        <v>170</v>
+      </c>
+      <c r="I25" s="64">
+        <v>1</v>
+      </c>
+      <c r="J25" s="64">
+        <v>172</v>
+      </c>
+      <c r="K25" s="65">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="66">
+        <v>153</v>
+      </c>
+      <c r="E26" s="67">
+        <v>129</v>
+      </c>
+      <c r="F26" s="67">
+        <v>133</v>
+      </c>
+      <c r="G26" s="67">
+        <v>116</v>
+      </c>
+      <c r="H26" s="67">
+        <v>140</v>
+      </c>
+      <c r="I26" s="67">
+        <v>732</v>
+      </c>
+      <c r="J26" s="67">
+        <v>225</v>
+      </c>
+      <c r="K26" s="68">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="63">
+        <v>65</v>
+      </c>
+      <c r="E27" s="64">
+        <v>74</v>
+      </c>
+      <c r="F27" s="64">
+        <v>74</v>
+      </c>
+      <c r="G27" s="64">
+        <v>67</v>
+      </c>
+      <c r="H27" s="64">
+        <v>70</v>
+      </c>
+      <c r="I27" s="64">
+        <v>66</v>
+      </c>
+      <c r="J27" s="64">
+        <v>55</v>
+      </c>
+      <c r="K27" s="65">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="66">
+        <v>4</v>
+      </c>
+      <c r="E28" s="67">
+        <v>4</v>
+      </c>
+      <c r="F28" s="67">
+        <v>5</v>
+      </c>
+      <c r="G28" s="67">
+        <v>4</v>
+      </c>
+      <c r="H28" s="67">
+        <v>4</v>
+      </c>
+      <c r="I28" s="67">
+        <v>4</v>
+      </c>
+      <c r="J28" s="67">
+        <v>4</v>
+      </c>
+      <c r="K28" s="68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="69">
+        <v>153</v>
+      </c>
+      <c r="E29" s="16">
+        <v>443</v>
+      </c>
+      <c r="F29" s="16">
+        <v>128</v>
+      </c>
+      <c r="G29" s="16">
+        <v>156</v>
+      </c>
+      <c r="H29" s="16">
+        <v>127</v>
+      </c>
+      <c r="I29" s="16">
+        <v>240</v>
+      </c>
+      <c r="J29" s="16">
+        <v>7</v>
+      </c>
+      <c r="K29" s="70">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="66">
+        <v>40</v>
+      </c>
+      <c r="E30" s="67">
+        <v>137</v>
+      </c>
+      <c r="F30" s="67">
+        <v>121</v>
+      </c>
+      <c r="G30" s="67">
+        <v>134</v>
+      </c>
+      <c r="H30" s="67">
+        <v>133</v>
+      </c>
+      <c r="I30" s="67">
+        <v>198</v>
+      </c>
+      <c r="J30" s="67">
+        <v>41</v>
+      </c>
+      <c r="K30" s="68">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D696DEA4-1C6D-43BD-8BC6-2C617DFECF13}">
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="9" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="71" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+    </row>
+    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="19">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E5" s="19">
+        <v>103.2</v>
+      </c>
+      <c r="F5" s="19">
+        <v>16</v>
+      </c>
+      <c r="G5" s="19">
+        <v>86.9</v>
+      </c>
+      <c r="H5" s="19">
+        <v>104.7</v>
+      </c>
+      <c r="I5" s="19">
+        <v>467.9</v>
+      </c>
+      <c r="J5" s="19">
+        <v>6.2</v>
+      </c>
+      <c r="K5" s="19">
+        <v>95.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="4"/>
+      <c r="C6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="19">
+        <v>5.3</v>
+      </c>
+      <c r="E6" s="19">
+        <v>97.9</v>
+      </c>
+      <c r="F6" s="19">
+        <v>15.3</v>
+      </c>
+      <c r="G6" s="19">
+        <v>90.4</v>
+      </c>
+      <c r="H6" s="19">
+        <v>104.8</v>
+      </c>
+      <c r="I6" s="19">
+        <v>380.5</v>
+      </c>
+      <c r="J6" s="19">
+        <v>5.3</v>
+      </c>
+      <c r="K6" s="19">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="1">
+        <v>2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="19">
+        <v>15.5</v>
+      </c>
+      <c r="E7" s="19">
+        <v>78.3</v>
+      </c>
+      <c r="F7" s="19">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="G7" s="19">
+        <v>85.9</v>
+      </c>
+      <c r="H7" s="19">
+        <v>61.5</v>
+      </c>
+      <c r="I7" s="19">
+        <v>332</v>
+      </c>
+      <c r="J7" s="19">
+        <v>10</v>
+      </c>
+      <c r="K7" s="19">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="19">
+        <v>15.5</v>
+      </c>
+      <c r="E8" s="19">
+        <v>125.1</v>
+      </c>
+      <c r="F8" s="19">
+        <v>41.7</v>
+      </c>
+      <c r="G8" s="19">
+        <v>107.8</v>
+      </c>
+      <c r="H8" s="19">
+        <v>90.5</v>
+      </c>
+      <c r="I8" s="19">
+        <v>400.2</v>
+      </c>
+      <c r="J8" s="19">
+        <v>11.9</v>
+      </c>
+      <c r="K8" s="19">
+        <v>83.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="19">
+        <v>65.599999999999994</v>
+      </c>
+      <c r="E9" s="19">
+        <v>93</v>
+      </c>
+      <c r="F9" s="19">
+        <v>109.4</v>
+      </c>
+      <c r="G9" s="19">
+        <v>77.599999999999994</v>
+      </c>
+      <c r="H9" s="19">
+        <v>92.1</v>
+      </c>
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19">
+        <v>47.1</v>
+      </c>
+      <c r="K9" s="19">
+        <v>80.900000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="4"/>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="19">
+        <v>102.3</v>
+      </c>
+      <c r="E10" s="19">
+        <v>80.2</v>
+      </c>
+      <c r="F10" s="19">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="G10" s="19">
+        <v>93.3</v>
+      </c>
+      <c r="H10" s="19">
+        <v>73.3</v>
+      </c>
+      <c r="I10" s="19">
+        <v>1</v>
+      </c>
+      <c r="J10" s="19">
+        <v>71.099999999999994</v>
+      </c>
+      <c r="K10" s="19">
+        <v>94.4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1">
+        <v>2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="19">
+        <v>93.5</v>
+      </c>
+      <c r="E11" s="19">
+        <v>88.9</v>
+      </c>
+      <c r="F11" s="19">
+        <v>106.8</v>
+      </c>
+      <c r="G11" s="19">
+        <v>91.1</v>
+      </c>
+      <c r="H11" s="19">
+        <v>72.3</v>
+      </c>
+      <c r="I11" s="19">
+        <v>732</v>
+      </c>
+      <c r="J11" s="19">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="K11" s="19">
+        <v>88.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="19">
+        <v>66.900000000000006</v>
+      </c>
+      <c r="E12" s="19">
+        <v>76.2</v>
+      </c>
+      <c r="F12" s="19">
+        <v>85.8</v>
+      </c>
+      <c r="G12" s="19">
+        <v>95.7</v>
+      </c>
+      <c r="H12" s="19">
+        <v>77.5</v>
+      </c>
+      <c r="I12" s="19">
+        <v>732</v>
+      </c>
+      <c r="J12" s="19">
+        <v>105.6</v>
+      </c>
+      <c r="K12" s="19">
+        <v>86.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="19">
+        <v>55.8</v>
+      </c>
+      <c r="E13" s="19">
+        <v>63.9</v>
+      </c>
+      <c r="F13" s="19">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="G13" s="19">
+        <v>69.2</v>
+      </c>
+      <c r="H13" s="19">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="I13" s="19">
+        <v>70.900000000000006</v>
+      </c>
+      <c r="J13" s="19">
+        <v>32</v>
+      </c>
+      <c r="K13" s="19">
+        <v>69.900000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="C14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="19">
+        <v>64.5</v>
+      </c>
+      <c r="E14" s="19">
+        <v>67.2</v>
+      </c>
+      <c r="F14" s="19">
+        <v>71.5</v>
+      </c>
+      <c r="G14" s="19">
+        <v>62.6</v>
+      </c>
+      <c r="H14" s="19">
+        <v>66.5</v>
+      </c>
+      <c r="I14" s="19">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="J14" s="19">
+        <v>43.1</v>
+      </c>
+      <c r="K14" s="19">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1">
+        <v>1</v>
+      </c>
+      <c r="D15" s="19">
+        <v>4</v>
+      </c>
+      <c r="E15" s="19">
+        <v>4</v>
+      </c>
+      <c r="F15" s="19">
+        <v>4</v>
+      </c>
+      <c r="G15" s="19">
+        <v>4</v>
+      </c>
+      <c r="H15" s="19">
+        <v>4</v>
+      </c>
+      <c r="I15" s="19">
+        <v>4</v>
+      </c>
+      <c r="J15" s="19">
+        <v>4</v>
+      </c>
+      <c r="K15" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="5"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D16" s="19">
+        <v>4</v>
+      </c>
+      <c r="E16" s="19">
+        <v>4</v>
+      </c>
+      <c r="F16" s="19">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G16" s="19">
+        <v>4</v>
+      </c>
+      <c r="H16" s="19">
+        <v>4</v>
+      </c>
+      <c r="I16" s="19">
+        <v>4</v>
+      </c>
+      <c r="J16" s="19">
+        <v>4</v>
+      </c>
+      <c r="K16" s="19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="19">
+        <v>101.9</v>
+      </c>
+      <c r="E17" s="19">
+        <v>432.6</v>
+      </c>
+      <c r="F17" s="19">
+        <v>92.2</v>
+      </c>
+      <c r="G17" s="19">
+        <v>122.3</v>
+      </c>
+      <c r="H17" s="19">
+        <v>169.3</v>
+      </c>
+      <c r="I17" s="19">
+        <v>118.9</v>
+      </c>
+      <c r="J17" s="19">
+        <v>56.2</v>
+      </c>
+      <c r="K17" s="19">
+        <v>314.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="4"/>
+      <c r="C18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="19">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E18" s="19">
+        <v>114.8</v>
+      </c>
+      <c r="F18" s="19">
+        <v>86.7</v>
+      </c>
+      <c r="G18" s="19">
+        <v>118.8</v>
+      </c>
+      <c r="H18" s="19">
+        <v>127</v>
+      </c>
+      <c r="I18" s="19">
+        <v>165.9</v>
+      </c>
+      <c r="J18" s="19">
+        <v>28.2</v>
+      </c>
+      <c r="K18" s="19">
+        <v>156.80000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="1">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="19">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="E19" s="19">
+        <v>79.900000000000006</v>
+      </c>
+      <c r="F19" s="19">
+        <v>57.7</v>
+      </c>
+      <c r="G19" s="19">
+        <v>108.9</v>
+      </c>
+      <c r="H19" s="19">
+        <v>104.2</v>
+      </c>
+      <c r="I19" s="19">
+        <v>96.6</v>
+      </c>
+      <c r="J19" s="19">
+        <v>51.7</v>
+      </c>
+      <c r="K19" s="19">
+        <v>87.5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D20" s="19">
+        <v>25.4</v>
+      </c>
+      <c r="E20" s="19">
+        <v>119.6</v>
+      </c>
+      <c r="F20" s="19">
+        <v>60.7</v>
+      </c>
+      <c r="G20" s="19">
+        <v>118.8</v>
+      </c>
+      <c r="H20" s="19">
+        <v>123.5</v>
+      </c>
+      <c r="I20" s="19">
+        <v>133.6</v>
+      </c>
+      <c r="J20" s="19">
+        <v>11.1</v>
+      </c>
+      <c r="K20" s="19">
+        <v>126.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>1</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="63">
+        <v>5.3</v>
+      </c>
+      <c r="E23" s="64">
+        <v>97.9</v>
+      </c>
+      <c r="F23" s="64">
+        <v>16</v>
+      </c>
+      <c r="G23" s="64">
+        <v>90.4</v>
+      </c>
+      <c r="H23" s="64">
+        <v>104.8</v>
+      </c>
+      <c r="I23" s="64">
+        <v>467.9</v>
+      </c>
+      <c r="J23" s="64">
+        <v>6.2</v>
+      </c>
+      <c r="K23" s="65">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="4"/>
+      <c r="B24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="66">
+        <v>15.5</v>
+      </c>
+      <c r="E24" s="67">
+        <v>125.1</v>
+      </c>
+      <c r="F24" s="67">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="G24" s="67">
+        <v>107.8</v>
+      </c>
+      <c r="H24" s="67">
+        <v>90.5</v>
+      </c>
+      <c r="I24" s="67">
+        <v>400.2</v>
+      </c>
+      <c r="J24" s="67">
+        <v>10</v>
+      </c>
+      <c r="K24" s="68">
+        <v>75.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="63">
+        <v>102.3</v>
+      </c>
+      <c r="E25" s="64">
+        <v>80.2</v>
+      </c>
+      <c r="F25" s="64">
+        <v>109.4</v>
+      </c>
+      <c r="G25" s="64">
+        <v>93.3</v>
+      </c>
+      <c r="H25" s="64">
+        <v>92.1</v>
+      </c>
+      <c r="I25" s="64">
+        <v>1</v>
+      </c>
+      <c r="J25" s="64">
+        <v>47.1</v>
+      </c>
+      <c r="K25" s="65">
+        <v>94.4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4"/>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="66">
+        <v>93.5</v>
+      </c>
+      <c r="E26" s="67">
+        <v>76.2</v>
+      </c>
+      <c r="F26" s="67">
+        <v>85.8</v>
+      </c>
+      <c r="G26" s="67">
+        <v>95.7</v>
+      </c>
+      <c r="H26" s="67">
+        <v>77.5</v>
+      </c>
+      <c r="I26" s="67">
+        <v>732</v>
+      </c>
+      <c r="J26" s="67">
+        <v>105.6</v>
+      </c>
+      <c r="K26" s="68">
+        <v>86.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="3">
+        <v>1</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="63">
+        <v>64.5</v>
+      </c>
+      <c r="E27" s="64">
+        <v>67.2</v>
+      </c>
+      <c r="F27" s="64">
+        <v>67.099999999999994</v>
+      </c>
+      <c r="G27" s="64">
+        <v>69.2</v>
+      </c>
+      <c r="H27" s="64">
+        <v>66.5</v>
+      </c>
+      <c r="I27" s="64">
+        <v>70.099999999999994</v>
+      </c>
+      <c r="J27" s="64">
+        <v>43.1</v>
+      </c>
+      <c r="K27" s="65">
+        <v>67.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="6">
+        <v>2</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="66">
+        <v>4</v>
+      </c>
+      <c r="E28" s="67">
+        <v>4</v>
+      </c>
+      <c r="F28" s="67">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="G28" s="67">
+        <v>4</v>
+      </c>
+      <c r="H28" s="67">
+        <v>4</v>
+      </c>
+      <c r="I28" s="67">
+        <v>4</v>
+      </c>
+      <c r="J28" s="67">
+        <v>4</v>
+      </c>
+      <c r="K28" s="68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="69">
+        <v>101.9</v>
+      </c>
+      <c r="E29" s="16">
+        <v>432.6</v>
+      </c>
+      <c r="F29" s="16">
+        <v>92.2</v>
+      </c>
+      <c r="G29" s="16">
+        <v>122.3</v>
+      </c>
+      <c r="H29" s="16">
+        <v>127</v>
+      </c>
+      <c r="I29" s="16">
+        <v>165.9</v>
+      </c>
+      <c r="J29" s="16">
+        <v>28.2</v>
+      </c>
+      <c r="K29" s="70">
+        <v>156.80000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="6">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="66">
+        <v>66.099999999999994</v>
+      </c>
+      <c r="E30" s="67">
+        <v>119.6</v>
+      </c>
+      <c r="F30" s="67">
+        <v>60.7</v>
+      </c>
+      <c r="G30" s="67">
+        <v>118.8</v>
+      </c>
+      <c r="H30" s="67">
+        <v>123.5</v>
+      </c>
+      <c r="I30" s="67">
+        <v>133.6</v>
+      </c>
+      <c r="J30" s="67">
+        <v>51.7</v>
+      </c>
+      <c r="K30" s="68">
+        <v>126.2</v>
+      </c>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D38" s="10"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="10"/>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D44" s="10"/>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D47" s="10"/>
+      <c r="E47" s="10"/>
+      <c r="F47" s="10"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D48" s="10"/>
+      <c r="E48" s="10"/>
+      <c r="F48" s="10"/>
+      <c r="G48" s="10"/>
+      <c r="H48" s="10"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="10"/>
+      <c r="K48" s="10"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D49" s="10"/>
+      <c r="E49" s="10"/>
+      <c r="F49" s="10"/>
+      <c r="G49" s="10"/>
+      <c r="H49" s="10"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="10"/>
+      <c r="K49" s="10"/>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="10"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="10"/>
+      <c r="K50" s="10"/>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D51" s="10"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="10"/>
+      <c r="H51" s="10"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="10"/>
+      <c r="K51" s="10"/>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="10"/>
+      <c r="G52" s="10"/>
+      <c r="H52" s="10"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="10"/>
+      <c r="K52" s="10"/>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
+      <c r="D53" s="10"/>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="10"/>
+      <c r="H53" s="10"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="10"/>
+      <c r="K53" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:K1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F40056-F547-48DD-9331-37B657810592}">
+  <dimension ref="A1:K53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9977,19 +12335,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="A1" s="71" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10037,29 +12395,29 @@
       <c r="C5" s="3">
         <v>1</v>
       </c>
-      <c r="D5" s="29">
-        <v>5</v>
-      </c>
-      <c r="E5" s="29">
-        <v>152</v>
-      </c>
-      <c r="F5" s="29">
-        <v>22</v>
-      </c>
-      <c r="G5" s="29">
-        <v>153</v>
-      </c>
-      <c r="H5" s="29">
-        <v>140</v>
-      </c>
-      <c r="I5" s="29">
-        <v>732</v>
-      </c>
-      <c r="J5" s="29">
-        <v>6</v>
-      </c>
-      <c r="K5" s="29">
-        <v>108</v>
+      <c r="D5" s="19">
+        <v>1</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1</v>
+      </c>
+      <c r="F5" s="19">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
+        <v>1</v>
+      </c>
+      <c r="H5" s="19">
+        <v>1</v>
+      </c>
+      <c r="I5" s="19">
+        <v>1</v>
+      </c>
+      <c r="J5" s="19">
+        <v>1</v>
+      </c>
+      <c r="K5" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -10067,29 +12425,29 @@
       <c r="C6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="19">
+        <v>3</v>
+      </c>
+      <c r="E6" s="19">
+        <v>3</v>
+      </c>
+      <c r="F6" s="19">
+        <v>2</v>
+      </c>
+      <c r="G6" s="19">
+        <v>9</v>
+      </c>
+      <c r="H6" s="19">
+        <v>3</v>
+      </c>
+      <c r="I6" s="19">
         <v>5</v>
       </c>
-      <c r="E6" s="29">
-        <v>169</v>
-      </c>
-      <c r="F6" s="29">
-        <v>16</v>
-      </c>
-      <c r="G6" s="29">
-        <v>101</v>
-      </c>
-      <c r="H6" s="29">
-        <v>173</v>
-      </c>
-      <c r="I6" s="29">
-        <v>507</v>
-      </c>
-      <c r="J6" s="29">
-        <v>6</v>
-      </c>
-      <c r="K6" s="29">
-        <v>191</v>
+      <c r="J6" s="19">
+        <v>8</v>
+      </c>
+      <c r="K6" s="19">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -10100,29 +12458,29 @@
       <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" s="29">
-        <v>9</v>
-      </c>
-      <c r="E7" s="29">
-        <v>131</v>
-      </c>
-      <c r="F7" s="29">
-        <v>20</v>
-      </c>
-      <c r="G7" s="29">
-        <v>166</v>
-      </c>
-      <c r="H7" s="29">
-        <v>143</v>
-      </c>
-      <c r="I7" s="29">
-        <v>732</v>
-      </c>
-      <c r="J7" s="29">
-        <v>10</v>
-      </c>
-      <c r="K7" s="29">
-        <v>104</v>
+      <c r="D7" s="19">
+        <v>1</v>
+      </c>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19">
+        <v>1</v>
+      </c>
+      <c r="H7" s="19">
+        <v>1</v>
+      </c>
+      <c r="I7" s="19">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10131,29 +12489,29 @@
       <c r="C8" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="29">
-        <v>13</v>
-      </c>
-      <c r="E8" s="29">
-        <v>159</v>
-      </c>
-      <c r="F8" s="29">
-        <v>73</v>
-      </c>
-      <c r="G8" s="29">
-        <v>167</v>
-      </c>
-      <c r="H8" s="29">
-        <v>138</v>
-      </c>
-      <c r="I8" s="29">
-        <v>732</v>
-      </c>
-      <c r="J8" s="29">
-        <v>20</v>
-      </c>
-      <c r="K8" s="29">
-        <v>170</v>
+      <c r="D8" s="19">
+        <v>4</v>
+      </c>
+      <c r="E8" s="19">
+        <v>9</v>
+      </c>
+      <c r="F8" s="19">
+        <v>2</v>
+      </c>
+      <c r="G8" s="19">
+        <v>8</v>
+      </c>
+      <c r="H8" s="19">
+        <v>9</v>
+      </c>
+      <c r="I8" s="19">
+        <v>2</v>
+      </c>
+      <c r="J8" s="19">
+        <v>4</v>
+      </c>
+      <c r="K8" s="19">
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -10166,29 +12524,29 @@
       <c r="C9" s="3">
         <v>1</v>
       </c>
-      <c r="D9" s="29">
-        <v>145</v>
-      </c>
-      <c r="E9" s="29">
-        <v>84</v>
-      </c>
-      <c r="F9" s="29">
-        <v>183</v>
-      </c>
-      <c r="G9" s="29">
-        <v>114</v>
-      </c>
-      <c r="H9" s="29">
-        <v>170</v>
-      </c>
-      <c r="I9" s="29">
-        <v>1</v>
-      </c>
-      <c r="J9" s="29">
-        <v>172</v>
-      </c>
-      <c r="K9" s="29">
-        <v>57</v>
+      <c r="D9" s="19">
+        <v>1</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="19">
+        <v>1</v>
+      </c>
+      <c r="G9" s="19">
+        <v>1</v>
+      </c>
+      <c r="H9" s="19">
+        <v>1</v>
+      </c>
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="19">
+        <v>1</v>
+      </c>
+      <c r="K9" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -10196,29 +12554,29 @@
       <c r="C10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="29">
-        <v>112</v>
-      </c>
-      <c r="E10" s="29">
-        <v>156</v>
-      </c>
-      <c r="F10" s="29">
-        <v>91</v>
-      </c>
-      <c r="G10" s="29">
-        <v>183</v>
-      </c>
-      <c r="H10" s="29">
-        <v>84</v>
-      </c>
-      <c r="I10" s="29">
-        <v>1</v>
-      </c>
-      <c r="J10" s="29">
-        <v>199</v>
-      </c>
-      <c r="K10" s="29">
-        <v>156</v>
+      <c r="D10" s="19">
+        <v>4</v>
+      </c>
+      <c r="E10" s="19">
+        <v>9</v>
+      </c>
+      <c r="F10" s="19">
+        <v>6</v>
+      </c>
+      <c r="G10" s="19">
+        <v>7</v>
+      </c>
+      <c r="H10" s="19">
+        <v>3</v>
+      </c>
+      <c r="I10" s="19">
+        <v>8</v>
+      </c>
+      <c r="J10" s="19">
+        <v>3</v>
+      </c>
+      <c r="K10" s="19">
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -10229,29 +12587,29 @@
       <c r="C11" s="1">
         <v>1</v>
       </c>
-      <c r="D11" s="29">
-        <v>153</v>
-      </c>
-      <c r="E11" s="29">
-        <v>190</v>
-      </c>
-      <c r="F11" s="29">
-        <v>262</v>
-      </c>
-      <c r="G11" s="29">
-        <v>103</v>
-      </c>
-      <c r="H11" s="29">
-        <v>101</v>
-      </c>
-      <c r="I11" s="29">
-        <v>732</v>
-      </c>
-      <c r="J11" s="29">
-        <v>208</v>
-      </c>
-      <c r="K11" s="29">
-        <v>140</v>
+      <c r="D11" s="19">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="19">
+        <v>1</v>
+      </c>
+      <c r="G11" s="19">
+        <v>1</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1</v>
+      </c>
+      <c r="I11" s="19">
+        <v>1</v>
+      </c>
+      <c r="J11" s="19">
+        <v>1</v>
+      </c>
+      <c r="K11" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10260,29 +12618,29 @@
       <c r="C12" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D12" s="29">
-        <v>84</v>
-      </c>
-      <c r="E12" s="29">
-        <v>129</v>
-      </c>
-      <c r="F12" s="29">
-        <v>133</v>
-      </c>
-      <c r="G12" s="29">
-        <v>116</v>
-      </c>
-      <c r="H12" s="29">
-        <v>140</v>
-      </c>
-      <c r="I12" s="29">
-        <v>732</v>
-      </c>
-      <c r="J12" s="29">
-        <v>225</v>
-      </c>
-      <c r="K12" s="29">
-        <v>195</v>
+      <c r="D12" s="19">
+        <v>2</v>
+      </c>
+      <c r="E12" s="19">
+        <v>7</v>
+      </c>
+      <c r="F12" s="19">
+        <v>3</v>
+      </c>
+      <c r="G12" s="19">
+        <v>6</v>
+      </c>
+      <c r="H12" s="19">
+        <v>10</v>
+      </c>
+      <c r="I12" s="19">
+        <v>2</v>
+      </c>
+      <c r="J12" s="19">
+        <v>8</v>
+      </c>
+      <c r="K12" s="19">
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -10295,29 +12653,29 @@
       <c r="C13" s="3">
         <v>1</v>
       </c>
-      <c r="D13" s="29">
-        <v>68</v>
-      </c>
-      <c r="E13" s="29">
-        <v>69</v>
-      </c>
-      <c r="F13" s="29">
-        <v>74</v>
-      </c>
-      <c r="G13" s="29">
-        <v>67</v>
-      </c>
-      <c r="H13" s="29">
-        <v>77</v>
-      </c>
-      <c r="I13" s="29">
-        <v>76</v>
-      </c>
-      <c r="J13" s="29">
-        <v>39</v>
-      </c>
-      <c r="K13" s="29">
-        <v>71</v>
+      <c r="D13" s="19">
+        <v>1</v>
+      </c>
+      <c r="E13" s="19">
+        <v>1</v>
+      </c>
+      <c r="F13" s="19">
+        <v>1</v>
+      </c>
+      <c r="G13" s="19">
+        <v>1</v>
+      </c>
+      <c r="H13" s="19">
+        <v>1</v>
+      </c>
+      <c r="I13" s="19">
+        <v>1</v>
+      </c>
+      <c r="J13" s="19">
+        <v>1</v>
+      </c>
+      <c r="K13" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -10325,29 +12683,29 @@
       <c r="C14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D14" s="29">
-        <v>65</v>
-      </c>
-      <c r="E14" s="29">
-        <v>74</v>
-      </c>
-      <c r="F14" s="29">
-        <v>77</v>
-      </c>
-      <c r="G14" s="29">
-        <v>68</v>
-      </c>
-      <c r="H14" s="29">
-        <v>70</v>
-      </c>
-      <c r="I14" s="29">
-        <v>66</v>
-      </c>
-      <c r="J14" s="29">
-        <v>55</v>
-      </c>
-      <c r="K14" s="29">
-        <v>65</v>
+      <c r="D14" s="19">
+        <v>2</v>
+      </c>
+      <c r="E14" s="19">
+        <v>2</v>
+      </c>
+      <c r="F14" s="19">
+        <v>2</v>
+      </c>
+      <c r="G14" s="19">
+        <v>4</v>
+      </c>
+      <c r="H14" s="19">
+        <v>4</v>
+      </c>
+      <c r="I14" s="19">
+        <v>7</v>
+      </c>
+      <c r="J14" s="19">
+        <v>9</v>
+      </c>
+      <c r="K14" s="19">
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -10358,29 +12716,29 @@
       <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" s="29">
-        <v>4</v>
-      </c>
-      <c r="E15" s="29">
-        <v>4</v>
-      </c>
-      <c r="F15" s="29">
-        <v>4</v>
-      </c>
-      <c r="G15" s="29">
-        <v>4</v>
-      </c>
-      <c r="H15" s="29">
-        <v>4</v>
-      </c>
-      <c r="I15" s="29">
-        <v>4</v>
-      </c>
-      <c r="J15" s="29">
-        <v>4</v>
-      </c>
-      <c r="K15" s="29">
-        <v>4</v>
+      <c r="D15" s="19">
+        <v>1</v>
+      </c>
+      <c r="E15" s="19">
+        <v>1</v>
+      </c>
+      <c r="F15" s="19">
+        <v>1</v>
+      </c>
+      <c r="G15" s="19">
+        <v>1</v>
+      </c>
+      <c r="H15" s="19">
+        <v>1</v>
+      </c>
+      <c r="I15" s="19">
+        <v>1</v>
+      </c>
+      <c r="J15" s="19">
+        <v>1</v>
+      </c>
+      <c r="K15" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10389,29 +12747,29 @@
       <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="19">
+        <v>8</v>
+      </c>
+      <c r="E16" s="19">
+        <v>5</v>
+      </c>
+      <c r="F16" s="19">
+        <v>2</v>
+      </c>
+      <c r="G16" s="19">
+        <v>3</v>
+      </c>
+      <c r="H16" s="19">
+        <v>2</v>
+      </c>
+      <c r="I16" s="19">
+        <v>8</v>
+      </c>
+      <c r="J16" s="19">
         <v>4</v>
       </c>
-      <c r="E16" s="29">
-        <v>4</v>
-      </c>
-      <c r="F16" s="29">
+      <c r="K16" s="19">
         <v>5</v>
-      </c>
-      <c r="G16" s="29">
-        <v>4</v>
-      </c>
-      <c r="H16" s="29">
-        <v>4</v>
-      </c>
-      <c r="I16" s="29">
-        <v>4</v>
-      </c>
-      <c r="J16" s="29">
-        <v>4</v>
-      </c>
-      <c r="K16" s="29">
-        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -10424,29 +12782,29 @@
       <c r="C17" s="1">
         <v>1</v>
       </c>
-      <c r="D17" s="29">
-        <v>153</v>
-      </c>
-      <c r="E17" s="29">
-        <v>443</v>
-      </c>
-      <c r="F17" s="29">
-        <v>128</v>
-      </c>
-      <c r="G17" s="29">
-        <v>156</v>
-      </c>
-      <c r="H17" s="29">
-        <v>327</v>
-      </c>
-      <c r="I17" s="29">
-        <v>103</v>
-      </c>
-      <c r="J17" s="29">
-        <v>88</v>
-      </c>
-      <c r="K17" s="29">
-        <v>680</v>
+      <c r="D17" s="19">
+        <v>1</v>
+      </c>
+      <c r="E17" s="19">
+        <v>1</v>
+      </c>
+      <c r="F17" s="19">
+        <v>1</v>
+      </c>
+      <c r="G17" s="19">
+        <v>1</v>
+      </c>
+      <c r="H17" s="19">
+        <v>1</v>
+      </c>
+      <c r="I17" s="19">
+        <v>1</v>
+      </c>
+      <c r="J17" s="19">
+        <v>1</v>
+      </c>
+      <c r="K17" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -10454,29 +12812,29 @@
       <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="29">
-        <v>10</v>
-      </c>
-      <c r="E18" s="29">
-        <v>184</v>
-      </c>
-      <c r="F18" s="29">
-        <v>213</v>
-      </c>
-      <c r="G18" s="29">
-        <v>125</v>
-      </c>
-      <c r="H18" s="29">
-        <v>127</v>
-      </c>
-      <c r="I18" s="29">
-        <v>240</v>
-      </c>
-      <c r="J18" s="29">
-        <v>7</v>
-      </c>
-      <c r="K18" s="29">
-        <v>132</v>
+      <c r="D18" s="19">
+        <v>2</v>
+      </c>
+      <c r="E18" s="19">
+        <v>3</v>
+      </c>
+      <c r="F18" s="19">
+        <v>4</v>
+      </c>
+      <c r="G18" s="19">
+        <v>2</v>
+      </c>
+      <c r="H18" s="19">
+        <v>2</v>
+      </c>
+      <c r="I18" s="19">
+        <v>4</v>
+      </c>
+      <c r="J18" s="19">
+        <v>2</v>
+      </c>
+      <c r="K18" s="19">
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -10487,29 +12845,29 @@
       <c r="C19" s="1">
         <v>1</v>
       </c>
-      <c r="D19" s="29">
-        <v>40</v>
-      </c>
-      <c r="E19" s="29">
-        <v>111</v>
-      </c>
-      <c r="F19" s="29">
-        <v>143</v>
-      </c>
-      <c r="G19" s="29">
-        <v>192</v>
-      </c>
-      <c r="H19" s="29">
-        <v>139</v>
-      </c>
-      <c r="I19" s="29">
-        <v>115</v>
-      </c>
-      <c r="J19" s="29">
-        <v>41</v>
-      </c>
-      <c r="K19" s="29">
-        <v>211</v>
+      <c r="D19" s="19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="19">
+        <v>1</v>
+      </c>
+      <c r="H19" s="19">
+        <v>1</v>
+      </c>
+      <c r="I19" s="19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="19">
+        <v>1</v>
+      </c>
+      <c r="K19" s="19">
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10518,29 +12876,29 @@
       <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="29">
-        <v>30</v>
-      </c>
-      <c r="E20" s="29">
-        <v>137</v>
-      </c>
-      <c r="F20" s="29">
-        <v>121</v>
-      </c>
-      <c r="G20" s="29">
-        <v>134</v>
-      </c>
-      <c r="H20" s="29">
-        <v>133</v>
-      </c>
-      <c r="I20" s="29">
-        <v>198</v>
-      </c>
-      <c r="J20" s="29">
-        <v>9</v>
-      </c>
-      <c r="K20" s="29">
-        <v>244</v>
+      <c r="D20" s="19">
+        <v>2</v>
+      </c>
+      <c r="E20" s="19">
+        <v>2</v>
+      </c>
+      <c r="F20" s="19">
+        <v>2</v>
+      </c>
+      <c r="G20" s="19">
+        <v>2</v>
+      </c>
+      <c r="H20" s="19">
+        <v>2</v>
+      </c>
+      <c r="I20" s="19">
+        <v>4</v>
+      </c>
+      <c r="J20" s="19">
+        <v>2</v>
+      </c>
+      <c r="K20" s="19">
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -10585,28 +12943,60 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="74"/>
+      <c r="D23" s="63">
+        <v>3</v>
+      </c>
+      <c r="E23" s="64">
+        <v>3</v>
+      </c>
+      <c r="F23" s="64">
+        <v>1</v>
+      </c>
+      <c r="G23" s="64">
+        <v>9</v>
+      </c>
+      <c r="H23" s="64">
+        <v>3</v>
+      </c>
+      <c r="I23" s="64">
+        <v>1</v>
+      </c>
+      <c r="J23" s="64">
+        <v>1</v>
+      </c>
+      <c r="K23" s="65">
+        <v>10</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="75"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
+      <c r="D24" s="66">
+        <v>1</v>
+      </c>
+      <c r="E24" s="67">
+        <v>9</v>
+      </c>
+      <c r="F24" s="67">
+        <v>1</v>
+      </c>
+      <c r="G24" s="67">
+        <v>8</v>
+      </c>
+      <c r="H24" s="67">
+        <v>9</v>
+      </c>
+      <c r="I24" s="67">
+        <v>2</v>
+      </c>
+      <c r="J24" s="67">
+        <v>1</v>
+      </c>
+      <c r="K24" s="68">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -10616,28 +13006,60 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="74"/>
+      <c r="D25" s="63">
+        <v>4</v>
+      </c>
+      <c r="E25" s="64">
+        <v>9</v>
+      </c>
+      <c r="F25" s="64">
+        <v>1</v>
+      </c>
+      <c r="G25" s="64">
+        <v>7</v>
+      </c>
+      <c r="H25" s="64">
+        <v>1</v>
+      </c>
+      <c r="I25" s="64">
+        <v>1</v>
+      </c>
+      <c r="J25" s="64">
+        <v>1</v>
+      </c>
+      <c r="K25" s="65">
+        <v>3</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="77"/>
+      <c r="D26" s="66">
+        <v>1</v>
+      </c>
+      <c r="E26" s="67">
+        <v>7</v>
+      </c>
+      <c r="F26" s="67">
+        <v>3</v>
+      </c>
+      <c r="G26" s="67">
+        <v>6</v>
+      </c>
+      <c r="H26" s="67">
+        <v>10</v>
+      </c>
+      <c r="I26" s="67">
+        <v>1</v>
+      </c>
+      <c r="J26" s="67">
+        <v>8</v>
+      </c>
+      <c r="K26" s="68">
+        <v>8</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -10647,14 +13069,30 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="74"/>
+      <c r="D27" s="63">
+        <v>2</v>
+      </c>
+      <c r="E27" s="64">
+        <v>2</v>
+      </c>
+      <c r="F27" s="64">
+        <v>1</v>
+      </c>
+      <c r="G27" s="64">
+        <v>1</v>
+      </c>
+      <c r="H27" s="64">
+        <v>4</v>
+      </c>
+      <c r="I27" s="64">
+        <v>7</v>
+      </c>
+      <c r="J27" s="64">
+        <v>9</v>
+      </c>
+      <c r="K27" s="65">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -10662,14 +13100,30 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="77"/>
+      <c r="D28" s="66">
+        <v>1</v>
+      </c>
+      <c r="E28" s="67">
+        <v>5</v>
+      </c>
+      <c r="F28" s="67">
+        <v>2</v>
+      </c>
+      <c r="G28" s="67">
+        <v>3</v>
+      </c>
+      <c r="H28" s="67">
+        <v>1</v>
+      </c>
+      <c r="I28" s="67">
+        <v>8</v>
+      </c>
+      <c r="J28" s="67">
+        <v>1</v>
+      </c>
+      <c r="K28" s="68">
+        <v>5</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -10679,14 +13133,30 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="79"/>
+      <c r="D29" s="69">
+        <v>1</v>
+      </c>
+      <c r="E29" s="16">
+        <v>1</v>
+      </c>
+      <c r="F29" s="16">
+        <v>1</v>
+      </c>
+      <c r="G29" s="16">
+        <v>1</v>
+      </c>
+      <c r="H29" s="16">
+        <v>2</v>
+      </c>
+      <c r="I29" s="16">
+        <v>4</v>
+      </c>
+      <c r="J29" s="16">
+        <v>2</v>
+      </c>
+      <c r="K29" s="70">
+        <v>2</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -10694,14 +13164,30 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="77"/>
+      <c r="D30" s="66">
+        <v>1</v>
+      </c>
+      <c r="E30" s="67">
+        <v>2</v>
+      </c>
+      <c r="F30" s="67">
+        <v>2</v>
+      </c>
+      <c r="G30" s="67">
+        <v>2</v>
+      </c>
+      <c r="H30" s="67">
+        <v>2</v>
+      </c>
+      <c r="I30" s="67">
+        <v>4</v>
+      </c>
+      <c r="J30" s="67">
+        <v>1</v>
+      </c>
+      <c r="K30" s="68">
+        <v>7</v>
+      </c>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -10881,12 +13367,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D696DEA4-1C6D-43BD-8BC6-2C617DFECF13}">
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5843C1-20CB-4050-94D7-D7DDEA36873C}">
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D23" sqref="D23:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10904,19 +13390,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
+      <c r="A1" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10965,28 +13451,28 @@
         <v>1</v>
       </c>
       <c r="D5" s="19">
-        <v>4.4000000000000004</v>
+        <v>1</v>
       </c>
       <c r="E5" s="19">
-        <v>103.2</v>
+        <v>1</v>
       </c>
       <c r="F5" s="19">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="G5" s="19">
-        <v>86.9</v>
+        <v>1</v>
       </c>
       <c r="H5" s="19">
-        <v>104.7</v>
+        <v>1</v>
       </c>
       <c r="I5" s="19">
-        <v>467.9</v>
+        <v>1</v>
       </c>
       <c r="J5" s="19">
-        <v>6.2</v>
+        <v>1</v>
       </c>
       <c r="K5" s="19">
-        <v>95.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
@@ -10995,28 +13481,28 @@
         <v>12</v>
       </c>
       <c r="D6" s="19">
-        <v>5.3</v>
+        <v>3.2</v>
       </c>
       <c r="E6" s="19">
-        <v>97.9</v>
+        <v>3.7</v>
       </c>
       <c r="F6" s="19">
-        <v>15.3</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G6" s="19">
-        <v>90.4</v>
+        <v>5.2</v>
       </c>
       <c r="H6" s="19">
-        <v>104.8</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="I6" s="19">
-        <v>380.5</v>
+        <v>6.6</v>
       </c>
       <c r="J6" s="19">
-        <v>5.3</v>
+        <v>6.1</v>
       </c>
       <c r="K6" s="19">
-        <v>115</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
@@ -11028,28 +13514,28 @@
         <v>1</v>
       </c>
       <c r="D7" s="19">
-        <v>15.5</v>
+        <v>1</v>
       </c>
       <c r="E7" s="19">
-        <v>78.3</v>
+        <v>1</v>
       </c>
       <c r="F7" s="19">
-        <v>39.700000000000003</v>
+        <v>1</v>
       </c>
       <c r="G7" s="19">
-        <v>85.9</v>
+        <v>1</v>
       </c>
       <c r="H7" s="19">
-        <v>61.5</v>
+        <v>1</v>
       </c>
       <c r="I7" s="19">
-        <v>332</v>
+        <v>1</v>
       </c>
       <c r="J7" s="19">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K7" s="19">
-        <v>75.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11059,28 +13545,28 @@
         <v>12</v>
       </c>
       <c r="D8" s="19">
-        <v>15.5</v>
+        <v>2.4</v>
       </c>
       <c r="E8" s="19">
-        <v>125.1</v>
+        <v>6</v>
       </c>
       <c r="F8" s="19">
-        <v>41.7</v>
+        <v>3.3</v>
       </c>
       <c r="G8" s="19">
-        <v>107.8</v>
+        <v>6.3</v>
       </c>
       <c r="H8" s="19">
-        <v>90.5</v>
+        <v>6.4</v>
       </c>
       <c r="I8" s="19">
-        <v>400.2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="J8" s="19">
-        <v>11.9</v>
+        <v>3.7</v>
       </c>
       <c r="K8" s="19">
-        <v>83.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
@@ -11094,28 +13580,28 @@
         <v>1</v>
       </c>
       <c r="D9" s="19">
-        <v>65.599999999999994</v>
+        <v>1</v>
       </c>
       <c r="E9" s="19">
-        <v>93</v>
+        <v>1</v>
       </c>
       <c r="F9" s="19">
-        <v>109.4</v>
+        <v>1</v>
       </c>
       <c r="G9" s="19">
-        <v>77.599999999999994</v>
+        <v>1</v>
       </c>
       <c r="H9" s="19">
-        <v>92.1</v>
+        <v>1</v>
       </c>
       <c r="I9" s="19">
         <v>1</v>
       </c>
       <c r="J9" s="19">
-        <v>47.1</v>
+        <v>1</v>
       </c>
       <c r="K9" s="19">
-        <v>80.900000000000006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -11124,28 +13610,28 @@
         <v>12</v>
       </c>
       <c r="D10" s="19">
-        <v>102.3</v>
+        <v>4.5</v>
       </c>
       <c r="E10" s="19">
-        <v>80.2</v>
+        <v>5.3</v>
       </c>
       <c r="F10" s="19">
-        <v>70.400000000000006</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G10" s="19">
-        <v>93.3</v>
+        <v>5.2</v>
       </c>
       <c r="H10" s="19">
-        <v>73.3</v>
+        <v>5.6</v>
       </c>
       <c r="I10" s="19">
-        <v>1</v>
+        <v>5.3</v>
       </c>
       <c r="J10" s="19">
-        <v>71.099999999999994</v>
+        <v>4.5</v>
       </c>
       <c r="K10" s="19">
-        <v>94.4</v>
+        <v>6.1</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -11157,28 +13643,28 @@
         <v>1</v>
       </c>
       <c r="D11" s="19">
-        <v>93.5</v>
+        <v>1</v>
       </c>
       <c r="E11" s="19">
-        <v>88.9</v>
+        <v>1</v>
       </c>
       <c r="F11" s="19">
-        <v>106.8</v>
+        <v>1</v>
       </c>
       <c r="G11" s="19">
-        <v>91.1</v>
+        <v>1</v>
       </c>
       <c r="H11" s="19">
-        <v>72.3</v>
+        <v>1</v>
       </c>
       <c r="I11" s="19">
-        <v>732</v>
+        <v>1</v>
       </c>
       <c r="J11" s="19">
-        <v>70.900000000000006</v>
+        <v>1</v>
       </c>
       <c r="K11" s="19">
-        <v>88.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11188,28 +13674,28 @@
         <v>12</v>
       </c>
       <c r="D12" s="19">
-        <v>66.900000000000006</v>
+        <v>2.9</v>
       </c>
       <c r="E12" s="19">
-        <v>76.2</v>
+        <v>7.2</v>
       </c>
       <c r="F12" s="19">
-        <v>85.8</v>
+        <v>4.3</v>
       </c>
       <c r="G12" s="19">
-        <v>95.7</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="H12" s="19">
-        <v>77.5</v>
+        <v>7.7</v>
       </c>
       <c r="I12" s="19">
-        <v>732</v>
+        <v>6.2</v>
       </c>
       <c r="J12" s="19">
-        <v>105.6</v>
+        <v>4.2</v>
       </c>
       <c r="K12" s="19">
-        <v>86.2</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
@@ -11223,28 +13709,28 @@
         <v>1</v>
       </c>
       <c r="D13" s="19">
-        <v>55.8</v>
+        <v>1</v>
       </c>
       <c r="E13" s="19">
-        <v>63.9</v>
+        <v>1</v>
       </c>
       <c r="F13" s="19">
-        <v>67.099999999999994</v>
+        <v>1</v>
       </c>
       <c r="G13" s="19">
-        <v>69.2</v>
+        <v>1</v>
       </c>
       <c r="H13" s="19">
-        <v>70.400000000000006</v>
+        <v>1</v>
       </c>
       <c r="I13" s="19">
-        <v>70.900000000000006</v>
+        <v>1</v>
       </c>
       <c r="J13" s="19">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="K13" s="19">
-        <v>69.900000000000006</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
@@ -11253,28 +13739,28 @@
         <v>12</v>
       </c>
       <c r="D14" s="19">
-        <v>64.5</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E14" s="19">
-        <v>67.2</v>
+        <v>4.7</v>
       </c>
       <c r="F14" s="19">
-        <v>71.5</v>
+        <v>2.9</v>
       </c>
       <c r="G14" s="19">
-        <v>62.6</v>
+        <v>6.1</v>
       </c>
       <c r="H14" s="19">
-        <v>66.5</v>
+        <v>6.2</v>
       </c>
       <c r="I14" s="19">
-        <v>70.099999999999994</v>
+        <v>7.5</v>
       </c>
       <c r="J14" s="19">
-        <v>43.1</v>
+        <v>7.8</v>
       </c>
       <c r="K14" s="19">
-        <v>67.5</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
@@ -11286,28 +13772,28 @@
         <v>1</v>
       </c>
       <c r="D15" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E15" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F15" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H15" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I15" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J15" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="K15" s="19">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11317,28 +13803,28 @@
         <v>12</v>
       </c>
       <c r="D16" s="19">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="E16" s="19">
-        <v>4</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="F16" s="19">
-        <v>9.1999999999999993</v>
+        <v>2.7</v>
       </c>
       <c r="G16" s="19">
-        <v>4</v>
+        <v>6.9</v>
       </c>
       <c r="H16" s="19">
-        <v>4</v>
+        <v>6.9</v>
       </c>
       <c r="I16" s="19">
-        <v>4</v>
+        <v>6.6</v>
       </c>
       <c r="J16" s="19">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="K16" s="19">
-        <v>4</v>
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
@@ -11352,28 +13838,28 @@
         <v>1</v>
       </c>
       <c r="D17" s="19">
-        <v>101.9</v>
+        <v>1</v>
       </c>
       <c r="E17" s="19">
-        <v>432.6</v>
+        <v>1</v>
       </c>
       <c r="F17" s="19">
-        <v>92.2</v>
+        <v>1</v>
       </c>
       <c r="G17" s="19">
-        <v>122.3</v>
+        <v>1</v>
       </c>
       <c r="H17" s="19">
-        <v>169.3</v>
+        <v>1</v>
       </c>
       <c r="I17" s="19">
-        <v>118.9</v>
+        <v>1</v>
       </c>
       <c r="J17" s="19">
-        <v>56.2</v>
+        <v>1</v>
       </c>
       <c r="K17" s="19">
-        <v>314.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
@@ -11382,28 +13868,28 @@
         <v>12</v>
       </c>
       <c r="D18" s="19">
-        <v>8.3000000000000007</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E18" s="19">
-        <v>114.8</v>
+        <v>3.8</v>
       </c>
       <c r="F18" s="19">
-        <v>86.7</v>
+        <v>3.9</v>
       </c>
       <c r="G18" s="19">
-        <v>118.8</v>
+        <v>2.8</v>
       </c>
       <c r="H18" s="19">
-        <v>127</v>
+        <v>5.8</v>
       </c>
       <c r="I18" s="19">
-        <v>165.9</v>
+        <v>4.9000000000000004</v>
       </c>
       <c r="J18" s="19">
-        <v>28.2</v>
+        <v>3.9</v>
       </c>
       <c r="K18" s="19">
-        <v>156.80000000000001</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
@@ -11415,28 +13901,28 @@
         <v>1</v>
       </c>
       <c r="D19" s="19">
-        <v>66.099999999999994</v>
+        <v>1</v>
       </c>
       <c r="E19" s="19">
-        <v>79.900000000000006</v>
+        <v>1</v>
       </c>
       <c r="F19" s="19">
-        <v>57.7</v>
+        <v>1</v>
       </c>
       <c r="G19" s="19">
-        <v>108.9</v>
+        <v>1</v>
       </c>
       <c r="H19" s="19">
-        <v>104.2</v>
+        <v>1</v>
       </c>
       <c r="I19" s="19">
-        <v>96.6</v>
+        <v>1</v>
       </c>
       <c r="J19" s="19">
-        <v>51.7</v>
+        <v>1</v>
       </c>
       <c r="K19" s="19">
-        <v>87.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11446,28 +13932,28 @@
         <v>12</v>
       </c>
       <c r="D20" s="19">
-        <v>25.4</v>
+        <v>2.6</v>
       </c>
       <c r="E20" s="19">
-        <v>119.6</v>
+        <v>5.7</v>
       </c>
       <c r="F20" s="19">
-        <v>60.7</v>
+        <v>3.1</v>
       </c>
       <c r="G20" s="19">
-        <v>118.8</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H20" s="19">
-        <v>123.5</v>
+        <v>3</v>
       </c>
       <c r="I20" s="19">
-        <v>133.6</v>
+        <v>4.7</v>
       </c>
       <c r="J20" s="19">
-        <v>11.1</v>
+        <v>4.2</v>
       </c>
       <c r="K20" s="19">
-        <v>126.2</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -11512,28 +13998,60 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="74"/>
+      <c r="D23" s="63">
+        <v>3.2</v>
+      </c>
+      <c r="E23" s="64">
+        <v>3.7</v>
+      </c>
+      <c r="F23" s="64">
+        <v>1</v>
+      </c>
+      <c r="G23" s="64">
+        <v>5.2</v>
+      </c>
+      <c r="H23" s="64">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="I23" s="64">
+        <v>1</v>
+      </c>
+      <c r="J23" s="64">
+        <v>1</v>
+      </c>
+      <c r="K23" s="65">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="4"/>
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="75"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
+      <c r="D24" s="66">
+        <v>1</v>
+      </c>
+      <c r="E24" s="67">
+        <v>6</v>
+      </c>
+      <c r="F24" s="67">
+        <v>1</v>
+      </c>
+      <c r="G24" s="67">
+        <v>6.3</v>
+      </c>
+      <c r="H24" s="67">
+        <v>6.4</v>
+      </c>
+      <c r="I24" s="67">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="J24" s="67">
+        <v>1</v>
+      </c>
+      <c r="K24" s="68">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
@@ -11543,28 +14061,60 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="74"/>
+      <c r="D25" s="63">
+        <v>4.5</v>
+      </c>
+      <c r="E25" s="64">
+        <v>5.3</v>
+      </c>
+      <c r="F25" s="64">
+        <v>1</v>
+      </c>
+      <c r="G25" s="64">
+        <v>5.2</v>
+      </c>
+      <c r="H25" s="64">
+        <v>1</v>
+      </c>
+      <c r="I25" s="64">
+        <v>1</v>
+      </c>
+      <c r="J25" s="64">
+        <v>1</v>
+      </c>
+      <c r="K25" s="65">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="77"/>
+      <c r="D26" s="66">
+        <v>1</v>
+      </c>
+      <c r="E26" s="67">
+        <v>7.2</v>
+      </c>
+      <c r="F26" s="67">
+        <v>4.3</v>
+      </c>
+      <c r="G26" s="67">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H26" s="67">
+        <v>7.7</v>
+      </c>
+      <c r="I26" s="67">
+        <v>1</v>
+      </c>
+      <c r="J26" s="67">
+        <v>4.2</v>
+      </c>
+      <c r="K26" s="68">
+        <v>6.2</v>
+      </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
@@ -11574,14 +14124,30 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="74"/>
+      <c r="D27" s="63">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E27" s="64">
+        <v>4.7</v>
+      </c>
+      <c r="F27" s="64">
+        <v>1</v>
+      </c>
+      <c r="G27" s="64">
+        <v>1</v>
+      </c>
+      <c r="H27" s="64">
+        <v>6.2</v>
+      </c>
+      <c r="I27" s="64">
+        <v>7.5</v>
+      </c>
+      <c r="J27" s="64">
+        <v>7.8</v>
+      </c>
+      <c r="K27" s="65">
+        <v>5.4</v>
+      </c>
     </row>
     <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="5"/>
@@ -11589,14 +14155,30 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="77"/>
+      <c r="D28" s="66">
+        <v>1</v>
+      </c>
+      <c r="E28" s="67">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F28" s="67">
+        <v>2.7</v>
+      </c>
+      <c r="G28" s="67">
+        <v>6.9</v>
+      </c>
+      <c r="H28" s="67">
+        <v>1</v>
+      </c>
+      <c r="I28" s="67">
+        <v>6.6</v>
+      </c>
+      <c r="J28" s="67">
+        <v>1</v>
+      </c>
+      <c r="K28" s="68">
+        <v>4.4000000000000004</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
@@ -11606,14 +14188,30 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="79"/>
+      <c r="D29" s="69">
+        <v>1</v>
+      </c>
+      <c r="E29" s="16">
+        <v>1</v>
+      </c>
+      <c r="F29" s="16">
+        <v>1</v>
+      </c>
+      <c r="G29" s="16">
+        <v>1</v>
+      </c>
+      <c r="H29" s="16">
+        <v>5.8</v>
+      </c>
+      <c r="I29" s="16">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="J29" s="16">
+        <v>3.9</v>
+      </c>
+      <c r="K29" s="70">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="5"/>
@@ -11621,1868 +14219,30 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="77"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-    </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-    </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-    </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-    </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-    </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-    </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F40056-F547-48DD-9331-37B657810592}">
-  <dimension ref="A1:K53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="19">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-      <c r="F5" s="19">
-        <v>1</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1</v>
-      </c>
-      <c r="H5" s="19">
-        <v>1</v>
-      </c>
-      <c r="I5" s="19">
-        <v>1</v>
-      </c>
-      <c r="J5" s="19">
-        <v>1</v>
-      </c>
-      <c r="K5" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="19">
+      <c r="D30" s="66">
+        <v>1</v>
+      </c>
+      <c r="E30" s="67">
+        <v>5.7</v>
+      </c>
+      <c r="F30" s="67">
+        <v>3.1</v>
+      </c>
+      <c r="G30" s="67">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="H30" s="67">
         <v>3</v>
       </c>
-      <c r="E6" s="19">
-        <v>3</v>
-      </c>
-      <c r="F6" s="19">
-        <v>2</v>
-      </c>
-      <c r="G6" s="19">
-        <v>9</v>
-      </c>
-      <c r="H6" s="19">
-        <v>3</v>
-      </c>
-      <c r="I6" s="19">
-        <v>5</v>
-      </c>
-      <c r="J6" s="19">
-        <v>8</v>
-      </c>
-      <c r="K6" s="19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="19">
-        <v>1</v>
-      </c>
-      <c r="E7" s="19">
-        <v>1</v>
-      </c>
-      <c r="F7" s="19">
-        <v>1</v>
-      </c>
-      <c r="G7" s="19">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19">
-        <v>1</v>
-      </c>
-      <c r="I7" s="19">
-        <v>1</v>
-      </c>
-      <c r="J7" s="19">
-        <v>1</v>
-      </c>
-      <c r="K7" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="19">
-        <v>4</v>
-      </c>
-      <c r="E8" s="19">
-        <v>9</v>
-      </c>
-      <c r="F8" s="19">
-        <v>2</v>
-      </c>
-      <c r="G8" s="19">
-        <v>8</v>
-      </c>
-      <c r="H8" s="19">
-        <v>9</v>
-      </c>
-      <c r="I8" s="19">
-        <v>2</v>
-      </c>
-      <c r="J8" s="19">
-        <v>4</v>
-      </c>
-      <c r="K8" s="19">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19">
-        <v>1</v>
-      </c>
-      <c r="E9" s="19">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19">
-        <v>1</v>
-      </c>
-      <c r="H9" s="19">
-        <v>1</v>
-      </c>
-      <c r="I9" s="19">
-        <v>1</v>
-      </c>
-      <c r="J9" s="19">
-        <v>1</v>
-      </c>
-      <c r="K9" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="19">
-        <v>4</v>
-      </c>
-      <c r="E10" s="19">
-        <v>9</v>
-      </c>
-      <c r="F10" s="19">
-        <v>6</v>
-      </c>
-      <c r="G10" s="19">
-        <v>7</v>
-      </c>
-      <c r="H10" s="19">
-        <v>3</v>
-      </c>
-      <c r="I10" s="19">
-        <v>8</v>
-      </c>
-      <c r="J10" s="19">
-        <v>3</v>
-      </c>
-      <c r="K10" s="19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="19">
-        <v>1</v>
-      </c>
-      <c r="E11" s="19">
-        <v>1</v>
-      </c>
-      <c r="F11" s="19">
-        <v>1</v>
-      </c>
-      <c r="G11" s="19">
-        <v>1</v>
-      </c>
-      <c r="H11" s="19">
-        <v>1</v>
-      </c>
-      <c r="I11" s="19">
-        <v>1</v>
-      </c>
-      <c r="J11" s="19">
-        <v>1</v>
-      </c>
-      <c r="K11" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="19">
-        <v>2</v>
-      </c>
-      <c r="E12" s="19">
-        <v>7</v>
-      </c>
-      <c r="F12" s="19">
-        <v>3</v>
-      </c>
-      <c r="G12" s="19">
-        <v>6</v>
-      </c>
-      <c r="H12" s="19">
-        <v>10</v>
-      </c>
-      <c r="I12" s="19">
-        <v>2</v>
-      </c>
-      <c r="J12" s="19">
-        <v>8</v>
-      </c>
-      <c r="K12" s="19">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="19">
-        <v>1</v>
-      </c>
-      <c r="E13" s="19">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19">
-        <v>1</v>
-      </c>
-      <c r="G13" s="19">
-        <v>1</v>
-      </c>
-      <c r="H13" s="19">
-        <v>1</v>
-      </c>
-      <c r="I13" s="19">
-        <v>1</v>
-      </c>
-      <c r="J13" s="19">
-        <v>1</v>
-      </c>
-      <c r="K13" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="19">
-        <v>2</v>
-      </c>
-      <c r="E14" s="19">
-        <v>2</v>
-      </c>
-      <c r="F14" s="19">
-        <v>2</v>
-      </c>
-      <c r="G14" s="19">
-        <v>4</v>
-      </c>
-      <c r="H14" s="19">
-        <v>4</v>
-      </c>
-      <c r="I14" s="19">
-        <v>7</v>
-      </c>
-      <c r="J14" s="19">
-        <v>9</v>
-      </c>
-      <c r="K14" s="19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="19">
-        <v>1</v>
-      </c>
-      <c r="E15" s="19">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19">
-        <v>1</v>
-      </c>
-      <c r="G15" s="19">
-        <v>1</v>
-      </c>
-      <c r="H15" s="19">
-        <v>1</v>
-      </c>
-      <c r="I15" s="19">
-        <v>1</v>
-      </c>
-      <c r="J15" s="19">
-        <v>1</v>
-      </c>
-      <c r="K15" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="19">
-        <v>8</v>
-      </c>
-      <c r="E16" s="19">
-        <v>5</v>
-      </c>
-      <c r="F16" s="19">
-        <v>2</v>
-      </c>
-      <c r="G16" s="19">
-        <v>3</v>
-      </c>
-      <c r="H16" s="19">
-        <v>2</v>
-      </c>
-      <c r="I16" s="19">
-        <v>8</v>
-      </c>
-      <c r="J16" s="19">
-        <v>4</v>
-      </c>
-      <c r="K16" s="19">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="19">
-        <v>1</v>
-      </c>
-      <c r="E17" s="19">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19">
-        <v>1</v>
-      </c>
-      <c r="G17" s="19">
-        <v>1</v>
-      </c>
-      <c r="H17" s="19">
-        <v>1</v>
-      </c>
-      <c r="I17" s="19">
-        <v>1</v>
-      </c>
-      <c r="J17" s="19">
-        <v>1</v>
-      </c>
-      <c r="K17" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="19">
-        <v>2</v>
-      </c>
-      <c r="E18" s="19">
-        <v>3</v>
-      </c>
-      <c r="F18" s="19">
-        <v>4</v>
-      </c>
-      <c r="G18" s="19">
-        <v>2</v>
-      </c>
-      <c r="H18" s="19">
-        <v>2</v>
-      </c>
-      <c r="I18" s="19">
-        <v>4</v>
-      </c>
-      <c r="J18" s="19">
-        <v>2</v>
-      </c>
-      <c r="K18" s="19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="19">
-        <v>1</v>
-      </c>
-      <c r="I19" s="19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="19">
-        <v>2</v>
-      </c>
-      <c r="E20" s="19">
-        <v>2</v>
-      </c>
-      <c r="F20" s="19">
-        <v>2</v>
-      </c>
-      <c r="G20" s="19">
-        <v>2</v>
-      </c>
-      <c r="H20" s="19">
-        <v>2</v>
-      </c>
-      <c r="I20" s="19">
-        <v>4</v>
-      </c>
-      <c r="J20" s="19">
-        <v>2</v>
-      </c>
-      <c r="K20" s="19">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="74"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" s="75"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="74"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="77"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="74"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6">
-        <v>2</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="77"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="79"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6">
-        <v>2</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="77"/>
-    </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-      <c r="K38" s="10"/>
-    </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="10"/>
-      <c r="K39" s="10"/>
-    </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="10"/>
-      <c r="K40" s="10"/>
-    </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D41" s="10"/>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
-      <c r="K41" s="10"/>
-    </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D42" s="10"/>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
-      <c r="K42" s="10"/>
-    </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D43" s="10"/>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-    </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D44" s="10"/>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-    </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D45" s="10"/>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-    </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D46" s="10"/>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-    </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D47" s="10"/>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-    </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D48" s="10"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
-      <c r="K48" s="10"/>
-    </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-    </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D50" s="10"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
-      <c r="K50" s="10"/>
-    </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
-      <c r="K51" s="10"/>
-    </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D52" s="10"/>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
-      <c r="K52" s="10"/>
-    </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.3">
-      <c r="D53" s="10"/>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="10"/>
-      <c r="K53" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:K1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE5843C1-20CB-4050-94D7-D7DDEA36873C}">
-  <dimension ref="A1:K53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-    </row>
-    <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I4" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K4" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="19">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19">
-        <v>1</v>
-      </c>
-      <c r="F5" s="19">
-        <v>1</v>
-      </c>
-      <c r="G5" s="19">
-        <v>1</v>
-      </c>
-      <c r="H5" s="19">
-        <v>1</v>
-      </c>
-      <c r="I5" s="19">
-        <v>1</v>
-      </c>
-      <c r="J5" s="19">
-        <v>1</v>
-      </c>
-      <c r="K5" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="C6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="19">
-        <v>3.2</v>
-      </c>
-      <c r="E6" s="19">
-        <v>3.7</v>
-      </c>
-      <c r="F6" s="19">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="G6" s="19">
-        <v>5.2</v>
-      </c>
-      <c r="H6" s="19">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="I6" s="19">
-        <v>6.6</v>
-      </c>
-      <c r="J6" s="19">
-        <v>6.1</v>
-      </c>
-      <c r="K6" s="19">
-        <v>5.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="19">
-        <v>1</v>
-      </c>
-      <c r="E7" s="19">
-        <v>1</v>
-      </c>
-      <c r="F7" s="19">
-        <v>1</v>
-      </c>
-      <c r="G7" s="19">
-        <v>1</v>
-      </c>
-      <c r="H7" s="19">
-        <v>1</v>
-      </c>
-      <c r="I7" s="19">
-        <v>1</v>
-      </c>
-      <c r="J7" s="19">
-        <v>1</v>
-      </c>
-      <c r="K7" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="19">
-        <v>2.4</v>
-      </c>
-      <c r="E8" s="19">
-        <v>6</v>
-      </c>
-      <c r="F8" s="19">
-        <v>3.3</v>
-      </c>
-      <c r="G8" s="19">
-        <v>6.3</v>
-      </c>
-      <c r="H8" s="19">
-        <v>6.4</v>
-      </c>
-      <c r="I8" s="19">
-        <v>4.4000000000000004</v>
-      </c>
-      <c r="J8" s="19">
-        <v>3.7</v>
-      </c>
-      <c r="K8" s="19">
-        <v>5.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3">
-        <v>1</v>
-      </c>
-      <c r="C9" s="3">
-        <v>1</v>
-      </c>
-      <c r="D9" s="19">
-        <v>1</v>
-      </c>
-      <c r="E9" s="19">
-        <v>1</v>
-      </c>
-      <c r="F9" s="19">
-        <v>1</v>
-      </c>
-      <c r="G9" s="19">
-        <v>1</v>
-      </c>
-      <c r="H9" s="19">
-        <v>1</v>
-      </c>
-      <c r="I9" s="19">
-        <v>1</v>
-      </c>
-      <c r="J9" s="19">
-        <v>1</v>
-      </c>
-      <c r="K9" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="4"/>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="E10" s="19">
-        <v>5.3</v>
-      </c>
-      <c r="F10" s="19">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="G10" s="19">
-        <v>5.2</v>
-      </c>
-      <c r="H10" s="19">
-        <v>5.6</v>
-      </c>
-      <c r="I10" s="19">
-        <v>5.3</v>
-      </c>
-      <c r="J10" s="19">
-        <v>4.5</v>
-      </c>
-      <c r="K10" s="19">
-        <v>6.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1">
-        <v>2</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="19">
-        <v>1</v>
-      </c>
-      <c r="E11" s="19">
-        <v>1</v>
-      </c>
-      <c r="F11" s="19">
-        <v>1</v>
-      </c>
-      <c r="G11" s="19">
-        <v>1</v>
-      </c>
-      <c r="H11" s="19">
-        <v>1</v>
-      </c>
-      <c r="I11" s="19">
-        <v>1</v>
-      </c>
-      <c r="J11" s="19">
-        <v>1</v>
-      </c>
-      <c r="K11" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="19">
-        <v>2.9</v>
-      </c>
-      <c r="E12" s="19">
-        <v>7.2</v>
-      </c>
-      <c r="F12" s="19">
-        <v>4.3</v>
-      </c>
-      <c r="G12" s="19">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="H12" s="19">
-        <v>7.7</v>
-      </c>
-      <c r="I12" s="19">
-        <v>6.2</v>
-      </c>
-      <c r="J12" s="19">
-        <v>4.2</v>
-      </c>
-      <c r="K12" s="19">
-        <v>6.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="3">
-        <v>1</v>
-      </c>
-      <c r="C13" s="3">
-        <v>1</v>
-      </c>
-      <c r="D13" s="19">
-        <v>1</v>
-      </c>
-      <c r="E13" s="19">
-        <v>1</v>
-      </c>
-      <c r="F13" s="19">
-        <v>1</v>
-      </c>
-      <c r="G13" s="19">
-        <v>1</v>
-      </c>
-      <c r="H13" s="19">
-        <v>1</v>
-      </c>
-      <c r="I13" s="19">
-        <v>1</v>
-      </c>
-      <c r="J13" s="19">
-        <v>1</v>
-      </c>
-      <c r="K13" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="C14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="19">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E14" s="19">
+      <c r="I30" s="67">
         <v>4.7</v>
       </c>
-      <c r="F14" s="19">
-        <v>2.9</v>
-      </c>
-      <c r="G14" s="19">
-        <v>6.1</v>
-      </c>
-      <c r="H14" s="19">
-        <v>6.2</v>
-      </c>
-      <c r="I14" s="19">
-        <v>7.5</v>
-      </c>
-      <c r="J14" s="19">
-        <v>7.8</v>
-      </c>
-      <c r="K14" s="19">
-        <v>5.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="1">
-        <v>2</v>
-      </c>
-      <c r="C15" s="1">
-        <v>1</v>
-      </c>
-      <c r="D15" s="19">
-        <v>1</v>
-      </c>
-      <c r="E15" s="19">
-        <v>1</v>
-      </c>
-      <c r="F15" s="19">
-        <v>1</v>
-      </c>
-      <c r="G15" s="19">
-        <v>1</v>
-      </c>
-      <c r="H15" s="19">
-        <v>1</v>
-      </c>
-      <c r="I15" s="19">
-        <v>1</v>
-      </c>
-      <c r="J15" s="19">
-        <v>1</v>
-      </c>
-      <c r="K15" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="19">
-        <v>6.8</v>
-      </c>
-      <c r="E16" s="19">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="F16" s="19">
-        <v>2.7</v>
-      </c>
-      <c r="G16" s="19">
-        <v>6.9</v>
-      </c>
-      <c r="H16" s="19">
-        <v>6.9</v>
-      </c>
-      <c r="I16" s="19">
-        <v>6.6</v>
-      </c>
-      <c r="J16" s="19">
-        <v>6.8</v>
-      </c>
-      <c r="K16" s="19">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="19">
-        <v>1</v>
-      </c>
-      <c r="E17" s="19">
-        <v>1</v>
-      </c>
-      <c r="F17" s="19">
-        <v>1</v>
-      </c>
-      <c r="G17" s="19">
-        <v>1</v>
-      </c>
-      <c r="H17" s="19">
-        <v>1</v>
-      </c>
-      <c r="I17" s="19">
-        <v>1</v>
-      </c>
-      <c r="J17" s="19">
-        <v>1</v>
-      </c>
-      <c r="K17" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="19">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="E18" s="19">
-        <v>3.8</v>
-      </c>
-      <c r="F18" s="19">
-        <v>3.9</v>
-      </c>
-      <c r="G18" s="19">
-        <v>2.8</v>
-      </c>
-      <c r="H18" s="19">
-        <v>5.8</v>
-      </c>
-      <c r="I18" s="19">
-        <v>4.9000000000000004</v>
-      </c>
-      <c r="J18" s="19">
-        <v>3.9</v>
-      </c>
-      <c r="K18" s="19">
-        <v>4.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="1">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="19">
-        <v>1</v>
-      </c>
-      <c r="F19" s="19">
-        <v>1</v>
-      </c>
-      <c r="G19" s="19">
-        <v>1</v>
-      </c>
-      <c r="H19" s="19">
-        <v>1</v>
-      </c>
-      <c r="I19" s="19">
-        <v>1</v>
-      </c>
-      <c r="J19" s="19">
-        <v>1</v>
-      </c>
-      <c r="K19" s="19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="19">
-        <v>2.6</v>
-      </c>
-      <c r="E20" s="19">
-        <v>5.7</v>
-      </c>
-      <c r="F20" s="19">
-        <v>3.1</v>
-      </c>
-      <c r="G20" s="19">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="H20" s="19">
-        <v>3</v>
-      </c>
-      <c r="I20" s="19">
-        <v>4.7</v>
-      </c>
-      <c r="J20" s="19">
-        <v>4.2</v>
-      </c>
-      <c r="K20" s="19">
+      <c r="J30" s="67">
+        <v>1</v>
+      </c>
+      <c r="K30" s="68">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B23" s="3">
-        <v>1</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="72"/>
-      <c r="E23" s="73"/>
-      <c r="F23" s="73"/>
-      <c r="G23" s="73"/>
-      <c r="H23" s="73"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="73"/>
-      <c r="K23" s="74"/>
-    </row>
-    <row r="24" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
-      <c r="B24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" s="75"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="76"/>
-      <c r="I24" s="76"/>
-      <c r="J24" s="76"/>
-      <c r="K24" s="77"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" s="3">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="72"/>
-      <c r="E25" s="73"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="73"/>
-      <c r="H25" s="73"/>
-      <c r="I25" s="73"/>
-      <c r="J25" s="73"/>
-      <c r="K25" s="74"/>
-    </row>
-    <row r="26" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
-      <c r="B26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="75"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="76"/>
-      <c r="I26" s="76"/>
-      <c r="J26" s="76"/>
-      <c r="K26" s="77"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B27" s="3">
-        <v>1</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="73"/>
-      <c r="F27" s="73"/>
-      <c r="G27" s="73"/>
-      <c r="H27" s="73"/>
-      <c r="I27" s="73"/>
-      <c r="J27" s="73"/>
-      <c r="K27" s="74"/>
-    </row>
-    <row r="28" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="6">
-        <v>2</v>
-      </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="76"/>
-      <c r="I28" s="76"/>
-      <c r="J28" s="76"/>
-      <c r="K28" s="77"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" s="3">
-        <v>1</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="78"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="16"/>
-      <c r="H29" s="16"/>
-      <c r="I29" s="16"/>
-      <c r="J29" s="16"/>
-      <c r="K29" s="79"/>
-    </row>
-    <row r="30" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="B30" s="6">
-        <v>2</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="75"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="76"/>
-      <c r="I30" s="76"/>
-      <c r="J30" s="76"/>
-      <c r="K30" s="77"/>
     </row>
     <row r="37" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D37" s="1"/>
@@ -13687,24 +14447,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="71" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="L1" s="71"/>
+      <c r="M1" s="71"/>
+      <c r="N1" s="71"/>
+      <c r="O1" s="71"/>
+      <c r="P1" s="71"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13714,29 +14474,29 @@
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="67" t="s">
+      <c r="F3" s="75" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="67"/>
-      <c r="H3" s="67"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="68" t="s">
+      <c r="K3" s="76" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="69"/>
-      <c r="M3" s="68" t="s">
+      <c r="L3" s="77"/>
+      <c r="M3" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="69"/>
-      <c r="O3" s="68" t="s">
+      <c r="N3" s="77"/>
+      <c r="O3" s="76" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="70"/>
+      <c r="P3" s="78"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">

--- a/results_analysis/spark_wallFollow_01_hold_02.xlsx
+++ b/results_analysis/spark_wallFollow_01_hold_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F737F7DA-249B-472A-B6ED-84B05DB2095E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAEA2B9-72F4-4ABA-9FB3-D397C0BFC804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -171,8 +171,16 @@
     <numFmt numFmtId="166" formatCode="0.0000"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -629,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -866,6 +874,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1150,8 +1179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23:K30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1806,7 +1835,7 @@
       <c r="D23" s="63">
         <v>0.49841409691630001</v>
       </c>
-      <c r="E23" s="64">
+      <c r="E23" s="80">
         <v>0.91632158590308399</v>
       </c>
       <c r="F23" s="64">
@@ -1815,10 +1844,10 @@
       <c r="G23" s="64">
         <v>0.913898678414097</v>
       </c>
-      <c r="H23" s="64">
+      <c r="H23" s="80">
         <v>0.92112334801762097</v>
       </c>
-      <c r="I23" s="64">
+      <c r="I23" s="80">
         <v>0.92123348017621098</v>
       </c>
       <c r="J23" s="64">
@@ -1836,16 +1865,16 @@
       <c r="D24" s="66">
         <v>0.79843612334801795</v>
       </c>
-      <c r="E24" s="67">
+      <c r="E24" s="81">
         <v>0.94154185022026404</v>
       </c>
       <c r="F24" s="67">
         <v>0.88123348017621095</v>
       </c>
-      <c r="G24" s="67">
+      <c r="G24" s="81">
         <v>0.93039647577092499</v>
       </c>
-      <c r="H24" s="67">
+      <c r="H24" s="81">
         <v>0.92504405286343605</v>
       </c>
       <c r="I24" s="67">
@@ -1875,10 +1904,10 @@
       <c r="F25" s="64">
         <v>0.90927312775330404</v>
       </c>
-      <c r="G25" s="64">
+      <c r="G25" s="80">
         <v>0.92508810572687195</v>
       </c>
-      <c r="H25" s="64">
+      <c r="H25" s="80">
         <v>0.923017621145374</v>
       </c>
       <c r="I25" s="64">
@@ -1887,7 +1916,7 @@
       <c r="J25" s="64">
         <v>0.86044052863436105</v>
       </c>
-      <c r="K25" s="65">
+      <c r="K25" s="82">
         <v>0.92581497797356804</v>
       </c>
     </row>
@@ -1905,13 +1934,13 @@
       <c r="F26" s="67">
         <v>0.90363436123347995</v>
       </c>
-      <c r="G26" s="67">
+      <c r="G26" s="81">
         <v>0.94264317180616797</v>
       </c>
-      <c r="H26" s="67">
+      <c r="H26" s="81">
         <v>0.940374449339207</v>
       </c>
-      <c r="I26" s="67">
+      <c r="I26" s="81">
         <v>0.96352422907488999</v>
       </c>
       <c r="J26" s="67">
@@ -1935,13 +1964,13 @@
       <c r="E27" s="64">
         <v>0.94775330396475799</v>
       </c>
-      <c r="F27" s="64">
+      <c r="F27" s="80">
         <v>0.95257709251101297</v>
       </c>
       <c r="G27" s="64">
         <v>0.94506607929515396</v>
       </c>
-      <c r="H27" s="64">
+      <c r="H27" s="80">
         <v>0.95387665198237903</v>
       </c>
       <c r="I27" s="64">
@@ -1950,7 +1979,7 @@
       <c r="J27" s="64">
         <v>0.88101321585903103</v>
       </c>
-      <c r="K27" s="65">
+      <c r="K27" s="82">
         <v>0.95081497797356795</v>
       </c>
     </row>
@@ -1960,7 +1989,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="66">
+      <c r="D28" s="84">
         <v>0.63696035242290805</v>
       </c>
       <c r="E28" s="67">
@@ -1969,7 +1998,7 @@
       <c r="F28" s="67">
         <v>0.57147577092511004</v>
       </c>
-      <c r="G28" s="67">
+      <c r="G28" s="81">
         <v>0.66526431718061696</v>
       </c>
       <c r="H28" s="67">
@@ -1981,7 +2010,7 @@
       <c r="J28" s="67">
         <v>0.54645374449339201</v>
       </c>
-      <c r="K28" s="68">
+      <c r="K28" s="83">
         <v>0.66334801762114504</v>
       </c>
     </row>
@@ -1996,16 +2025,16 @@
       <c r="D29" s="69">
         <v>0.90330396475770902</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="85">
         <v>0.96572687224669596</v>
       </c>
       <c r="F29" s="16">
         <v>0.89343612334801803</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="85">
         <v>0.95588105726872197</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="85">
         <v>0.96165198237885496</v>
       </c>
       <c r="I29" s="16">
@@ -2014,7 +2043,7 @@
       <c r="J29" s="16">
         <v>0.64618942731277496</v>
       </c>
-      <c r="K29" s="70">
+      <c r="K29" s="86">
         <v>0.955264317180617</v>
       </c>
     </row>
@@ -2027,16 +2056,16 @@
       <c r="D30" s="66">
         <v>0.83997797356828197</v>
       </c>
-      <c r="E30" s="67">
+      <c r="E30" s="81">
         <v>0.94392070484581503</v>
       </c>
       <c r="F30" s="67">
         <v>0.85718061674008805</v>
       </c>
-      <c r="G30" s="67">
+      <c r="G30" s="81">
         <v>0.95178414096916297</v>
       </c>
-      <c r="H30" s="67">
+      <c r="H30" s="81">
         <v>0.96048458149779703</v>
       </c>
       <c r="I30" s="67">
@@ -2045,7 +2074,7 @@
       <c r="J30" s="67">
         <v>0.80400881057268703</v>
       </c>
-      <c r="K30" s="68">
+      <c r="K30" s="83">
         <v>0.94196035242290699</v>
       </c>
     </row>
@@ -11265,7 +11294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D696DEA4-1C6D-43BD-8BC6-2C617DFECF13}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>

--- a/results_analysis/spark_wallFollow_01_hold_02.xlsx
+++ b/results_analysis/spark_wallFollow_01_hold_02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Documents\mltool_matlab_fp\results_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AAEA2B9-72F4-4ABA-9FB3-D397C0BFC804}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2A4EF0-6EF8-4DFE-A17D-0B0EB11DF25C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="734" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="734" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="acc_mean" sheetId="1" r:id="rId1"/>
@@ -637,7 +637,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -849,6 +849,27 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -876,25 +897,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1179,7 +1203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
@@ -1200,35 +1224,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="78" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="74"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="81"/>
     </row>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -1835,7 +1859,7 @@
       <c r="D23" s="63">
         <v>0.49841409691630001</v>
       </c>
-      <c r="E23" s="80">
+      <c r="E23" s="71">
         <v>0.91632158590308399</v>
       </c>
       <c r="F23" s="64">
@@ -1844,10 +1868,10 @@
       <c r="G23" s="64">
         <v>0.913898678414097</v>
       </c>
-      <c r="H23" s="80">
+      <c r="H23" s="71">
         <v>0.92112334801762097</v>
       </c>
-      <c r="I23" s="80">
+      <c r="I23" s="71">
         <v>0.92123348017621098</v>
       </c>
       <c r="J23" s="64">
@@ -1865,16 +1889,16 @@
       <c r="D24" s="66">
         <v>0.79843612334801795</v>
       </c>
-      <c r="E24" s="81">
+      <c r="E24" s="72">
         <v>0.94154185022026404</v>
       </c>
       <c r="F24" s="67">
         <v>0.88123348017621095</v>
       </c>
-      <c r="G24" s="81">
+      <c r="G24" s="72">
         <v>0.93039647577092499</v>
       </c>
-      <c r="H24" s="81">
+      <c r="H24" s="72">
         <v>0.92504405286343605</v>
       </c>
       <c r="I24" s="67">
@@ -1904,10 +1928,10 @@
       <c r="F25" s="64">
         <v>0.90927312775330404</v>
       </c>
-      <c r="G25" s="80">
+      <c r="G25" s="71">
         <v>0.92508810572687195</v>
       </c>
-      <c r="H25" s="80">
+      <c r="H25" s="71">
         <v>0.923017621145374</v>
       </c>
       <c r="I25" s="64">
@@ -1916,7 +1940,7 @@
       <c r="J25" s="64">
         <v>0.86044052863436105</v>
       </c>
-      <c r="K25" s="82">
+      <c r="K25" s="73">
         <v>0.92581497797356804</v>
       </c>
     </row>
@@ -1934,13 +1958,13 @@
       <c r="F26" s="67">
         <v>0.90363436123347995</v>
       </c>
-      <c r="G26" s="81">
+      <c r="G26" s="72">
         <v>0.94264317180616797</v>
       </c>
-      <c r="H26" s="81">
+      <c r="H26" s="72">
         <v>0.940374449339207</v>
       </c>
-      <c r="I26" s="81">
+      <c r="I26" s="72">
         <v>0.96352422907488999</v>
       </c>
       <c r="J26" s="67">
@@ -1964,13 +1988,13 @@
       <c r="E27" s="64">
         <v>0.94775330396475799</v>
       </c>
-      <c r="F27" s="80">
+      <c r="F27" s="71">
         <v>0.95257709251101297</v>
       </c>
       <c r="G27" s="64">
         <v>0.94506607929515396</v>
       </c>
-      <c r="H27" s="80">
+      <c r="H27" s="71">
         <v>0.95387665198237903</v>
       </c>
       <c r="I27" s="64">
@@ -1979,7 +2003,7 @@
       <c r="J27" s="64">
         <v>0.88101321585903103</v>
       </c>
-      <c r="K27" s="82">
+      <c r="K27" s="73">
         <v>0.95081497797356795</v>
       </c>
     </row>
@@ -1989,7 +2013,7 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="84">
+      <c r="D28" s="75">
         <v>0.63696035242290805</v>
       </c>
       <c r="E28" s="67">
@@ -1998,7 +2022,7 @@
       <c r="F28" s="67">
         <v>0.57147577092511004</v>
       </c>
-      <c r="G28" s="81">
+      <c r="G28" s="72">
         <v>0.66526431718061696</v>
       </c>
       <c r="H28" s="67">
@@ -2010,7 +2034,7 @@
       <c r="J28" s="67">
         <v>0.54645374449339201</v>
       </c>
-      <c r="K28" s="83">
+      <c r="K28" s="74">
         <v>0.66334801762114504</v>
       </c>
     </row>
@@ -2025,16 +2049,16 @@
       <c r="D29" s="69">
         <v>0.90330396475770902</v>
       </c>
-      <c r="E29" s="85">
+      <c r="E29" s="76">
         <v>0.96572687224669596</v>
       </c>
       <c r="F29" s="16">
         <v>0.89343612334801803</v>
       </c>
-      <c r="G29" s="85">
+      <c r="G29" s="76">
         <v>0.95588105726872197</v>
       </c>
-      <c r="H29" s="85">
+      <c r="H29" s="76">
         <v>0.96165198237885496</v>
       </c>
       <c r="I29" s="16">
@@ -2043,7 +2067,7 @@
       <c r="J29" s="16">
         <v>0.64618942731277496</v>
       </c>
-      <c r="K29" s="86">
+      <c r="K29" s="77">
         <v>0.955264317180617</v>
       </c>
     </row>
@@ -2056,16 +2080,16 @@
       <c r="D30" s="66">
         <v>0.83997797356828197</v>
       </c>
-      <c r="E30" s="81">
+      <c r="E30" s="72">
         <v>0.94392070484581503</v>
       </c>
       <c r="F30" s="67">
         <v>0.85718061674008805</v>
       </c>
-      <c r="G30" s="81">
+      <c r="G30" s="72">
         <v>0.95178414096916297</v>
       </c>
-      <c r="H30" s="81">
+      <c r="H30" s="72">
         <v>0.96048458149779703</v>
       </c>
       <c r="I30" s="67">
@@ -2074,7 +2098,7 @@
       <c r="J30" s="67">
         <v>0.80400881057268703</v>
       </c>
-      <c r="K30" s="83">
+      <c r="K30" s="74">
         <v>0.94196035242290699</v>
       </c>
     </row>
@@ -2250,61 +2274,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
-      <c r="Q1" s="71"/>
-      <c r="R1" s="71"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
+      <c r="Q1" s="78"/>
+      <c r="R1" s="78"/>
     </row>
     <row r="2" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D3" s="79" t="s">
+      <c r="D3" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="77"/>
-      <c r="F3" s="76" t="s">
+      <c r="E3" s="84"/>
+      <c r="F3" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="77"/>
-      <c r="H3" s="76" t="s">
+      <c r="G3" s="84"/>
+      <c r="H3" s="83" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="76" t="s">
+      <c r="I3" s="84"/>
+      <c r="J3" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="77"/>
-      <c r="L3" s="76" t="s">
+      <c r="K3" s="84"/>
+      <c r="L3" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="M3" s="77"/>
-      <c r="N3" s="76" t="s">
+      <c r="M3" s="84"/>
+      <c r="N3" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="77"/>
-      <c r="P3" s="76" t="s">
+      <c r="O3" s="84"/>
+      <c r="P3" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="Q3" s="77"/>
-      <c r="R3" s="76" t="s">
+      <c r="Q3" s="84"/>
+      <c r="R3" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="78"/>
+      <c r="S3" s="85"/>
     </row>
     <row r="4" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -3589,19 +3613,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="78" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -4354,19 +4378,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
@@ -5124,32 +5148,32 @@
   <sheetData>
     <row r="2" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="72" t="s">
+      <c r="A3" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
-      <c r="K3" s="74"/>
-      <c r="M3" s="72" t="s">
+      <c r="B3" s="80"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="81"/>
+      <c r="M3" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="73"/>
-      <c r="R3" s="73"/>
-      <c r="S3" s="73"/>
-      <c r="T3" s="73"/>
-      <c r="U3" s="73"/>
-      <c r="V3" s="73"/>
-      <c r="W3" s="74"/>
+      <c r="N3" s="80"/>
+      <c r="O3" s="80"/>
+      <c r="P3" s="80"/>
+      <c r="Q3" s="80"/>
+      <c r="R3" s="80"/>
+      <c r="S3" s="80"/>
+      <c r="T3" s="80"/>
+      <c r="U3" s="80"/>
+      <c r="V3" s="80"/>
+      <c r="W3" s="81"/>
     </row>
     <row r="4" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
@@ -6485,19 +6509,19 @@
     </row>
     <row r="21" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="M22" s="72" t="s">
+      <c r="M22" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="N22" s="73"/>
-      <c r="O22" s="73"/>
-      <c r="P22" s="73"/>
-      <c r="Q22" s="73"/>
-      <c r="R22" s="73"/>
-      <c r="S22" s="73"/>
-      <c r="T22" s="73"/>
-      <c r="U22" s="73"/>
-      <c r="V22" s="73"/>
-      <c r="W22" s="74"/>
+      <c r="N22" s="80"/>
+      <c r="O22" s="80"/>
+      <c r="P22" s="80"/>
+      <c r="Q22" s="80"/>
+      <c r="R22" s="80"/>
+      <c r="S22" s="80"/>
+      <c r="T22" s="80"/>
+      <c r="U22" s="80"/>
+      <c r="V22" s="80"/>
+      <c r="W22" s="81"/>
     </row>
     <row r="23" spans="1:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="M23" s="2" t="s">
@@ -7215,19 +7239,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -8339,19 +8363,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -9266,19 +9290,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="78" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10243,8 +10267,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D980D9F8-6B96-4F95-8395-B1BF7462FEB8}">
   <dimension ref="A1:K53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10258,19 +10282,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10866,28 +10890,28 @@
         <v>1</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="63">
+      <c r="D23" s="87">
         <v>5</v>
       </c>
-      <c r="E23" s="64">
+      <c r="E23" s="88">
         <v>169</v>
       </c>
-      <c r="F23" s="64">
+      <c r="F23" s="88">
         <v>22</v>
       </c>
-      <c r="G23" s="64">
+      <c r="G23" s="88">
         <v>101</v>
       </c>
-      <c r="H23" s="64">
+      <c r="H23" s="88">
         <v>173</v>
       </c>
-      <c r="I23" s="64">
+      <c r="I23" s="88">
         <v>732</v>
       </c>
-      <c r="J23" s="64">
+      <c r="J23" s="88">
         <v>6</v>
       </c>
-      <c r="K23" s="65">
+      <c r="K23" s="89">
         <v>191</v>
       </c>
     </row>
@@ -10896,28 +10920,28 @@
       <c r="B24" s="1">
         <v>2</v>
       </c>
-      <c r="D24" s="66">
+      <c r="D24" s="90">
         <v>9</v>
       </c>
-      <c r="E24" s="67">
+      <c r="E24" s="91">
         <v>159</v>
       </c>
-      <c r="F24" s="67">
+      <c r="F24" s="91">
         <v>20</v>
       </c>
-      <c r="G24" s="67">
+      <c r="G24" s="91">
         <v>167</v>
       </c>
-      <c r="H24" s="67">
+      <c r="H24" s="91">
         <v>138</v>
       </c>
-      <c r="I24" s="67">
+      <c r="I24" s="91">
         <v>732</v>
       </c>
-      <c r="J24" s="67">
+      <c r="J24" s="91">
         <v>10</v>
       </c>
-      <c r="K24" s="68">
+      <c r="K24" s="92">
         <v>104</v>
       </c>
     </row>
@@ -10929,28 +10953,28 @@
         <v>1</v>
       </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="63">
+      <c r="D25" s="87">
         <v>112</v>
       </c>
-      <c r="E25" s="64">
+      <c r="E25" s="88">
         <v>156</v>
       </c>
-      <c r="F25" s="64">
+      <c r="F25" s="88">
         <v>183</v>
       </c>
-      <c r="G25" s="64">
+      <c r="G25" s="88">
         <v>183</v>
       </c>
-      <c r="H25" s="64">
+      <c r="H25" s="88">
         <v>170</v>
       </c>
-      <c r="I25" s="64">
-        <v>1</v>
-      </c>
-      <c r="J25" s="64">
+      <c r="I25" s="88">
+        <v>1</v>
+      </c>
+      <c r="J25" s="88">
         <v>172</v>
       </c>
-      <c r="K25" s="65">
+      <c r="K25" s="89">
         <v>156</v>
       </c>
     </row>
@@ -10959,28 +10983,28 @@
       <c r="B26" s="1">
         <v>2</v>
       </c>
-      <c r="D26" s="66">
+      <c r="D26" s="90">
         <v>153</v>
       </c>
-      <c r="E26" s="67">
+      <c r="E26" s="91">
         <v>129</v>
       </c>
-      <c r="F26" s="67">
+      <c r="F26" s="91">
         <v>133</v>
       </c>
-      <c r="G26" s="67">
+      <c r="G26" s="91">
         <v>116</v>
       </c>
-      <c r="H26" s="67">
+      <c r="H26" s="91">
         <v>140</v>
       </c>
-      <c r="I26" s="67">
+      <c r="I26" s="91">
         <v>732</v>
       </c>
-      <c r="J26" s="67">
+      <c r="J26" s="91">
         <v>225</v>
       </c>
-      <c r="K26" s="68">
+      <c r="K26" s="92">
         <v>195</v>
       </c>
     </row>
@@ -10992,28 +11016,28 @@
         <v>1</v>
       </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="63">
+      <c r="D27" s="87">
         <v>65</v>
       </c>
-      <c r="E27" s="64">
+      <c r="E27" s="88">
         <v>74</v>
       </c>
-      <c r="F27" s="64">
+      <c r="F27" s="88">
         <v>74</v>
       </c>
-      <c r="G27" s="64">
+      <c r="G27" s="88">
         <v>67</v>
       </c>
-      <c r="H27" s="64">
+      <c r="H27" s="88">
         <v>70</v>
       </c>
-      <c r="I27" s="64">
+      <c r="I27" s="88">
         <v>66</v>
       </c>
-      <c r="J27" s="64">
+      <c r="J27" s="88">
         <v>55</v>
       </c>
-      <c r="K27" s="65">
+      <c r="K27" s="89">
         <v>65</v>
       </c>
     </row>
@@ -11023,28 +11047,28 @@
         <v>2</v>
       </c>
       <c r="C28" s="6"/>
-      <c r="D28" s="66">
+      <c r="D28" s="90">
         <v>4</v>
       </c>
-      <c r="E28" s="67">
+      <c r="E28" s="91">
         <v>4</v>
       </c>
-      <c r="F28" s="67">
+      <c r="F28" s="91">
         <v>5</v>
       </c>
-      <c r="G28" s="67">
+      <c r="G28" s="91">
         <v>4</v>
       </c>
-      <c r="H28" s="67">
+      <c r="H28" s="91">
         <v>4</v>
       </c>
-      <c r="I28" s="67">
+      <c r="I28" s="91">
         <v>4</v>
       </c>
-      <c r="J28" s="67">
+      <c r="J28" s="91">
         <v>4</v>
       </c>
-      <c r="K28" s="68">
+      <c r="K28" s="92">
         <v>4</v>
       </c>
     </row>
@@ -11056,28 +11080,28 @@
         <v>1</v>
       </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="69">
+      <c r="D29" s="93">
         <v>153</v>
       </c>
-      <c r="E29" s="16">
+      <c r="E29" s="11">
         <v>443</v>
       </c>
-      <c r="F29" s="16">
+      <c r="F29" s="11">
         <v>128</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="11">
         <v>156</v>
       </c>
-      <c r="H29" s="16">
+      <c r="H29" s="11">
         <v>127</v>
       </c>
-      <c r="I29" s="16">
+      <c r="I29" s="11">
         <v>240</v>
       </c>
-      <c r="J29" s="16">
+      <c r="J29" s="11">
         <v>7</v>
       </c>
-      <c r="K29" s="70">
+      <c r="K29" s="94">
         <v>132</v>
       </c>
     </row>
@@ -11087,28 +11111,28 @@
         <v>2</v>
       </c>
       <c r="C30" s="6"/>
-      <c r="D30" s="66">
+      <c r="D30" s="90">
         <v>40</v>
       </c>
-      <c r="E30" s="67">
+      <c r="E30" s="91">
         <v>137</v>
       </c>
-      <c r="F30" s="67">
+      <c r="F30" s="91">
         <v>121</v>
       </c>
-      <c r="G30" s="67">
+      <c r="G30" s="91">
         <v>134</v>
       </c>
-      <c r="H30" s="67">
+      <c r="H30" s="91">
         <v>133</v>
       </c>
-      <c r="I30" s="67">
+      <c r="I30" s="91">
         <v>198</v>
       </c>
-      <c r="J30" s="67">
+      <c r="J30" s="91">
         <v>41</v>
       </c>
-      <c r="K30" s="68">
+      <c r="K30" s="92">
         <v>244</v>
       </c>
     </row>
@@ -11309,19 +11333,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -12364,19 +12388,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -13419,19 +13443,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="78" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
     </row>
     <row r="3" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14476,24 +14500,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="78" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="L1" s="71"/>
-      <c r="M1" s="71"/>
-      <c r="N1" s="71"/>
-      <c r="O1" s="71"/>
-      <c r="P1" s="71"/>
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="78"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="78"/>
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="L1" s="78"/>
+      <c r="M1" s="78"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="78"/>
     </row>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -14503,29 +14527,29 @@
       <c r="E3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="75" t="s">
+      <c r="F3" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
+      <c r="G3" s="82"/>
+      <c r="H3" s="82"/>
       <c r="I3" s="18" t="s">
         <v>13</v>
       </c>
       <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="76" t="s">
+      <c r="K3" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="77"/>
-      <c r="M3" s="76" t="s">
+      <c r="L3" s="84"/>
+      <c r="M3" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="77"/>
-      <c r="O3" s="76" t="s">
+      <c r="N3" s="84"/>
+      <c r="O3" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="P3" s="78"/>
+      <c r="P3" s="85"/>
     </row>
     <row r="4" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
